--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKIRANMU\Desktop\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHROME_DOWNLOAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F4FBF-415A-4B95-A69C-4E2A0A350BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B9960B-FF0B-4B28-A6E0-1C92FB815080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,8 +40,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2164,10 +2162,10 @@
     <t>Prem</t>
   </si>
   <si>
-    <t>Maitryee</t>
-  </si>
-  <si>
     <t>✅</t>
+  </si>
+  <si>
+    <t>Aryan</t>
   </si>
 </sst>
 </file>
@@ -2741,23 +2739,23 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="176.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="176.453125" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="176.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="176.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2802,7 +2800,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2836,14 +2834,14 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="3"/>
       <c r="C4" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -2871,7 +2869,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="8.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:29" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2902,7 +2900,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -2910,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>698</v>
@@ -2945,7 +2943,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2954,7 +2952,7 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
@@ -2984,7 +2982,7 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -2993,7 +2991,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>17</v>
@@ -3023,7 +3021,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -3032,7 +3030,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>19</v>
@@ -3064,7 +3062,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -3073,7 +3071,7 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>22</v>
@@ -3103,7 +3101,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -3112,7 +3110,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>22</v>
@@ -3142,7 +3140,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -3151,7 +3149,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>25</v>
@@ -3181,7 +3179,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -3190,7 +3188,7 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>27</v>
@@ -3220,7 +3218,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -3229,7 +3227,7 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>29</v>
@@ -3259,7 +3257,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -3268,7 +3266,7 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>22</v>
@@ -3298,7 +3296,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
@@ -3307,7 +3305,7 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>32</v>
@@ -3337,7 +3335,7 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -3346,7 +3344,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>34</v>
@@ -3378,7 +3376,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
@@ -3387,7 +3385,7 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>19</v>
@@ -3417,7 +3415,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
@@ -3426,7 +3424,7 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>38</v>
@@ -3456,7 +3454,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
@@ -3493,7 +3491,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
@@ -3530,7 +3528,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
@@ -3567,7 +3565,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
@@ -3606,7 +3604,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
@@ -3643,7 +3641,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>13</v>
       </c>
@@ -3652,7 +3650,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>15</v>
@@ -3682,7 +3680,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>13</v>
       </c>
@@ -3718,7 +3716,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>13</v>
       </c>
@@ -3755,7 +3753,7 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>13</v>
       </c>
@@ -3791,7 +3789,7 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>13</v>
       </c>
@@ -3828,7 +3826,7 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>13</v>
       </c>
@@ -3865,7 +3863,7 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>13</v>
       </c>
@@ -3902,7 +3900,7 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
@@ -3939,7 +3937,7 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3970,7 +3968,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -4001,7 +3999,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>62</v>
       </c>
@@ -4038,7 +4036,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -4075,7 +4073,7 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>62</v>
       </c>
@@ -4114,7 +4112,7 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>62</v>
       </c>
@@ -4151,7 +4149,7 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -4188,7 +4186,7 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
     </row>
-    <row r="40" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>62</v>
       </c>
@@ -4225,7 +4223,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
@@ -4262,7 +4260,7 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>62</v>
       </c>
@@ -4299,7 +4297,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>62</v>
       </c>
@@ -4336,7 +4334,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>62</v>
       </c>
@@ -4373,7 +4371,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
@@ -4410,7 +4408,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>62</v>
       </c>
@@ -4447,7 +4445,7 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>62</v>
       </c>
@@ -4484,7 +4482,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>62</v>
       </c>
@@ -4521,7 +4519,7 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
@@ -4558,7 +4556,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>62</v>
       </c>
@@ -4595,7 +4593,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
         <v>62</v>
       </c>
@@ -4632,7 +4630,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
         <v>62</v>
       </c>
@@ -4669,7 +4667,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
     </row>
-    <row r="53" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
         <v>62</v>
       </c>
@@ -4706,7 +4704,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>62</v>
       </c>
@@ -4743,7 +4741,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>62</v>
       </c>
@@ -4780,7 +4778,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>62</v>
       </c>
@@ -4819,7 +4817,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
     </row>
-    <row r="57" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="13"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -4850,7 +4848,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="13"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -4881,7 +4879,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
     </row>
-    <row r="59" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
         <v>106</v>
       </c>
@@ -4918,7 +4916,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>106</v>
       </c>
@@ -4955,7 +4953,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
         <v>106</v>
       </c>
@@ -4992,7 +4990,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
         <v>106</v>
       </c>
@@ -5029,7 +5027,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
         <v>106</v>
       </c>
@@ -5066,7 +5064,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
         <v>106</v>
       </c>
@@ -5105,7 +5103,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
         <v>106</v>
       </c>
@@ -5142,7 +5140,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
         <v>106</v>
       </c>
@@ -5179,7 +5177,7 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
         <v>106</v>
       </c>
@@ -5216,7 +5214,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>106</v>
       </c>
@@ -5253,7 +5251,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -5284,7 +5282,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="16"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -5315,7 +5313,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="17" t="s">
         <v>127</v>
       </c>
@@ -5352,7 +5350,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="17" t="s">
         <v>127</v>
       </c>
@@ -5389,7 +5387,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="17" t="s">
         <v>127</v>
       </c>
@@ -5426,7 +5424,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="17" t="s">
         <v>127</v>
       </c>
@@ -5463,7 +5461,7 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="17" t="s">
         <v>127</v>
       </c>
@@ -5500,7 +5498,7 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="17" t="s">
         <v>127</v>
       </c>
@@ -5537,7 +5535,7 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
     </row>
-    <row r="77" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="18" t="s">
         <v>127</v>
       </c>
@@ -5574,7 +5572,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
     </row>
-    <row r="78" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="18" t="s">
         <v>127</v>
       </c>
@@ -5611,7 +5609,7 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
     </row>
-    <row r="79" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="18" t="s">
         <v>127</v>
       </c>
@@ -5647,7 +5645,7 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
     </row>
-    <row r="80" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="18" t="s">
         <v>127</v>
       </c>
@@ -5683,7 +5681,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="18" t="s">
         <v>127</v>
       </c>
@@ -5720,7 +5718,7 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="18" t="s">
         <v>127</v>
       </c>
@@ -5757,7 +5755,7 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
     </row>
-    <row r="83" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="18" t="s">
         <v>127</v>
       </c>
@@ -5794,7 +5792,7 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
     </row>
-    <row r="84" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="18" t="s">
         <v>127</v>
       </c>
@@ -5831,7 +5829,7 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
     </row>
-    <row r="85" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="18" t="s">
         <v>127</v>
       </c>
@@ -5868,7 +5866,7 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
     </row>
-    <row r="86" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="18" t="s">
         <v>127</v>
       </c>
@@ -5905,7 +5903,7 @@
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
     </row>
-    <row r="87" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="19" t="s">
         <v>127</v>
       </c>
@@ -5942,7 +5940,7 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
     </row>
-    <row r="88" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="19" t="s">
         <v>127</v>
       </c>
@@ -5979,7 +5977,7 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
     </row>
-    <row r="89" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="19" t="s">
         <v>127</v>
       </c>
@@ -6016,7 +6014,7 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
     </row>
-    <row r="90" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="19" t="s">
         <v>127</v>
       </c>
@@ -6053,7 +6051,7 @@
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
     </row>
-    <row r="91" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="19" t="s">
         <v>127</v>
       </c>
@@ -6090,7 +6088,7 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
     </row>
-    <row r="92" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="19" t="s">
         <v>127</v>
       </c>
@@ -6127,7 +6125,7 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
     </row>
-    <row r="93" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="19" t="s">
         <v>127</v>
       </c>
@@ -6164,7 +6162,7 @@
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
     </row>
-    <row r="94" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="16"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -6195,7 +6193,7 @@
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
     </row>
-    <row r="95" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="16"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -6226,7 +6224,7 @@
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
     </row>
-    <row r="96" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
         <v>170</v>
       </c>
@@ -6263,7 +6261,7 @@
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
     </row>
-    <row r="97" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
         <v>170</v>
       </c>
@@ -6300,7 +6298,7 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
     </row>
-    <row r="98" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
         <v>170</v>
       </c>
@@ -6337,7 +6335,7 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
     </row>
-    <row r="99" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="7" t="s">
         <v>170</v>
       </c>
@@ -6374,7 +6372,7 @@
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
     </row>
-    <row r="100" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="7" t="s">
         <v>170</v>
       </c>
@@ -6411,7 +6409,7 @@
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
     </row>
-    <row r="101" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
         <v>170</v>
       </c>
@@ -6448,7 +6446,7 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
     </row>
-    <row r="102" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="7" t="s">
         <v>170</v>
       </c>
@@ -6485,7 +6483,7 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
     </row>
-    <row r="103" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="7" t="s">
         <v>170</v>
       </c>
@@ -6522,7 +6520,7 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
     </row>
-    <row r="104" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
         <v>170</v>
       </c>
@@ -6558,7 +6556,7 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
     </row>
-    <row r="105" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
         <v>170</v>
       </c>
@@ -6594,7 +6592,7 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
     </row>
-    <row r="106" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="8" t="s">
         <v>170</v>
       </c>
@@ -6630,7 +6628,7 @@
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
     </row>
-    <row r="107" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="8" t="s">
         <v>170</v>
       </c>
@@ -6664,7 +6662,7 @@
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
     </row>
-    <row r="108" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="8" t="s">
         <v>170</v>
       </c>
@@ -6700,7 +6698,7 @@
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
     </row>
-    <row r="109" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="8" t="s">
         <v>170</v>
       </c>
@@ -6736,7 +6734,7 @@
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
     </row>
-    <row r="110" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="8" t="s">
         <v>170</v>
       </c>
@@ -6773,7 +6771,7 @@
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
     </row>
-    <row r="111" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="8" t="s">
         <v>170</v>
       </c>
@@ -6810,7 +6808,7 @@
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
     </row>
-    <row r="112" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="8" t="s">
         <v>170</v>
       </c>
@@ -6847,7 +6845,7 @@
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
     </row>
-    <row r="113" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="8" t="s">
         <v>170</v>
       </c>
@@ -6884,7 +6882,7 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
     </row>
-    <row r="114" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="8" t="s">
         <v>170</v>
       </c>
@@ -6919,7 +6917,7 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
     </row>
-    <row r="115" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="8" t="s">
         <v>170</v>
       </c>
@@ -6954,7 +6952,7 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
     </row>
-    <row r="116" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="8" t="s">
         <v>170</v>
       </c>
@@ -6989,7 +6987,7 @@
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
     </row>
-    <row r="117" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="16"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -7018,7 +7016,7 @@
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
     </row>
-    <row r="118" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="16"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -7047,7 +7045,7 @@
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
     </row>
-    <row r="119" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="4" t="s">
         <v>204</v>
       </c>
@@ -7083,7 +7081,7 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
     </row>
-    <row r="120" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="4" t="s">
         <v>204</v>
       </c>
@@ -7119,7 +7117,7 @@
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
     </row>
-    <row r="121" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="4" t="s">
         <v>204</v>
       </c>
@@ -7155,7 +7153,7 @@
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
     </row>
-    <row r="122" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A122" s="4" t="s">
         <v>204</v>
       </c>
@@ -7191,7 +7189,7 @@
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
     </row>
-    <row r="123" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A123" s="4" t="s">
         <v>204</v>
       </c>
@@ -7227,7 +7225,7 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
     </row>
-    <row r="124" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A124" s="4" t="s">
         <v>204</v>
       </c>
@@ -7263,7 +7261,7 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
     </row>
-    <row r="125" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A125" s="4" t="s">
         <v>204</v>
       </c>
@@ -7299,7 +7297,7 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
     </row>
-    <row r="126" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A126" s="7" t="s">
         <v>204</v>
       </c>
@@ -7335,7 +7333,7 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
     </row>
-    <row r="127" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A127" s="7" t="s">
         <v>204</v>
       </c>
@@ -7371,7 +7369,7 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
     </row>
-    <row r="128" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A128" s="7" t="s">
         <v>204</v>
       </c>
@@ -7407,7 +7405,7 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
     </row>
-    <row r="129" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
         <v>204</v>
       </c>
@@ -7443,7 +7441,7 @@
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
     </row>
-    <row r="130" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="7" t="s">
         <v>204</v>
       </c>
@@ -7480,7 +7478,7 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
     </row>
-    <row r="131" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="7" t="s">
         <v>204</v>
       </c>
@@ -7517,7 +7515,7 @@
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
     </row>
-    <row r="132" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
         <v>204</v>
       </c>
@@ -7554,7 +7552,7 @@
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
     </row>
-    <row r="133" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
         <v>204</v>
       </c>
@@ -7591,7 +7589,7 @@
       <c r="AB133" s="2"/>
       <c r="AC133" s="2"/>
     </row>
-    <row r="134" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A134" s="7" t="s">
         <v>204</v>
       </c>
@@ -7628,7 +7626,7 @@
       <c r="AB134" s="2"/>
       <c r="AC134" s="2"/>
     </row>
-    <row r="135" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A135" s="7" t="s">
         <v>204</v>
       </c>
@@ -7665,7 +7663,7 @@
       <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
     </row>
-    <row r="136" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A136" s="7" t="s">
         <v>204</v>
       </c>
@@ -7702,7 +7700,7 @@
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
     </row>
-    <row r="137" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A137" s="7" t="s">
         <v>204</v>
       </c>
@@ -7739,7 +7737,7 @@
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
     </row>
-    <row r="138" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A138" s="8" t="s">
         <v>204</v>
       </c>
@@ -7776,7 +7774,7 @@
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
     </row>
-    <row r="139" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A139" s="8" t="s">
         <v>204</v>
       </c>
@@ -7815,7 +7813,7 @@
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
     </row>
-    <row r="140" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A140" s="8" t="s">
         <v>204</v>
       </c>
@@ -7854,7 +7852,7 @@
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
     </row>
-    <row r="141" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A141" s="8" t="s">
         <v>204</v>
       </c>
@@ -7891,7 +7889,7 @@
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
     </row>
-    <row r="142" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="8" t="s">
         <v>204</v>
       </c>
@@ -7928,7 +7926,7 @@
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
     </row>
-    <row r="143" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="8" t="s">
         <v>204</v>
       </c>
@@ -7965,7 +7963,7 @@
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
     </row>
-    <row r="144" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A144" s="8" t="s">
         <v>204</v>
       </c>
@@ -8002,7 +8000,7 @@
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
     </row>
-    <row r="145" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -8033,7 +8031,7 @@
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
     </row>
-    <row r="146" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="16"/>
       <c r="B146" s="14" t="s">
         <v>253</v>
@@ -8066,7 +8064,7 @@
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
     </row>
-    <row r="147" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A147" s="4" t="s">
         <v>254</v>
       </c>
@@ -8103,7 +8101,7 @@
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
     </row>
-    <row r="148" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A148" s="4" t="s">
         <v>254</v>
       </c>
@@ -8140,7 +8138,7 @@
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
     </row>
-    <row r="149" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A149" s="4" t="s">
         <v>254</v>
       </c>
@@ -8177,7 +8175,7 @@
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
     </row>
-    <row r="150" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A150" s="4" t="s">
         <v>254</v>
       </c>
@@ -8214,7 +8212,7 @@
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
     </row>
-    <row r="151" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A151" s="4" t="s">
         <v>254</v>
       </c>
@@ -8251,7 +8249,7 @@
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
     </row>
-    <row r="152" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A152" s="4" t="s">
         <v>254</v>
       </c>
@@ -8288,7 +8286,7 @@
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
     </row>
-    <row r="153" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A153" s="7" t="s">
         <v>254</v>
       </c>
@@ -8325,7 +8323,7 @@
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
     </row>
-    <row r="154" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A154" s="7" t="s">
         <v>254</v>
       </c>
@@ -8362,7 +8360,7 @@
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
     </row>
-    <row r="155" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A155" s="7" t="s">
         <v>254</v>
       </c>
@@ -8399,7 +8397,7 @@
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
     </row>
-    <row r="156" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A156" s="7" t="s">
         <v>254</v>
       </c>
@@ -8434,7 +8432,7 @@
       <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
     </row>
-    <row r="157" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
         <v>254</v>
       </c>
@@ -8469,7 +8467,7 @@
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
     </row>
-    <row r="158" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A158" s="7" t="s">
         <v>254</v>
       </c>
@@ -8504,7 +8502,7 @@
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
     </row>
-    <row r="159" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A159" s="7" t="s">
         <v>254</v>
       </c>
@@ -8539,7 +8537,7 @@
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
     </row>
-    <row r="160" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A160" s="7" t="s">
         <v>254</v>
       </c>
@@ -8574,7 +8572,7 @@
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
     </row>
-    <row r="161" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A161" s="7" t="s">
         <v>254</v>
       </c>
@@ -8609,7 +8607,7 @@
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
     </row>
-    <row r="162" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A162" s="7" t="s">
         <v>254</v>
       </c>
@@ -8644,7 +8642,7 @@
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
     </row>
-    <row r="163" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A163" s="7" t="s">
         <v>254</v>
       </c>
@@ -8679,7 +8677,7 @@
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
     </row>
-    <row r="164" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A164" s="7" t="s">
         <v>254</v>
       </c>
@@ -8714,7 +8712,7 @@
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
     </row>
-    <row r="165" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A165" s="7" t="s">
         <v>254</v>
       </c>
@@ -8749,7 +8747,7 @@
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
     </row>
-    <row r="166" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A166" s="7" t="s">
         <v>254</v>
       </c>
@@ -8784,7 +8782,7 @@
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
     </row>
-    <row r="167" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A167" s="7" t="s">
         <v>254</v>
       </c>
@@ -8819,7 +8817,7 @@
       <c r="AB167" s="2"/>
       <c r="AC167" s="2"/>
     </row>
-    <row r="168" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A168" s="8" t="s">
         <v>254</v>
       </c>
@@ -8854,7 +8852,7 @@
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
     </row>
-    <row r="169" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A169" s="8" t="s">
         <v>254</v>
       </c>
@@ -8889,7 +8887,7 @@
       <c r="AB169" s="2"/>
       <c r="AC169" s="2"/>
     </row>
-    <row r="170" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A170" s="8" t="s">
         <v>254</v>
       </c>
@@ -8924,7 +8922,7 @@
       <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
     </row>
-    <row r="171" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A171" s="8" t="s">
         <v>254</v>
       </c>
@@ -8959,7 +8957,7 @@
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
     </row>
-    <row r="172" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A172" s="8" t="s">
         <v>254</v>
       </c>
@@ -8996,7 +8994,7 @@
       <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
     </row>
-    <row r="173" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A173" s="8" t="s">
         <v>254</v>
       </c>
@@ -9033,7 +9031,7 @@
       <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
     </row>
-    <row r="174" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
       <c r="G174" s="35"/>
@@ -9060,7 +9058,7 @@
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
     </row>
-    <row r="175" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A175" s="16"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -9091,7 +9089,7 @@
       <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
     </row>
-    <row r="176" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A176" s="4" t="s">
         <v>302</v>
       </c>
@@ -9128,7 +9126,7 @@
       <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
     </row>
-    <row r="177" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A177" s="4" t="s">
         <v>302</v>
       </c>
@@ -9165,7 +9163,7 @@
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
     </row>
-    <row r="178" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A178" s="4" t="s">
         <v>302</v>
       </c>
@@ -9202,7 +9200,7 @@
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
     </row>
-    <row r="179" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A179" s="4" t="s">
         <v>302</v>
       </c>
@@ -9239,7 +9237,7 @@
       <c r="AB179" s="2"/>
       <c r="AC179" s="2"/>
     </row>
-    <row r="180" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A180" s="4" t="s">
         <v>302</v>
       </c>
@@ -9276,7 +9274,7 @@
       <c r="AB180" s="2"/>
       <c r="AC180" s="2"/>
     </row>
-    <row r="181" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A181" s="4" t="s">
         <v>302</v>
       </c>
@@ -9309,7 +9307,7 @@
       <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
     </row>
-    <row r="182" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A182" s="4" t="s">
         <v>302</v>
       </c>
@@ -9344,7 +9342,7 @@
       <c r="AB182" s="2"/>
       <c r="AC182" s="2"/>
     </row>
-    <row r="183" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A183" s="7" t="s">
         <v>302</v>
       </c>
@@ -9379,7 +9377,7 @@
       <c r="AB183" s="2"/>
       <c r="AC183" s="2"/>
     </row>
-    <row r="184" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A184" s="7" t="s">
         <v>302</v>
       </c>
@@ -9412,7 +9410,7 @@
       <c r="AB184" s="2"/>
       <c r="AC184" s="2"/>
     </row>
-    <row r="185" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A185" s="7" t="s">
         <v>302</v>
       </c>
@@ -9447,7 +9445,7 @@
       <c r="AB185" s="2"/>
       <c r="AC185" s="2"/>
     </row>
-    <row r="186" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A186" s="7" t="s">
         <v>302</v>
       </c>
@@ -9482,7 +9480,7 @@
       <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
     </row>
-    <row r="187" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A187" s="7" t="s">
         <v>302</v>
       </c>
@@ -9517,7 +9515,7 @@
       <c r="AB187" s="2"/>
       <c r="AC187" s="2"/>
     </row>
-    <row r="188" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A188" s="7" t="s">
         <v>302</v>
       </c>
@@ -9552,7 +9550,7 @@
       <c r="AB188" s="2"/>
       <c r="AC188" s="2"/>
     </row>
-    <row r="189" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A189" s="7" t="s">
         <v>302</v>
       </c>
@@ -9587,7 +9585,7 @@
       <c r="AB189" s="2"/>
       <c r="AC189" s="2"/>
     </row>
-    <row r="190" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A190" s="7" t="s">
         <v>302</v>
       </c>
@@ -9622,7 +9620,7 @@
       <c r="AB190" s="2"/>
       <c r="AC190" s="2"/>
     </row>
-    <row r="191" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A191" s="7" t="s">
         <v>302</v>
       </c>
@@ -9657,7 +9655,7 @@
       <c r="AB191" s="2"/>
       <c r="AC191" s="2"/>
     </row>
-    <row r="192" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A192" s="8" t="s">
         <v>302</v>
       </c>
@@ -9690,7 +9688,7 @@
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
     </row>
-    <row r="193" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A193" s="8" t="s">
         <v>302</v>
       </c>
@@ -9725,7 +9723,7 @@
       <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
     </row>
-    <row r="194" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A194" s="8" t="s">
         <v>302</v>
       </c>
@@ -9760,7 +9758,7 @@
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
     </row>
-    <row r="195" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A195" s="8" t="s">
         <v>302</v>
       </c>
@@ -9793,7 +9791,7 @@
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
     </row>
-    <row r="196" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A196" s="8" t="s">
         <v>302</v>
       </c>
@@ -9826,7 +9824,7 @@
       <c r="AB196" s="2"/>
       <c r="AC196" s="2"/>
     </row>
-    <row r="197" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A197" s="8" t="s">
         <v>302</v>
       </c>
@@ -9861,7 +9859,7 @@
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
     </row>
-    <row r="198" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A198" s="16"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -9892,7 +9890,7 @@
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
     </row>
-    <row r="199" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A199" s="16"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -9923,7 +9921,7 @@
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
     </row>
-    <row r="200" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A200" s="4" t="s">
         <v>335</v>
       </c>
@@ -9960,7 +9958,7 @@
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
     </row>
-    <row r="201" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A201" s="4" t="s">
         <v>335</v>
       </c>
@@ -9997,7 +9995,7 @@
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
     </row>
-    <row r="202" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A202" s="4" t="s">
         <v>335</v>
       </c>
@@ -10034,7 +10032,7 @@
       <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
     </row>
-    <row r="203" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A203" s="4" t="s">
         <v>335</v>
       </c>
@@ -10071,7 +10069,7 @@
       <c r="AB203" s="2"/>
       <c r="AC203" s="2"/>
     </row>
-    <row r="204" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A204" s="4" t="s">
         <v>335</v>
       </c>
@@ -10108,7 +10106,7 @@
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
     </row>
-    <row r="205" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A205" s="4" t="s">
         <v>335</v>
       </c>
@@ -10145,7 +10143,7 @@
       <c r="AB205" s="2"/>
       <c r="AC205" s="2"/>
     </row>
-    <row r="206" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A206" s="4" t="s">
         <v>335</v>
       </c>
@@ -10181,7 +10179,7 @@
       <c r="AB206" s="2"/>
       <c r="AC206" s="2"/>
     </row>
-    <row r="207" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A207" s="4" t="s">
         <v>335</v>
       </c>
@@ -10217,7 +10215,7 @@
       <c r="AB207" s="2"/>
       <c r="AC207" s="2"/>
     </row>
-    <row r="208" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A208" s="4" t="s">
         <v>335</v>
       </c>
@@ -10253,7 +10251,7 @@
       <c r="AB208" s="2"/>
       <c r="AC208" s="2"/>
     </row>
-    <row r="209" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A209" s="4" t="s">
         <v>335</v>
       </c>
@@ -10289,7 +10287,7 @@
       <c r="AB209" s="2"/>
       <c r="AC209" s="2"/>
     </row>
-    <row r="210" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A210" s="4" t="s">
         <v>335</v>
       </c>
@@ -10325,7 +10323,7 @@
       <c r="AB210" s="2"/>
       <c r="AC210" s="2"/>
     </row>
-    <row r="211" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A211" s="4" t="s">
         <v>335</v>
       </c>
@@ -10361,7 +10359,7 @@
       <c r="AB211" s="2"/>
       <c r="AC211" s="2"/>
     </row>
-    <row r="212" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A212" s="4" t="s">
         <v>335</v>
       </c>
@@ -10397,7 +10395,7 @@
       <c r="AB212" s="2"/>
       <c r="AC212" s="2"/>
     </row>
-    <row r="213" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A213" s="4" t="s">
         <v>335</v>
       </c>
@@ -10433,7 +10431,7 @@
       <c r="AB213" s="2"/>
       <c r="AC213" s="2"/>
     </row>
-    <row r="214" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A214" s="7" t="s">
         <v>335</v>
       </c>
@@ -10470,7 +10468,7 @@
       <c r="AB214" s="2"/>
       <c r="AC214" s="2"/>
     </row>
-    <row r="215" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A215" s="7" t="s">
         <v>335</v>
       </c>
@@ -10507,7 +10505,7 @@
       <c r="AB215" s="2"/>
       <c r="AC215" s="2"/>
     </row>
-    <row r="216" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A216" s="7" t="s">
         <v>335</v>
       </c>
@@ -10544,7 +10542,7 @@
       <c r="AB216" s="2"/>
       <c r="AC216" s="2"/>
     </row>
-    <row r="217" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A217" s="7" t="s">
         <v>335</v>
       </c>
@@ -10581,7 +10579,7 @@
       <c r="AB217" s="2"/>
       <c r="AC217" s="2"/>
     </row>
-    <row r="218" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A218" s="7" t="s">
         <v>335</v>
       </c>
@@ -10618,7 +10616,7 @@
       <c r="AB218" s="2"/>
       <c r="AC218" s="2"/>
     </row>
-    <row r="219" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A219" s="7" t="s">
         <v>335</v>
       </c>
@@ -10655,7 +10653,7 @@
       <c r="AB219" s="2"/>
       <c r="AC219" s="2"/>
     </row>
-    <row r="220" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A220" s="7" t="s">
         <v>335</v>
       </c>
@@ -10692,7 +10690,7 @@
       <c r="AB220" s="2"/>
       <c r="AC220" s="2"/>
     </row>
-    <row r="221" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A221" s="7" t="s">
         <v>335</v>
       </c>
@@ -10729,7 +10727,7 @@
       <c r="AB221" s="2"/>
       <c r="AC221" s="2"/>
     </row>
-    <row r="222" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A222" s="7" t="s">
         <v>335</v>
       </c>
@@ -10766,7 +10764,7 @@
       <c r="AB222" s="2"/>
       <c r="AC222" s="2"/>
     </row>
-    <row r="223" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A223" s="7" t="s">
         <v>335</v>
       </c>
@@ -10803,7 +10801,7 @@
       <c r="AB223" s="2"/>
       <c r="AC223" s="2"/>
     </row>
-    <row r="224" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A224" s="7" t="s">
         <v>335</v>
       </c>
@@ -10840,7 +10838,7 @@
       <c r="AB224" s="2"/>
       <c r="AC224" s="2"/>
     </row>
-    <row r="225" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A225" s="7" t="s">
         <v>335</v>
       </c>
@@ -10877,7 +10875,7 @@
       <c r="AB225" s="2"/>
       <c r="AC225" s="2"/>
     </row>
-    <row r="226" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A226" s="7" t="s">
         <v>335</v>
       </c>
@@ -10914,7 +10912,7 @@
       <c r="AB226" s="2"/>
       <c r="AC226" s="2"/>
     </row>
-    <row r="227" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A227" s="7" t="s">
         <v>335</v>
       </c>
@@ -10951,7 +10949,7 @@
       <c r="AB227" s="2"/>
       <c r="AC227" s="2"/>
     </row>
-    <row r="228" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A228" s="7" t="s">
         <v>335</v>
       </c>
@@ -10988,7 +10986,7 @@
       <c r="AB228" s="2"/>
       <c r="AC228" s="2"/>
     </row>
-    <row r="229" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A229" s="8" t="s">
         <v>335</v>
       </c>
@@ -11025,7 +11023,7 @@
       <c r="AB229" s="2"/>
       <c r="AC229" s="2"/>
     </row>
-    <row r="230" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A230" s="8" t="s">
         <v>335</v>
       </c>
@@ -11062,7 +11060,7 @@
       <c r="AB230" s="2"/>
       <c r="AC230" s="2"/>
     </row>
-    <row r="231" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A231" s="8" t="s">
         <v>335</v>
       </c>
@@ -11099,7 +11097,7 @@
       <c r="AB231" s="2"/>
       <c r="AC231" s="2"/>
     </row>
-    <row r="232" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A232" s="8" t="s">
         <v>335</v>
       </c>
@@ -11136,7 +11134,7 @@
       <c r="AB232" s="2"/>
       <c r="AC232" s="2"/>
     </row>
-    <row r="233" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A233" s="16"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
@@ -11167,7 +11165,7 @@
       <c r="AB233" s="2"/>
       <c r="AC233" s="2"/>
     </row>
-    <row r="234" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A234" s="16"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
@@ -11198,7 +11196,7 @@
       <c r="AB234" s="2"/>
       <c r="AC234" s="2"/>
     </row>
-    <row r="235" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A235" s="4" t="s">
         <v>395</v>
       </c>
@@ -11235,7 +11233,7 @@
       <c r="AB235" s="2"/>
       <c r="AC235" s="2"/>
     </row>
-    <row r="236" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A236" s="4" t="s">
         <v>395</v>
       </c>
@@ -11272,7 +11270,7 @@
       <c r="AB236" s="2"/>
       <c r="AC236" s="2"/>
     </row>
-    <row r="237" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A237" s="4" t="s">
         <v>395</v>
       </c>
@@ -11309,7 +11307,7 @@
       <c r="AB237" s="2"/>
       <c r="AC237" s="2"/>
     </row>
-    <row r="238" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A238" s="4" t="s">
         <v>395</v>
       </c>
@@ -11345,7 +11343,7 @@
       <c r="AB238" s="2"/>
       <c r="AC238" s="2"/>
     </row>
-    <row r="239" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A239" s="4" t="s">
         <v>395</v>
       </c>
@@ -11381,7 +11379,7 @@
       <c r="AB239" s="2"/>
       <c r="AC239" s="2"/>
     </row>
-    <row r="240" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A240" s="4" t="s">
         <v>395</v>
       </c>
@@ -11417,7 +11415,7 @@
       <c r="AB240" s="2"/>
       <c r="AC240" s="2"/>
     </row>
-    <row r="241" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A241" s="4" t="s">
         <v>395</v>
       </c>
@@ -11453,7 +11451,7 @@
       <c r="AB241" s="2"/>
       <c r="AC241" s="2"/>
     </row>
-    <row r="242" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A242" s="7" t="s">
         <v>395</v>
       </c>
@@ -11489,7 +11487,7 @@
       <c r="AB242" s="2"/>
       <c r="AC242" s="2"/>
     </row>
-    <row r="243" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A243" s="7" t="s">
         <v>395</v>
       </c>
@@ -11525,7 +11523,7 @@
       <c r="AB243" s="2"/>
       <c r="AC243" s="2"/>
     </row>
-    <row r="244" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A244" s="7" t="s">
         <v>395</v>
       </c>
@@ -11561,7 +11559,7 @@
       <c r="AB244" s="2"/>
       <c r="AC244" s="2"/>
     </row>
-    <row r="245" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A245" s="7" t="s">
         <v>395</v>
       </c>
@@ -11597,7 +11595,7 @@
       <c r="AB245" s="2"/>
       <c r="AC245" s="2"/>
     </row>
-    <row r="246" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A246" s="7" t="s">
         <v>395</v>
       </c>
@@ -11633,7 +11631,7 @@
       <c r="AB246" s="2"/>
       <c r="AC246" s="2"/>
     </row>
-    <row r="247" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A247" s="7" t="s">
         <v>395</v>
       </c>
@@ -11669,7 +11667,7 @@
       <c r="AB247" s="2"/>
       <c r="AC247" s="2"/>
     </row>
-    <row r="248" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A248" s="7" t="s">
         <v>395</v>
       </c>
@@ -11705,7 +11703,7 @@
       <c r="AB248" s="2"/>
       <c r="AC248" s="2"/>
     </row>
-    <row r="249" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A249" s="7" t="s">
         <v>395</v>
       </c>
@@ -11741,7 +11739,7 @@
       <c r="AB249" s="2"/>
       <c r="AC249" s="2"/>
     </row>
-    <row r="250" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A250" s="7" t="s">
         <v>395</v>
       </c>
@@ -11777,7 +11775,7 @@
       <c r="AB250" s="2"/>
       <c r="AC250" s="2"/>
     </row>
-    <row r="251" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A251" s="8" t="s">
         <v>395</v>
       </c>
@@ -11813,7 +11811,7 @@
       <c r="AB251" s="2"/>
       <c r="AC251" s="2"/>
     </row>
-    <row r="252" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A252" s="8" t="s">
         <v>395</v>
       </c>
@@ -11849,7 +11847,7 @@
       <c r="AB252" s="2"/>
       <c r="AC252" s="2"/>
     </row>
-    <row r="253" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A253" s="8" t="s">
         <v>395</v>
       </c>
@@ -11885,7 +11883,7 @@
       <c r="AB253" s="2"/>
       <c r="AC253" s="2"/>
     </row>
-    <row r="254" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A254" s="8" t="s">
         <v>395</v>
       </c>
@@ -11922,7 +11920,7 @@
       <c r="AB254" s="2"/>
       <c r="AC254" s="2"/>
     </row>
-    <row r="255" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A255" s="8" t="s">
         <v>395</v>
       </c>
@@ -11961,7 +11959,7 @@
       <c r="AB255" s="2"/>
       <c r="AC255" s="2"/>
     </row>
-    <row r="256" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A256" s="16"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
@@ -11992,7 +11990,7 @@
       <c r="AB256" s="2"/>
       <c r="AC256" s="2"/>
     </row>
-    <row r="257" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A257" s="16"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
@@ -12023,7 +12021,7 @@
       <c r="AB257" s="2"/>
       <c r="AC257" s="2"/>
     </row>
-    <row r="258" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A258" s="7" t="s">
         <v>430</v>
       </c>
@@ -12058,7 +12056,7 @@
       <c r="AB258" s="2"/>
       <c r="AC258" s="2"/>
     </row>
-    <row r="259" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A259" s="7" t="s">
         <v>430</v>
       </c>
@@ -12095,7 +12093,7 @@
       <c r="AB259" s="2"/>
       <c r="AC259" s="2"/>
     </row>
-    <row r="260" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A260" s="7" t="s">
         <v>430</v>
       </c>
@@ -12132,7 +12130,7 @@
       <c r="AB260" s="2"/>
       <c r="AC260" s="2"/>
     </row>
-    <row r="261" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A261" s="7" t="s">
         <v>430</v>
       </c>
@@ -12169,7 +12167,7 @@
       <c r="AB261" s="2"/>
       <c r="AC261" s="2"/>
     </row>
-    <row r="262" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A262" s="7" t="s">
         <v>430</v>
       </c>
@@ -12206,7 +12204,7 @@
       <c r="AB262" s="2"/>
       <c r="AC262" s="2"/>
     </row>
-    <row r="263" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A263" s="7" t="s">
         <v>430</v>
       </c>
@@ -12243,7 +12241,7 @@
       <c r="AB263" s="2"/>
       <c r="AC263" s="2"/>
     </row>
-    <row r="264" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A264" s="7" t="s">
         <v>430</v>
       </c>
@@ -12280,7 +12278,7 @@
       <c r="AB264" s="2"/>
       <c r="AC264" s="2"/>
     </row>
-    <row r="265" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A265" s="7" t="s">
         <v>430</v>
       </c>
@@ -12317,7 +12315,7 @@
       <c r="AB265" s="2"/>
       <c r="AC265" s="2"/>
     </row>
-    <row r="266" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A266" s="7" t="s">
         <v>430</v>
       </c>
@@ -12354,7 +12352,7 @@
       <c r="AB266" s="2"/>
       <c r="AC266" s="2"/>
     </row>
-    <row r="267" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A267" s="7" t="s">
         <v>430</v>
       </c>
@@ -12391,7 +12389,7 @@
       <c r="AB267" s="2"/>
       <c r="AC267" s="2"/>
     </row>
-    <row r="268" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A268" s="7" t="s">
         <v>430</v>
       </c>
@@ -12428,7 +12426,7 @@
       <c r="AB268" s="2"/>
       <c r="AC268" s="2"/>
     </row>
-    <row r="269" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A269" s="7" t="s">
         <v>430</v>
       </c>
@@ -12465,7 +12463,7 @@
       <c r="AB269" s="2"/>
       <c r="AC269" s="2"/>
     </row>
-    <row r="270" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A270" s="7" t="s">
         <v>430</v>
       </c>
@@ -12502,7 +12500,7 @@
       <c r="AB270" s="2"/>
       <c r="AC270" s="2"/>
     </row>
-    <row r="271" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A271" s="7" t="s">
         <v>430</v>
       </c>
@@ -12539,7 +12537,7 @@
       <c r="AB271" s="2"/>
       <c r="AC271" s="2"/>
     </row>
-    <row r="272" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A272" s="7" t="s">
         <v>430</v>
       </c>
@@ -12576,7 +12574,7 @@
       <c r="AB272" s="2"/>
       <c r="AC272" s="2"/>
     </row>
-    <row r="273" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A273" s="7" t="s">
         <v>430</v>
       </c>
@@ -12613,7 +12611,7 @@
       <c r="AB273" s="2"/>
       <c r="AC273" s="2"/>
     </row>
-    <row r="274" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A274" s="8" t="s">
         <v>430</v>
       </c>
@@ -12650,7 +12648,7 @@
       <c r="AB274" s="2"/>
       <c r="AC274" s="2"/>
     </row>
-    <row r="275" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A275" s="8" t="s">
         <v>430</v>
       </c>
@@ -12687,7 +12685,7 @@
       <c r="AB275" s="2"/>
       <c r="AC275" s="2"/>
     </row>
-    <row r="276" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A276" s="8" t="s">
         <v>430</v>
       </c>
@@ -12723,7 +12721,7 @@
       <c r="AB276" s="2"/>
       <c r="AC276" s="2"/>
     </row>
-    <row r="277" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A277" s="8" t="s">
         <v>430</v>
       </c>
@@ -12759,7 +12757,7 @@
       <c r="AB277" s="2"/>
       <c r="AC277" s="2"/>
     </row>
-    <row r="278" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A278" s="8" t="s">
         <v>430</v>
       </c>
@@ -12795,7 +12793,7 @@
       <c r="AB278" s="2"/>
       <c r="AC278" s="2"/>
     </row>
-    <row r="279" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A279" s="8" t="s">
         <v>430</v>
       </c>
@@ -12831,7 +12829,7 @@
       <c r="AB279" s="2"/>
       <c r="AC279" s="2"/>
     </row>
-    <row r="280" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A280" s="8" t="s">
         <v>430</v>
       </c>
@@ -12867,7 +12865,7 @@
       <c r="AB280" s="2"/>
       <c r="AC280" s="2"/>
     </row>
-    <row r="281" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A281" s="8" t="s">
         <v>430</v>
       </c>
@@ -12903,7 +12901,7 @@
       <c r="AB281" s="2"/>
       <c r="AC281" s="2"/>
     </row>
-    <row r="282" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A282" s="8" t="s">
         <v>430</v>
       </c>
@@ -12939,7 +12937,7 @@
       <c r="AB282" s="2"/>
       <c r="AC282" s="2"/>
     </row>
-    <row r="283" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A283" s="8" t="s">
         <v>430</v>
       </c>
@@ -12975,7 +12973,7 @@
       <c r="AB283" s="2"/>
       <c r="AC283" s="2"/>
     </row>
-    <row r="284" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A284" s="8" t="s">
         <v>430</v>
       </c>
@@ -13011,7 +13009,7 @@
       <c r="AB284" s="2"/>
       <c r="AC284" s="2"/>
     </row>
-    <row r="285" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A285" s="8" t="s">
         <v>430</v>
       </c>
@@ -13047,7 +13045,7 @@
       <c r="AB285" s="2"/>
       <c r="AC285" s="2"/>
     </row>
-    <row r="286" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A286" s="16"/>
       <c r="B286" s="14"/>
       <c r="C286" s="14"/>
@@ -13077,7 +13075,7 @@
       <c r="AB286" s="2"/>
       <c r="AC286" s="2"/>
     </row>
-    <row r="287" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A287" s="16"/>
       <c r="B287" s="14"/>
       <c r="C287" s="14"/>
@@ -13108,7 +13106,7 @@
       <c r="AB287" s="2"/>
       <c r="AC287" s="2"/>
     </row>
-    <row r="288" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A288" s="4" t="s">
         <v>475</v>
       </c>
@@ -13145,7 +13143,7 @@
       <c r="AB288" s="2"/>
       <c r="AC288" s="2"/>
     </row>
-    <row r="289" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A289" s="4" t="s">
         <v>475</v>
       </c>
@@ -13182,7 +13180,7 @@
       <c r="AB289" s="2"/>
       <c r="AC289" s="2"/>
     </row>
-    <row r="290" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A290" s="4" t="s">
         <v>475</v>
       </c>
@@ -13219,7 +13217,7 @@
       <c r="AB290" s="2"/>
       <c r="AC290" s="2"/>
     </row>
-    <row r="291" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A291" s="4" t="s">
         <v>475</v>
       </c>
@@ -13256,7 +13254,7 @@
       <c r="AB291" s="2"/>
       <c r="AC291" s="2"/>
     </row>
-    <row r="292" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A292" s="7" t="s">
         <v>475</v>
       </c>
@@ -13293,7 +13291,7 @@
       <c r="AB292" s="2"/>
       <c r="AC292" s="2"/>
     </row>
-    <row r="293" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A293" s="7" t="s">
         <v>475</v>
       </c>
@@ -13330,7 +13328,7 @@
       <c r="AB293" s="2"/>
       <c r="AC293" s="2"/>
     </row>
-    <row r="294" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A294" s="7" t="s">
         <v>475</v>
       </c>
@@ -13367,7 +13365,7 @@
       <c r="AB294" s="2"/>
       <c r="AC294" s="2"/>
     </row>
-    <row r="295" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A295" s="7" t="s">
         <v>475</v>
       </c>
@@ -13404,7 +13402,7 @@
       <c r="AB295" s="2"/>
       <c r="AC295" s="2"/>
     </row>
-    <row r="296" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A296" s="7" t="s">
         <v>475</v>
       </c>
@@ -13441,7 +13439,7 @@
       <c r="AB296" s="2"/>
       <c r="AC296" s="2"/>
     </row>
-    <row r="297" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A297" s="7" t="s">
         <v>475</v>
       </c>
@@ -13478,7 +13476,7 @@
       <c r="AB297" s="2"/>
       <c r="AC297" s="2"/>
     </row>
-    <row r="298" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A298" s="7" t="s">
         <v>475</v>
       </c>
@@ -13515,7 +13513,7 @@
       <c r="AB298" s="2"/>
       <c r="AC298" s="2"/>
     </row>
-    <row r="299" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A299" s="7" t="s">
         <v>475</v>
       </c>
@@ -13552,7 +13550,7 @@
       <c r="AB299" s="2"/>
       <c r="AC299" s="2"/>
     </row>
-    <row r="300" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A300" s="7" t="s">
         <v>475</v>
       </c>
@@ -13589,7 +13587,7 @@
       <c r="AB300" s="2"/>
       <c r="AC300" s="2"/>
     </row>
-    <row r="301" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A301" s="7" t="s">
         <v>475</v>
       </c>
@@ -13626,7 +13624,7 @@
       <c r="AB301" s="2"/>
       <c r="AC301" s="2"/>
     </row>
-    <row r="302" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A302" s="7" t="s">
         <v>475</v>
       </c>
@@ -13663,7 +13661,7 @@
       <c r="AB302" s="2"/>
       <c r="AC302" s="2"/>
     </row>
-    <row r="303" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A303" s="7" t="s">
         <v>475</v>
       </c>
@@ -13700,7 +13698,7 @@
       <c r="AB303" s="2"/>
       <c r="AC303" s="2"/>
     </row>
-    <row r="304" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A304" s="7" t="s">
         <v>475</v>
       </c>
@@ -13737,7 +13735,7 @@
       <c r="AB304" s="2"/>
       <c r="AC304" s="2"/>
     </row>
-    <row r="305" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A305" s="7" t="s">
         <v>475</v>
       </c>
@@ -13774,7 +13772,7 @@
       <c r="AB305" s="2"/>
       <c r="AC305" s="2"/>
     </row>
-    <row r="306" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A306" s="7" t="s">
         <v>475</v>
       </c>
@@ -13811,7 +13809,7 @@
       <c r="AB306" s="2"/>
       <c r="AC306" s="2"/>
     </row>
-    <row r="307" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A307" s="7" t="s">
         <v>475</v>
       </c>
@@ -13848,7 +13846,7 @@
       <c r="AB307" s="2"/>
       <c r="AC307" s="2"/>
     </row>
-    <row r="308" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A308" s="7" t="s">
         <v>475</v>
       </c>
@@ -13885,7 +13883,7 @@
       <c r="AB308" s="2"/>
       <c r="AC308" s="2"/>
     </row>
-    <row r="309" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A309" s="7" t="s">
         <v>475</v>
       </c>
@@ -13922,7 +13920,7 @@
       <c r="AB309" s="2"/>
       <c r="AC309" s="2"/>
     </row>
-    <row r="310" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A310" s="7" t="s">
         <v>475</v>
       </c>
@@ -13959,7 +13957,7 @@
       <c r="AB310" s="2"/>
       <c r="AC310" s="2"/>
     </row>
-    <row r="311" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A311" s="7" t="s">
         <v>475</v>
       </c>
@@ -13996,7 +13994,7 @@
       <c r="AB311" s="2"/>
       <c r="AC311" s="2"/>
     </row>
-    <row r="312" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A312" s="7" t="s">
         <v>475</v>
       </c>
@@ -14033,7 +14031,7 @@
       <c r="AB312" s="2"/>
       <c r="AC312" s="2"/>
     </row>
-    <row r="313" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A313" s="7" t="s">
         <v>475</v>
       </c>
@@ -14070,7 +14068,7 @@
       <c r="AB313" s="2"/>
       <c r="AC313" s="2"/>
     </row>
-    <row r="314" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A314" s="7" t="s">
         <v>475</v>
       </c>
@@ -14107,7 +14105,7 @@
       <c r="AB314" s="2"/>
       <c r="AC314" s="2"/>
     </row>
-    <row r="315" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A315" s="7" t="s">
         <v>475</v>
       </c>
@@ -14144,7 +14142,7 @@
       <c r="AB315" s="2"/>
       <c r="AC315" s="2"/>
     </row>
-    <row r="316" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A316" s="7" t="s">
         <v>475</v>
       </c>
@@ -14181,7 +14179,7 @@
       <c r="AB316" s="2"/>
       <c r="AC316" s="2"/>
     </row>
-    <row r="317" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A317" s="8" t="s">
         <v>475</v>
       </c>
@@ -14218,7 +14216,7 @@
       <c r="AB317" s="2"/>
       <c r="AC317" s="2"/>
     </row>
-    <row r="318" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A318" s="8" t="s">
         <v>475</v>
       </c>
@@ -14255,7 +14253,7 @@
       <c r="AB318" s="2"/>
       <c r="AC318" s="2"/>
     </row>
-    <row r="319" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A319" s="8" t="s">
         <v>475</v>
       </c>
@@ -14294,7 +14292,7 @@
       <c r="AB319" s="2"/>
       <c r="AC319" s="2"/>
     </row>
-    <row r="320" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A320" s="8" t="s">
         <v>475</v>
       </c>
@@ -14331,7 +14329,7 @@
       <c r="AB320" s="2"/>
       <c r="AC320" s="2"/>
     </row>
-    <row r="321" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A321" s="8" t="s">
         <v>475</v>
       </c>
@@ -14370,7 +14368,7 @@
       <c r="AB321" s="2"/>
       <c r="AC321" s="2"/>
     </row>
-    <row r="322" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A322" s="8" t="s">
         <v>475</v>
       </c>
@@ -14407,7 +14405,7 @@
       <c r="AB322" s="2"/>
       <c r="AC322" s="2"/>
     </row>
-    <row r="323" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A323" s="8" t="s">
         <v>475</v>
       </c>
@@ -14444,7 +14442,7 @@
       <c r="AB323" s="2"/>
       <c r="AC323" s="2"/>
     </row>
-    <row r="324" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A324" s="8" t="s">
         <v>475</v>
       </c>
@@ -14481,7 +14479,7 @@
       <c r="AB324" s="2"/>
       <c r="AC324" s="2"/>
     </row>
-    <row r="325" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A325" s="8" t="s">
         <v>475</v>
       </c>
@@ -14518,7 +14516,7 @@
       <c r="AB325" s="2"/>
       <c r="AC325" s="2"/>
     </row>
-    <row r="326" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A326" s="8" t="s">
         <v>475</v>
       </c>
@@ -14555,7 +14553,7 @@
       <c r="AB326" s="2"/>
       <c r="AC326" s="2"/>
     </row>
-    <row r="327" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A327" s="8" t="s">
         <v>475</v>
       </c>
@@ -14592,7 +14590,7 @@
       <c r="AB327" s="2"/>
       <c r="AC327" s="2"/>
     </row>
-    <row r="328" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A328" s="16"/>
       <c r="B328" s="14"/>
       <c r="C328" s="14"/>
@@ -14623,7 +14621,7 @@
       <c r="AB328" s="2"/>
       <c r="AC328" s="2"/>
     </row>
-    <row r="329" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A329" s="16"/>
       <c r="B329" s="14"/>
       <c r="C329" s="14"/>
@@ -14654,7 +14652,7 @@
       <c r="AB329" s="2"/>
       <c r="AC329" s="2"/>
     </row>
-    <row r="330" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A330" s="7" t="s">
         <v>539</v>
       </c>
@@ -14691,7 +14689,7 @@
       <c r="AB330" s="2"/>
       <c r="AC330" s="2"/>
     </row>
-    <row r="331" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A331" s="7" t="s">
         <v>539</v>
       </c>
@@ -14728,7 +14726,7 @@
       <c r="AB331" s="2"/>
       <c r="AC331" s="2"/>
     </row>
-    <row r="332" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A332" s="7" t="s">
         <v>539</v>
       </c>
@@ -14765,7 +14763,7 @@
       <c r="AB332" s="2"/>
       <c r="AC332" s="2"/>
     </row>
-    <row r="333" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A333" s="7" t="s">
         <v>539</v>
       </c>
@@ -14802,7 +14800,7 @@
       <c r="AB333" s="2"/>
       <c r="AC333" s="2"/>
     </row>
-    <row r="334" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A334" s="8" t="s">
         <v>539</v>
       </c>
@@ -14839,7 +14837,7 @@
       <c r="AB334" s="2"/>
       <c r="AC334" s="2"/>
     </row>
-    <row r="335" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A335" s="8" t="s">
         <v>539</v>
       </c>
@@ -14876,7 +14874,7 @@
       <c r="AB335" s="2"/>
       <c r="AC335" s="2"/>
     </row>
-    <row r="336" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A336" s="16"/>
       <c r="B336" s="14"/>
       <c r="C336" s="14"/>
@@ -14907,7 +14905,7 @@
       <c r="AB336" s="2"/>
       <c r="AC336" s="2"/>
     </row>
-    <row r="337" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A337" s="16"/>
       <c r="B337" s="14"/>
       <c r="C337" s="14"/>
@@ -14938,7 +14936,7 @@
       <c r="AB337" s="2"/>
       <c r="AC337" s="2"/>
     </row>
-    <row r="338" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A338" s="4" t="s">
         <v>552</v>
       </c>
@@ -14975,7 +14973,7 @@
       <c r="AB338" s="2"/>
       <c r="AC338" s="2"/>
     </row>
-    <row r="339" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A339" s="4" t="s">
         <v>552</v>
       </c>
@@ -15012,7 +15010,7 @@
       <c r="AB339" s="2"/>
       <c r="AC339" s="2"/>
     </row>
-    <row r="340" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A340" s="4" t="s">
         <v>552</v>
       </c>
@@ -15049,7 +15047,7 @@
       <c r="AB340" s="2"/>
       <c r="AC340" s="2"/>
     </row>
-    <row r="341" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A341" s="4" t="s">
         <v>552</v>
       </c>
@@ -15086,7 +15084,7 @@
       <c r="AB341" s="2"/>
       <c r="AC341" s="2"/>
     </row>
-    <row r="342" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A342" s="4" t="s">
         <v>552</v>
       </c>
@@ -15123,7 +15121,7 @@
       <c r="AB342" s="2"/>
       <c r="AC342" s="2"/>
     </row>
-    <row r="343" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A343" s="4" t="s">
         <v>552</v>
       </c>
@@ -15160,7 +15158,7 @@
       <c r="AB343" s="2"/>
       <c r="AC343" s="2"/>
     </row>
-    <row r="344" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A344" s="4" t="s">
         <v>552</v>
       </c>
@@ -15197,7 +15195,7 @@
       <c r="AB344" s="2"/>
       <c r="AC344" s="2"/>
     </row>
-    <row r="345" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A345" s="4" t="s">
         <v>552</v>
       </c>
@@ -15234,7 +15232,7 @@
       <c r="AB345" s="2"/>
       <c r="AC345" s="2"/>
     </row>
-    <row r="346" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A346" s="4" t="s">
         <v>552</v>
       </c>
@@ -15271,7 +15269,7 @@
       <c r="AB346" s="2"/>
       <c r="AC346" s="2"/>
     </row>
-    <row r="347" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A347" s="7" t="s">
         <v>552</v>
       </c>
@@ -15308,7 +15306,7 @@
       <c r="AB347" s="2"/>
       <c r="AC347" s="2"/>
     </row>
-    <row r="348" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A348" s="7" t="s">
         <v>552</v>
       </c>
@@ -15345,7 +15343,7 @@
       <c r="AB348" s="2"/>
       <c r="AC348" s="2"/>
     </row>
-    <row r="349" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A349" s="7" t="s">
         <v>552</v>
       </c>
@@ -15382,7 +15380,7 @@
       <c r="AB349" s="2"/>
       <c r="AC349" s="2"/>
     </row>
-    <row r="350" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A350" s="7" t="s">
         <v>552</v>
       </c>
@@ -15419,7 +15417,7 @@
       <c r="AB350" s="2"/>
       <c r="AC350" s="2"/>
     </row>
-    <row r="351" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A351" s="7" t="s">
         <v>552</v>
       </c>
@@ -15456,7 +15454,7 @@
       <c r="AB351" s="2"/>
       <c r="AC351" s="2"/>
     </row>
-    <row r="352" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A352" s="7" t="s">
         <v>552</v>
       </c>
@@ -15493,7 +15491,7 @@
       <c r="AB352" s="2"/>
       <c r="AC352" s="2"/>
     </row>
-    <row r="353" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A353" s="7" t="s">
         <v>552</v>
       </c>
@@ -15530,7 +15528,7 @@
       <c r="AB353" s="2"/>
       <c r="AC353" s="2"/>
     </row>
-    <row r="354" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A354" s="7" t="s">
         <v>552</v>
       </c>
@@ -15567,7 +15565,7 @@
       <c r="AB354" s="2"/>
       <c r="AC354" s="2"/>
     </row>
-    <row r="355" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A355" s="7" t="s">
         <v>552</v>
       </c>
@@ -15604,7 +15602,7 @@
       <c r="AB355" s="2"/>
       <c r="AC355" s="2"/>
     </row>
-    <row r="356" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A356" s="7" t="s">
         <v>552</v>
       </c>
@@ -15641,7 +15639,7 @@
       <c r="AB356" s="2"/>
       <c r="AC356" s="2"/>
     </row>
-    <row r="357" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A357" s="7" t="s">
         <v>552</v>
       </c>
@@ -15678,7 +15676,7 @@
       <c r="AB357" s="2"/>
       <c r="AC357" s="2"/>
     </row>
-    <row r="358" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A358" s="7" t="s">
         <v>552</v>
       </c>
@@ -15715,7 +15713,7 @@
       <c r="AB358" s="2"/>
       <c r="AC358" s="2"/>
     </row>
-    <row r="359" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A359" s="7" t="s">
         <v>552</v>
       </c>
@@ -15752,7 +15750,7 @@
       <c r="AB359" s="2"/>
       <c r="AC359" s="2"/>
     </row>
-    <row r="360" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A360" s="7" t="s">
         <v>552</v>
       </c>
@@ -15789,7 +15787,7 @@
       <c r="AB360" s="2"/>
       <c r="AC360" s="2"/>
     </row>
-    <row r="361" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A361" s="7" t="s">
         <v>552</v>
       </c>
@@ -15826,7 +15824,7 @@
       <c r="AB361" s="2"/>
       <c r="AC361" s="2"/>
     </row>
-    <row r="362" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A362" s="7" t="s">
         <v>552</v>
       </c>
@@ -15863,7 +15861,7 @@
       <c r="AB362" s="2"/>
       <c r="AC362" s="2"/>
     </row>
-    <row r="363" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A363" s="7" t="s">
         <v>552</v>
       </c>
@@ -15900,7 +15898,7 @@
       <c r="AB363" s="2"/>
       <c r="AC363" s="2"/>
     </row>
-    <row r="364" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A364" s="7" t="s">
         <v>552</v>
       </c>
@@ -15937,7 +15935,7 @@
       <c r="AB364" s="2"/>
       <c r="AC364" s="2"/>
     </row>
-    <row r="365" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A365" s="7" t="s">
         <v>552</v>
       </c>
@@ -15974,7 +15972,7 @@
       <c r="AB365" s="2"/>
       <c r="AC365" s="2"/>
     </row>
-    <row r="366" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A366" s="7" t="s">
         <v>552</v>
       </c>
@@ -16011,7 +16009,7 @@
       <c r="AB366" s="2"/>
       <c r="AC366" s="2"/>
     </row>
-    <row r="367" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A367" s="7" t="s">
         <v>552</v>
       </c>
@@ -16048,7 +16046,7 @@
       <c r="AB367" s="2"/>
       <c r="AC367" s="2"/>
     </row>
-    <row r="368" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A368" s="7" t="s">
         <v>552</v>
       </c>
@@ -16085,7 +16083,7 @@
       <c r="AB368" s="2"/>
       <c r="AC368" s="2"/>
     </row>
-    <row r="369" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A369" s="7" t="s">
         <v>552</v>
       </c>
@@ -16122,7 +16120,7 @@
       <c r="AB369" s="2"/>
       <c r="AC369" s="2"/>
     </row>
-    <row r="370" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A370" s="7" t="s">
         <v>552</v>
       </c>
@@ -16159,7 +16157,7 @@
       <c r="AB370" s="2"/>
       <c r="AC370" s="2"/>
     </row>
-    <row r="371" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A371" s="7" t="s">
         <v>552</v>
       </c>
@@ -16196,7 +16194,7 @@
       <c r="AB371" s="2"/>
       <c r="AC371" s="2"/>
     </row>
-    <row r="372" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A372" s="7" t="s">
         <v>552</v>
       </c>
@@ -16233,7 +16231,7 @@
       <c r="AB372" s="2"/>
       <c r="AC372" s="2"/>
     </row>
-    <row r="373" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A373" s="7" t="s">
         <v>552</v>
       </c>
@@ -16270,7 +16268,7 @@
       <c r="AB373" s="2"/>
       <c r="AC373" s="2"/>
     </row>
-    <row r="374" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A374" s="7" t="s">
         <v>552</v>
       </c>
@@ -16307,7 +16305,7 @@
       <c r="AB374" s="2"/>
       <c r="AC374" s="2"/>
     </row>
-    <row r="375" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A375" s="7" t="s">
         <v>552</v>
       </c>
@@ -16344,7 +16342,7 @@
       <c r="AB375" s="2"/>
       <c r="AC375" s="2"/>
     </row>
-    <row r="376" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A376" s="7" t="s">
         <v>552</v>
       </c>
@@ -16381,7 +16379,7 @@
       <c r="AB376" s="2"/>
       <c r="AC376" s="2"/>
     </row>
-    <row r="377" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A377" s="7" t="s">
         <v>552</v>
       </c>
@@ -16418,7 +16416,7 @@
       <c r="AB377" s="2"/>
       <c r="AC377" s="2"/>
     </row>
-    <row r="378" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A378" s="7" t="s">
         <v>552</v>
       </c>
@@ -16455,7 +16453,7 @@
       <c r="AB378" s="2"/>
       <c r="AC378" s="2"/>
     </row>
-    <row r="379" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A379" s="7" t="s">
         <v>552</v>
       </c>
@@ -16492,7 +16490,7 @@
       <c r="AB379" s="2"/>
       <c r="AC379" s="2"/>
     </row>
-    <row r="380" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A380" s="7" t="s">
         <v>552</v>
       </c>
@@ -16529,7 +16527,7 @@
       <c r="AB380" s="2"/>
       <c r="AC380" s="2"/>
     </row>
-    <row r="381" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A381" s="7" t="s">
         <v>552</v>
       </c>
@@ -16566,7 +16564,7 @@
       <c r="AB381" s="2"/>
       <c r="AC381" s="2"/>
     </row>
-    <row r="382" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A382" s="7" t="s">
         <v>552</v>
       </c>
@@ -16603,7 +16601,7 @@
       <c r="AB382" s="2"/>
       <c r="AC382" s="2"/>
     </row>
-    <row r="383" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A383" s="7" t="s">
         <v>552</v>
       </c>
@@ -16640,7 +16638,7 @@
       <c r="AB383" s="2"/>
       <c r="AC383" s="2"/>
     </row>
-    <row r="384" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A384" s="7" t="s">
         <v>552</v>
       </c>
@@ -16677,7 +16675,7 @@
       <c r="AB384" s="2"/>
       <c r="AC384" s="2"/>
     </row>
-    <row r="385" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A385" s="7" t="s">
         <v>552</v>
       </c>
@@ -16714,7 +16712,7 @@
       <c r="AB385" s="2"/>
       <c r="AC385" s="2"/>
     </row>
-    <row r="386" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A386" s="7" t="s">
         <v>552</v>
       </c>
@@ -16751,7 +16749,7 @@
       <c r="AB386" s="2"/>
       <c r="AC386" s="2"/>
     </row>
-    <row r="387" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A387" s="8" t="s">
         <v>552</v>
       </c>
@@ -16788,7 +16786,7 @@
       <c r="AB387" s="2"/>
       <c r="AC387" s="2"/>
     </row>
-    <row r="388" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A388" s="8" t="s">
         <v>552</v>
       </c>
@@ -16825,7 +16823,7 @@
       <c r="AB388" s="2"/>
       <c r="AC388" s="2"/>
     </row>
-    <row r="389" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A389" s="8" t="s">
         <v>552</v>
       </c>
@@ -16862,7 +16860,7 @@
       <c r="AB389" s="2"/>
       <c r="AC389" s="2"/>
     </row>
-    <row r="390" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A390" s="8" t="s">
         <v>552</v>
       </c>
@@ -16899,7 +16897,7 @@
       <c r="AB390" s="2"/>
       <c r="AC390" s="2"/>
     </row>
-    <row r="391" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A391" s="8" t="s">
         <v>552</v>
       </c>
@@ -16936,7 +16934,7 @@
       <c r="AB391" s="2"/>
       <c r="AC391" s="2"/>
     </row>
-    <row r="392" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="E392" s="15"/>
       <c r="F392" s="15"/>
       <c r="G392" s="2"/>
@@ -16963,7 +16961,7 @@
       <c r="AB392" s="2"/>
       <c r="AC392" s="2"/>
     </row>
-    <row r="393" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A393" s="16"/>
       <c r="B393" s="14"/>
       <c r="C393" s="14"/>
@@ -16994,7 +16992,7 @@
       <c r="AB393" s="2"/>
       <c r="AC393" s="2"/>
     </row>
-    <row r="394" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A394" s="4" t="s">
         <v>632</v>
       </c>
@@ -17029,7 +17027,7 @@
       <c r="AB394" s="2"/>
       <c r="AC394" s="2"/>
     </row>
-    <row r="395" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A395" s="4" t="s">
         <v>632</v>
       </c>
@@ -17064,7 +17062,7 @@
       <c r="AB395" s="2"/>
       <c r="AC395" s="2"/>
     </row>
-    <row r="396" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A396" s="4" t="s">
         <v>632</v>
       </c>
@@ -17099,7 +17097,7 @@
       <c r="AB396" s="2"/>
       <c r="AC396" s="2"/>
     </row>
-    <row r="397" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A397" s="4" t="s">
         <v>632</v>
       </c>
@@ -17134,7 +17132,7 @@
       <c r="AB397" s="2"/>
       <c r="AC397" s="2"/>
     </row>
-    <row r="398" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A398" s="4" t="s">
         <v>632</v>
       </c>
@@ -17169,7 +17167,7 @@
       <c r="AB398" s="2"/>
       <c r="AC398" s="2"/>
     </row>
-    <row r="399" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A399" s="7" t="s">
         <v>632</v>
       </c>
@@ -17204,7 +17202,7 @@
       <c r="AB399" s="2"/>
       <c r="AC399" s="2"/>
     </row>
-    <row r="400" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A400" s="7" t="s">
         <v>632</v>
       </c>
@@ -17239,7 +17237,7 @@
       <c r="AB400" s="2"/>
       <c r="AC400" s="2"/>
     </row>
-    <row r="401" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A401" s="7" t="s">
         <v>632</v>
       </c>
@@ -17274,7 +17272,7 @@
       <c r="AB401" s="2"/>
       <c r="AC401" s="2"/>
     </row>
-    <row r="402" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A402" s="7" t="s">
         <v>632</v>
       </c>
@@ -17309,7 +17307,7 @@
       <c r="AB402" s="2"/>
       <c r="AC402" s="2"/>
     </row>
-    <row r="403" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A403" s="7" t="s">
         <v>632</v>
       </c>
@@ -17344,7 +17342,7 @@
       <c r="AB403" s="2"/>
       <c r="AC403" s="2"/>
     </row>
-    <row r="404" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A404" s="16"/>
       <c r="B404" s="14"/>
       <c r="C404" s="14"/>
@@ -17373,7 +17371,7 @@
       <c r="AB404" s="2"/>
       <c r="AC404" s="2"/>
     </row>
-    <row r="405" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A405" s="16"/>
       <c r="B405" s="14"/>
       <c r="C405" s="14"/>
@@ -17402,7 +17400,7 @@
       <c r="AB405" s="2"/>
       <c r="AC405" s="2"/>
     </row>
-    <row r="406" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A406" s="7" t="s">
         <v>647</v>
       </c>
@@ -17435,7 +17433,7 @@
       <c r="AB406" s="2"/>
       <c r="AC406" s="2"/>
     </row>
-    <row r="407" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A407" s="7" t="s">
         <v>647</v>
       </c>
@@ -17470,7 +17468,7 @@
       <c r="AB407" s="2"/>
       <c r="AC407" s="2"/>
     </row>
-    <row r="408" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A408" s="7" t="s">
         <v>647</v>
       </c>
@@ -17505,7 +17503,7 @@
       <c r="AB408" s="2"/>
       <c r="AC408" s="2"/>
     </row>
-    <row r="409" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A409" s="8" t="s">
         <v>647</v>
       </c>
@@ -17540,7 +17538,7 @@
       <c r="AB409" s="2"/>
       <c r="AC409" s="2"/>
     </row>
-    <row r="410" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A410" s="8" t="s">
         <v>647</v>
       </c>
@@ -17577,7 +17575,7 @@
       <c r="AB410" s="2"/>
       <c r="AC410" s="2"/>
     </row>
-    <row r="411" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A411" s="8" t="s">
         <v>647</v>
       </c>
@@ -17614,7 +17612,7 @@
       <c r="AB411" s="2"/>
       <c r="AC411" s="2"/>
     </row>
-    <row r="412" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A412" s="13"/>
       <c r="B412" s="14"/>
       <c r="C412" s="14"/>
@@ -17645,7 +17643,7 @@
       <c r="AB412" s="2"/>
       <c r="AC412" s="2"/>
     </row>
-    <row r="413" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A413" s="13"/>
       <c r="B413" s="14"/>
       <c r="C413" s="14"/>
@@ -17676,7 +17674,7 @@
       <c r="AB413" s="2"/>
       <c r="AC413" s="2"/>
     </row>
-    <row r="414" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A414" s="13"/>
       <c r="B414" s="14"/>
       <c r="C414" s="14"/>
@@ -17707,7 +17705,7 @@
       <c r="AB414" s="2"/>
       <c r="AC414" s="2"/>
     </row>
-    <row r="415" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A415" s="13"/>
       <c r="B415" s="14"/>
       <c r="C415" s="14"/>
@@ -17738,7 +17736,7 @@
       <c r="AB415" s="2"/>
       <c r="AC415" s="2"/>
     </row>
-    <row r="416" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A416" s="13"/>
       <c r="B416" s="14"/>
       <c r="C416" s="14"/>
@@ -17769,7 +17767,7 @@
       <c r="AB416" s="2"/>
       <c r="AC416" s="2"/>
     </row>
-    <row r="417" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A417" s="13"/>
       <c r="B417" s="14"/>
       <c r="C417" s="14"/>
@@ -17800,7 +17798,7 @@
       <c r="AB417" s="2"/>
       <c r="AC417" s="2"/>
     </row>
-    <row r="418" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A418" s="13"/>
       <c r="B418" s="14"/>
       <c r="C418" s="14"/>
@@ -17831,7 +17829,7 @@
       <c r="AB418" s="2"/>
       <c r="AC418" s="2"/>
     </row>
-    <row r="419" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A419" s="13"/>
       <c r="B419" s="14"/>
       <c r="C419" s="14"/>
@@ -17862,7 +17860,7 @@
       <c r="AB419" s="2"/>
       <c r="AC419" s="2"/>
     </row>
-    <row r="420" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A420" s="13"/>
       <c r="B420" s="14"/>
       <c r="C420" s="14"/>
@@ -17893,7 +17891,7 @@
       <c r="AB420" s="2"/>
       <c r="AC420" s="2"/>
     </row>
-    <row r="421" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A421" s="13"/>
       <c r="B421" s="14"/>
       <c r="C421" s="14"/>
@@ -17924,7 +17922,7 @@
       <c r="AB421" s="2"/>
       <c r="AC421" s="2"/>
     </row>
-    <row r="422" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A422" s="13"/>
       <c r="B422" s="14"/>
       <c r="C422" s="14"/>
@@ -17955,7 +17953,7 @@
       <c r="AB422" s="2"/>
       <c r="AC422" s="2"/>
     </row>
-    <row r="423" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A423" s="13"/>
       <c r="B423" s="14"/>
       <c r="C423" s="14"/>
@@ -17986,7 +17984,7 @@
       <c r="AB423" s="2"/>
       <c r="AC423" s="2"/>
     </row>
-    <row r="424" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A424" s="13"/>
       <c r="B424" s="14"/>
       <c r="C424" s="14"/>
@@ -18017,7 +18015,7 @@
       <c r="AB424" s="2"/>
       <c r="AC424" s="2"/>
     </row>
-    <row r="425" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A425" s="13"/>
       <c r="B425" s="14"/>
       <c r="C425" s="14"/>
@@ -18048,7 +18046,7 @@
       <c r="AB425" s="2"/>
       <c r="AC425" s="2"/>
     </row>
-    <row r="426" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A426" s="13"/>
       <c r="B426" s="14"/>
       <c r="C426" s="14"/>
@@ -18079,7 +18077,7 @@
       <c r="AB426" s="2"/>
       <c r="AC426" s="2"/>
     </row>
-    <row r="427" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A427" s="13"/>
       <c r="B427" s="14"/>
       <c r="C427" s="14"/>
@@ -18110,7 +18108,7 @@
       <c r="AB427" s="2"/>
       <c r="AC427" s="2"/>
     </row>
-    <row r="428" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A428" s="13"/>
       <c r="B428" s="14"/>
       <c r="C428" s="14"/>
@@ -18141,7 +18139,7 @@
       <c r="AB428" s="2"/>
       <c r="AC428" s="2"/>
     </row>
-    <row r="429" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A429" s="13"/>
       <c r="B429" s="14"/>
       <c r="C429" s="14"/>
@@ -18172,7 +18170,7 @@
       <c r="AB429" s="2"/>
       <c r="AC429" s="2"/>
     </row>
-    <row r="430" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A430" s="13"/>
       <c r="B430" s="14"/>
       <c r="C430" s="14"/>
@@ -18203,7 +18201,7 @@
       <c r="AB430" s="2"/>
       <c r="AC430" s="2"/>
     </row>
-    <row r="431" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A431" s="13"/>
       <c r="B431" s="14"/>
       <c r="C431" s="14"/>
@@ -18234,7 +18232,7 @@
       <c r="AB431" s="2"/>
       <c r="AC431" s="2"/>
     </row>
-    <row r="432" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A432" s="13"/>
       <c r="B432" s="14"/>
       <c r="C432" s="14"/>
@@ -18265,7 +18263,7 @@
       <c r="AB432" s="2"/>
       <c r="AC432" s="2"/>
     </row>
-    <row r="433" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A433" s="13"/>
       <c r="B433" s="14"/>
       <c r="C433" s="14"/>
@@ -18296,7 +18294,7 @@
       <c r="AB433" s="2"/>
       <c r="AC433" s="2"/>
     </row>
-    <row r="434" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A434" s="13"/>
       <c r="B434" s="14"/>
       <c r="C434" s="14"/>
@@ -18327,7 +18325,7 @@
       <c r="AB434" s="2"/>
       <c r="AC434" s="2"/>
     </row>
-    <row r="435" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A435" s="13"/>
       <c r="B435" s="14"/>
       <c r="C435" s="14"/>
@@ -18358,7 +18356,7 @@
       <c r="AB435" s="2"/>
       <c r="AC435" s="2"/>
     </row>
-    <row r="436" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A436" s="13"/>
       <c r="B436" s="14"/>
       <c r="C436" s="14"/>
@@ -18389,7 +18387,7 @@
       <c r="AB436" s="2"/>
       <c r="AC436" s="2"/>
     </row>
-    <row r="437" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A437" s="13"/>
       <c r="B437" s="14"/>
       <c r="C437" s="14"/>
@@ -18420,7 +18418,7 @@
       <c r="AB437" s="2"/>
       <c r="AC437" s="2"/>
     </row>
-    <row r="438" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A438" s="13"/>
       <c r="B438" s="14"/>
       <c r="C438" s="14"/>
@@ -18451,7 +18449,7 @@
       <c r="AB438" s="2"/>
       <c r="AC438" s="2"/>
     </row>
-    <row r="439" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A439" s="13"/>
       <c r="B439" s="14"/>
       <c r="C439" s="14"/>
@@ -18482,7 +18480,7 @@
       <c r="AB439" s="2"/>
       <c r="AC439" s="2"/>
     </row>
-    <row r="440" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A440" s="13"/>
       <c r="B440" s="14"/>
       <c r="C440" s="14"/>
@@ -18513,7 +18511,7 @@
       <c r="AB440" s="2"/>
       <c r="AC440" s="2"/>
     </row>
-    <row r="441" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A441" s="13"/>
       <c r="B441" s="14"/>
       <c r="C441" s="14"/>
@@ -18544,7 +18542,7 @@
       <c r="AB441" s="2"/>
       <c r="AC441" s="2"/>
     </row>
-    <row r="442" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A442" s="13"/>
       <c r="B442" s="14"/>
       <c r="C442" s="14"/>
@@ -18575,7 +18573,7 @@
       <c r="AB442" s="2"/>
       <c r="AC442" s="2"/>
     </row>
-    <row r="443" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A443" s="13"/>
       <c r="B443" s="14"/>
       <c r="C443" s="14"/>
@@ -18606,7 +18604,7 @@
       <c r="AB443" s="2"/>
       <c r="AC443" s="2"/>
     </row>
-    <row r="444" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A444" s="13"/>
       <c r="B444" s="14"/>
       <c r="C444" s="14"/>
@@ -18637,7 +18635,7 @@
       <c r="AB444" s="2"/>
       <c r="AC444" s="2"/>
     </row>
-    <row r="445" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A445" s="13"/>
       <c r="B445" s="14"/>
       <c r="C445" s="14"/>
@@ -18668,7 +18666,7 @@
       <c r="AB445" s="2"/>
       <c r="AC445" s="2"/>
     </row>
-    <row r="446" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A446" s="13"/>
       <c r="B446" s="14"/>
       <c r="C446" s="14"/>
@@ -18699,7 +18697,7 @@
       <c r="AB446" s="2"/>
       <c r="AC446" s="2"/>
     </row>
-    <row r="447" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A447" s="13"/>
       <c r="B447" s="14"/>
       <c r="C447" s="14"/>
@@ -18730,7 +18728,7 @@
       <c r="AB447" s="2"/>
       <c r="AC447" s="2"/>
     </row>
-    <row r="448" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A448" s="13"/>
       <c r="B448" s="14"/>
       <c r="C448" s="14"/>
@@ -18761,7 +18759,7 @@
       <c r="AB448" s="2"/>
       <c r="AC448" s="2"/>
     </row>
-    <row r="449" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A449" s="13"/>
       <c r="B449" s="14"/>
       <c r="C449" s="14"/>
@@ -18792,7 +18790,7 @@
       <c r="AB449" s="2"/>
       <c r="AC449" s="2"/>
     </row>
-    <row r="450" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A450" s="13"/>
       <c r="B450" s="14"/>
       <c r="C450" s="14"/>
@@ -18823,7 +18821,7 @@
       <c r="AB450" s="2"/>
       <c r="AC450" s="2"/>
     </row>
-    <row r="451" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A451" s="13"/>
       <c r="B451" s="14"/>
       <c r="C451" s="14"/>
@@ -18854,7 +18852,7 @@
       <c r="AB451" s="2"/>
       <c r="AC451" s="2"/>
     </row>
-    <row r="452" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A452" s="13"/>
       <c r="B452" s="14"/>
       <c r="C452" s="14"/>
@@ -18885,7 +18883,7 @@
       <c r="AB452" s="2"/>
       <c r="AC452" s="2"/>
     </row>
-    <row r="453" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A453" s="13"/>
       <c r="B453" s="14"/>
       <c r="C453" s="14"/>
@@ -18916,7 +18914,7 @@
       <c r="AB453" s="2"/>
       <c r="AC453" s="2"/>
     </row>
-    <row r="454" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A454" s="13"/>
       <c r="B454" s="14"/>
       <c r="C454" s="14"/>
@@ -18947,7 +18945,7 @@
       <c r="AB454" s="2"/>
       <c r="AC454" s="2"/>
     </row>
-    <row r="455" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A455" s="13"/>
       <c r="B455" s="14"/>
       <c r="C455" s="14"/>
@@ -18978,7 +18976,7 @@
       <c r="AB455" s="2"/>
       <c r="AC455" s="2"/>
     </row>
-    <row r="456" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A456" s="13"/>
       <c r="B456" s="14"/>
       <c r="C456" s="14"/>
@@ -19009,7 +19007,7 @@
       <c r="AB456" s="2"/>
       <c r="AC456" s="2"/>
     </row>
-    <row r="457" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A457" s="13"/>
       <c r="B457" s="14"/>
       <c r="C457" s="14"/>
@@ -19040,7 +19038,7 @@
       <c r="AB457" s="2"/>
       <c r="AC457" s="2"/>
     </row>
-    <row r="458" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A458" s="13"/>
       <c r="B458" s="14"/>
       <c r="C458" s="14"/>
@@ -19071,7 +19069,7 @@
       <c r="AB458" s="2"/>
       <c r="AC458" s="2"/>
     </row>
-    <row r="459" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A459" s="13"/>
       <c r="B459" s="14"/>
       <c r="C459" s="14"/>
@@ -19102,7 +19100,7 @@
       <c r="AB459" s="2"/>
       <c r="AC459" s="2"/>
     </row>
-    <row r="460" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A460" s="13"/>
       <c r="B460" s="14"/>
       <c r="C460" s="14"/>
@@ -19133,7 +19131,7 @@
       <c r="AB460" s="2"/>
       <c r="AC460" s="2"/>
     </row>
-    <row r="461" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A461" s="13"/>
       <c r="B461" s="14"/>
       <c r="C461" s="14"/>
@@ -19164,7 +19162,7 @@
       <c r="AB461" s="2"/>
       <c r="AC461" s="2"/>
     </row>
-    <row r="462" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A462" s="13"/>
       <c r="B462" s="14"/>
       <c r="C462" s="14"/>
@@ -19195,7 +19193,7 @@
       <c r="AB462" s="2"/>
       <c r="AC462" s="2"/>
     </row>
-    <row r="463" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A463" s="13"/>
       <c r="B463" s="14"/>
       <c r="C463" s="14"/>
@@ -19226,7 +19224,7 @@
       <c r="AB463" s="2"/>
       <c r="AC463" s="2"/>
     </row>
-    <row r="464" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A464" s="13"/>
       <c r="B464" s="14"/>
       <c r="C464" s="14"/>
@@ -19257,7 +19255,7 @@
       <c r="AB464" s="2"/>
       <c r="AC464" s="2"/>
     </row>
-    <row r="465" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A465" s="13"/>
       <c r="B465" s="14"/>
       <c r="C465" s="14"/>
@@ -19288,7 +19286,7 @@
       <c r="AB465" s="2"/>
       <c r="AC465" s="2"/>
     </row>
-    <row r="466" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A466" s="13"/>
       <c r="B466" s="14"/>
       <c r="C466" s="14"/>
@@ -19319,7 +19317,7 @@
       <c r="AB466" s="2"/>
       <c r="AC466" s="2"/>
     </row>
-    <row r="467" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A467" s="13"/>
       <c r="B467" s="14"/>
       <c r="C467" s="14"/>
@@ -19350,7 +19348,7 @@
       <c r="AB467" s="2"/>
       <c r="AC467" s="2"/>
     </row>
-    <row r="468" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A468" s="13"/>
       <c r="B468" s="14"/>
       <c r="C468" s="14"/>
@@ -19381,7 +19379,7 @@
       <c r="AB468" s="2"/>
       <c r="AC468" s="2"/>
     </row>
-    <row r="469" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A469" s="13"/>
       <c r="B469" s="14"/>
       <c r="C469" s="14"/>
@@ -19412,7 +19410,7 @@
       <c r="AB469" s="2"/>
       <c r="AC469" s="2"/>
     </row>
-    <row r="470" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A470" s="13"/>
       <c r="B470" s="14"/>
       <c r="C470" s="14"/>
@@ -19443,7 +19441,7 @@
       <c r="AB470" s="2"/>
       <c r="AC470" s="2"/>
     </row>
-    <row r="471" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A471" s="13"/>
       <c r="B471" s="14"/>
       <c r="C471" s="14"/>
@@ -19474,7 +19472,7 @@
       <c r="AB471" s="2"/>
       <c r="AC471" s="2"/>
     </row>
-    <row r="472" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A472" s="13"/>
       <c r="B472" s="14"/>
       <c r="C472" s="14"/>
@@ -19505,7 +19503,7 @@
       <c r="AB472" s="2"/>
       <c r="AC472" s="2"/>
     </row>
-    <row r="473" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A473" s="13"/>
       <c r="B473" s="14"/>
       <c r="C473" s="14"/>
@@ -19536,7 +19534,7 @@
       <c r="AB473" s="2"/>
       <c r="AC473" s="2"/>
     </row>
-    <row r="474" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A474" s="13"/>
       <c r="B474" s="14"/>
       <c r="C474" s="14"/>
@@ -19567,7 +19565,7 @@
       <c r="AB474" s="2"/>
       <c r="AC474" s="2"/>
     </row>
-    <row r="475" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A475" s="13"/>
       <c r="B475" s="14"/>
       <c r="C475" s="14"/>
@@ -19598,7 +19596,7 @@
       <c r="AB475" s="2"/>
       <c r="AC475" s="2"/>
     </row>
-    <row r="476" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A476" s="13"/>
       <c r="B476" s="14"/>
       <c r="C476" s="14"/>
@@ -19629,7 +19627,7 @@
       <c r="AB476" s="2"/>
       <c r="AC476" s="2"/>
     </row>
-    <row r="477" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A477" s="13"/>
       <c r="B477" s="14"/>
       <c r="C477" s="14"/>
@@ -19660,7 +19658,7 @@
       <c r="AB477" s="2"/>
       <c r="AC477" s="2"/>
     </row>
-    <row r="478" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A478" s="13"/>
       <c r="B478" s="14"/>
       <c r="C478" s="14"/>
@@ -19691,7 +19689,7 @@
       <c r="AB478" s="2"/>
       <c r="AC478" s="2"/>
     </row>
-    <row r="479" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A479" s="13"/>
       <c r="B479" s="14"/>
       <c r="C479" s="14"/>
@@ -19722,7 +19720,7 @@
       <c r="AB479" s="2"/>
       <c r="AC479" s="2"/>
     </row>
-    <row r="480" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A480" s="13"/>
       <c r="B480" s="14"/>
       <c r="C480" s="14"/>
@@ -19753,7 +19751,7 @@
       <c r="AB480" s="2"/>
       <c r="AC480" s="2"/>
     </row>
-    <row r="481" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A481" s="13"/>
       <c r="B481" s="14"/>
       <c r="C481" s="14"/>
@@ -19784,7 +19782,7 @@
       <c r="AB481" s="2"/>
       <c r="AC481" s="2"/>
     </row>
-    <row r="482" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A482" s="13"/>
       <c r="B482" s="14"/>
       <c r="C482" s="14"/>
@@ -19815,7 +19813,7 @@
       <c r="AB482" s="2"/>
       <c r="AC482" s="2"/>
     </row>
-    <row r="483" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A483" s="13"/>
       <c r="B483" s="14"/>
       <c r="C483" s="14"/>
@@ -19846,7 +19844,7 @@
       <c r="AB483" s="2"/>
       <c r="AC483" s="2"/>
     </row>
-    <row r="484" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A484" s="13"/>
       <c r="B484" s="14"/>
       <c r="C484" s="14"/>
@@ -19877,7 +19875,7 @@
       <c r="AB484" s="2"/>
       <c r="AC484" s="2"/>
     </row>
-    <row r="485" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A485" s="13"/>
       <c r="B485" s="14"/>
       <c r="C485" s="14"/>
@@ -19908,7 +19906,7 @@
       <c r="AB485" s="2"/>
       <c r="AC485" s="2"/>
     </row>
-    <row r="486" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A486" s="13"/>
       <c r="B486" s="14"/>
       <c r="C486" s="14"/>
@@ -19939,7 +19937,7 @@
       <c r="AB486" s="2"/>
       <c r="AC486" s="2"/>
     </row>
-    <row r="487" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A487" s="13"/>
       <c r="B487" s="14"/>
       <c r="C487" s="14"/>
@@ -19970,7 +19968,7 @@
       <c r="AB487" s="2"/>
       <c r="AC487" s="2"/>
     </row>
-    <row r="488" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A488" s="13"/>
       <c r="B488" s="14"/>
       <c r="C488" s="14"/>
@@ -20001,7 +19999,7 @@
       <c r="AB488" s="2"/>
       <c r="AC488" s="2"/>
     </row>
-    <row r="489" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A489" s="13"/>
       <c r="B489" s="14"/>
       <c r="C489" s="14"/>
@@ -20032,7 +20030,7 @@
       <c r="AB489" s="2"/>
       <c r="AC489" s="2"/>
     </row>
-    <row r="490" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A490" s="13"/>
       <c r="B490" s="14"/>
       <c r="C490" s="14"/>
@@ -20063,7 +20061,7 @@
       <c r="AB490" s="2"/>
       <c r="AC490" s="2"/>
     </row>
-    <row r="491" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A491" s="13"/>
       <c r="B491" s="14"/>
       <c r="C491" s="14"/>
@@ -20094,7 +20092,7 @@
       <c r="AB491" s="2"/>
       <c r="AC491" s="2"/>
     </row>
-    <row r="492" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A492" s="13"/>
       <c r="B492" s="14"/>
       <c r="C492" s="14"/>
@@ -20125,7 +20123,7 @@
       <c r="AB492" s="2"/>
       <c r="AC492" s="2"/>
     </row>
-    <row r="493" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A493" s="13"/>
       <c r="B493" s="14"/>
       <c r="C493" s="14"/>
@@ -20156,7 +20154,7 @@
       <c r="AB493" s="2"/>
       <c r="AC493" s="2"/>
     </row>
-    <row r="494" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A494" s="13"/>
       <c r="B494" s="14"/>
       <c r="C494" s="14"/>
@@ -20187,7 +20185,7 @@
       <c r="AB494" s="2"/>
       <c r="AC494" s="2"/>
     </row>
-    <row r="495" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A495" s="13"/>
       <c r="B495" s="14"/>
       <c r="C495" s="14"/>
@@ -20218,7 +20216,7 @@
       <c r="AB495" s="2"/>
       <c r="AC495" s="2"/>
     </row>
-    <row r="496" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A496" s="13"/>
       <c r="B496" s="14"/>
       <c r="C496" s="14"/>
@@ -20249,7 +20247,7 @@
       <c r="AB496" s="2"/>
       <c r="AC496" s="2"/>
     </row>
-    <row r="497" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A497" s="13"/>
       <c r="B497" s="14"/>
       <c r="C497" s="14"/>
@@ -20280,7 +20278,7 @@
       <c r="AB497" s="2"/>
       <c r="AC497" s="2"/>
     </row>
-    <row r="498" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A498" s="13"/>
       <c r="B498" s="14"/>
       <c r="C498" s="14"/>
@@ -20311,7 +20309,7 @@
       <c r="AB498" s="2"/>
       <c r="AC498" s="2"/>
     </row>
-    <row r="499" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A499" s="13"/>
       <c r="B499" s="14"/>
       <c r="C499" s="14"/>
@@ -20342,7 +20340,7 @@
       <c r="AB499" s="2"/>
       <c r="AC499" s="2"/>
     </row>
-    <row r="500" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A500" s="13"/>
       <c r="B500" s="14"/>
       <c r="C500" s="14"/>
@@ -20373,7 +20371,7 @@
       <c r="AB500" s="2"/>
       <c r="AC500" s="2"/>
     </row>
-    <row r="501" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A501" s="13"/>
       <c r="B501" s="14"/>
       <c r="C501" s="14"/>
@@ -20404,7 +20402,7 @@
       <c r="AB501" s="2"/>
       <c r="AC501" s="2"/>
     </row>
-    <row r="502" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A502" s="13"/>
       <c r="B502" s="14"/>
       <c r="C502" s="14"/>
@@ -20435,7 +20433,7 @@
       <c r="AB502" s="2"/>
       <c r="AC502" s="2"/>
     </row>
-    <row r="503" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A503" s="13"/>
       <c r="B503" s="14"/>
       <c r="C503" s="14"/>
@@ -20466,7 +20464,7 @@
       <c r="AB503" s="2"/>
       <c r="AC503" s="2"/>
     </row>
-    <row r="504" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A504" s="13"/>
       <c r="B504" s="14"/>
       <c r="C504" s="14"/>
@@ -20497,7 +20495,7 @@
       <c r="AB504" s="2"/>
       <c r="AC504" s="2"/>
     </row>
-    <row r="505" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A505" s="13"/>
       <c r="B505" s="14"/>
       <c r="C505" s="14"/>
@@ -20528,7 +20526,7 @@
       <c r="AB505" s="2"/>
       <c r="AC505" s="2"/>
     </row>
-    <row r="506" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A506" s="13"/>
       <c r="B506" s="14"/>
       <c r="C506" s="14"/>
@@ -20559,7 +20557,7 @@
       <c r="AB506" s="2"/>
       <c r="AC506" s="2"/>
     </row>
-    <row r="507" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A507" s="13"/>
       <c r="B507" s="14"/>
       <c r="C507" s="14"/>
@@ -20590,7 +20588,7 @@
       <c r="AB507" s="2"/>
       <c r="AC507" s="2"/>
     </row>
-    <row r="508" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A508" s="13"/>
       <c r="B508" s="14"/>
       <c r="C508" s="14"/>
@@ -20621,7 +20619,7 @@
       <c r="AB508" s="2"/>
       <c r="AC508" s="2"/>
     </row>
-    <row r="509" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A509" s="13"/>
       <c r="B509" s="14"/>
       <c r="C509" s="14"/>
@@ -20652,7 +20650,7 @@
       <c r="AB509" s="2"/>
       <c r="AC509" s="2"/>
     </row>
-    <row r="510" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A510" s="13"/>
       <c r="B510" s="14"/>
       <c r="C510" s="14"/>
@@ -20683,7 +20681,7 @@
       <c r="AB510" s="2"/>
       <c r="AC510" s="2"/>
     </row>
-    <row r="511" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A511" s="13"/>
       <c r="B511" s="14"/>
       <c r="C511" s="14"/>
@@ -20714,7 +20712,7 @@
       <c r="AB511" s="2"/>
       <c r="AC511" s="2"/>
     </row>
-    <row r="512" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A512" s="13"/>
       <c r="B512" s="14"/>
       <c r="C512" s="14"/>
@@ -20745,7 +20743,7 @@
       <c r="AB512" s="2"/>
       <c r="AC512" s="2"/>
     </row>
-    <row r="513" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A513" s="13"/>
       <c r="B513" s="14"/>
       <c r="C513" s="14"/>
@@ -20776,7 +20774,7 @@
       <c r="AB513" s="2"/>
       <c r="AC513" s="2"/>
     </row>
-    <row r="514" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A514" s="13"/>
       <c r="B514" s="14"/>
       <c r="C514" s="14"/>
@@ -20807,7 +20805,7 @@
       <c r="AB514" s="2"/>
       <c r="AC514" s="2"/>
     </row>
-    <row r="515" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A515" s="13"/>
       <c r="B515" s="14"/>
       <c r="C515" s="14"/>
@@ -20838,7 +20836,7 @@
       <c r="AB515" s="2"/>
       <c r="AC515" s="2"/>
     </row>
-    <row r="516" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A516" s="13"/>
       <c r="B516" s="14"/>
       <c r="C516" s="14"/>
@@ -20869,7 +20867,7 @@
       <c r="AB516" s="2"/>
       <c r="AC516" s="2"/>
     </row>
-    <row r="517" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A517" s="13"/>
       <c r="B517" s="14"/>
       <c r="C517" s="14"/>
@@ -20900,7 +20898,7 @@
       <c r="AB517" s="2"/>
       <c r="AC517" s="2"/>
     </row>
-    <row r="518" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A518" s="13"/>
       <c r="B518" s="14"/>
       <c r="C518" s="14"/>
@@ -20931,7 +20929,7 @@
       <c r="AB518" s="2"/>
       <c r="AC518" s="2"/>
     </row>
-    <row r="519" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A519" s="13"/>
       <c r="B519" s="14"/>
       <c r="C519" s="14"/>
@@ -20962,7 +20960,7 @@
       <c r="AB519" s="2"/>
       <c r="AC519" s="2"/>
     </row>
-    <row r="520" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A520" s="13"/>
       <c r="B520" s="14"/>
       <c r="C520" s="14"/>
@@ -20993,7 +20991,7 @@
       <c r="AB520" s="2"/>
       <c r="AC520" s="2"/>
     </row>
-    <row r="521" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A521" s="13"/>
       <c r="B521" s="14"/>
       <c r="C521" s="14"/>
@@ -21024,7 +21022,7 @@
       <c r="AB521" s="2"/>
       <c r="AC521" s="2"/>
     </row>
-    <row r="522" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A522" s="13"/>
       <c r="B522" s="14"/>
       <c r="C522" s="14"/>
@@ -21055,7 +21053,7 @@
       <c r="AB522" s="2"/>
       <c r="AC522" s="2"/>
     </row>
-    <row r="523" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A523" s="13"/>
       <c r="B523" s="14"/>
       <c r="C523" s="14"/>
@@ -21086,7 +21084,7 @@
       <c r="AB523" s="2"/>
       <c r="AC523" s="2"/>
     </row>
-    <row r="524" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A524" s="13"/>
       <c r="B524" s="14"/>
       <c r="C524" s="14"/>
@@ -21117,7 +21115,7 @@
       <c r="AB524" s="2"/>
       <c r="AC524" s="2"/>
     </row>
-    <row r="525" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A525" s="13"/>
       <c r="B525" s="14"/>
       <c r="C525" s="14"/>
@@ -21148,7 +21146,7 @@
       <c r="AB525" s="2"/>
       <c r="AC525" s="2"/>
     </row>
-    <row r="526" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A526" s="13"/>
       <c r="B526" s="14"/>
       <c r="C526" s="14"/>
@@ -21179,7 +21177,7 @@
       <c r="AB526" s="2"/>
       <c r="AC526" s="2"/>
     </row>
-    <row r="527" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A527" s="13"/>
       <c r="B527" s="14"/>
       <c r="C527" s="14"/>
@@ -21210,7 +21208,7 @@
       <c r="AB527" s="2"/>
       <c r="AC527" s="2"/>
     </row>
-    <row r="528" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A528" s="13"/>
       <c r="B528" s="14"/>
       <c r="C528" s="14"/>
@@ -21241,7 +21239,7 @@
       <c r="AB528" s="2"/>
       <c r="AC528" s="2"/>
     </row>
-    <row r="529" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A529" s="13"/>
       <c r="B529" s="14"/>
       <c r="C529" s="14"/>
@@ -21272,7 +21270,7 @@
       <c r="AB529" s="2"/>
       <c r="AC529" s="2"/>
     </row>
-    <row r="530" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A530" s="13"/>
       <c r="B530" s="14"/>
       <c r="C530" s="14"/>
@@ -21303,7 +21301,7 @@
       <c r="AB530" s="2"/>
       <c r="AC530" s="2"/>
     </row>
-    <row r="531" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A531" s="13"/>
       <c r="B531" s="14"/>
       <c r="C531" s="14"/>
@@ -21334,7 +21332,7 @@
       <c r="AB531" s="2"/>
       <c r="AC531" s="2"/>
     </row>
-    <row r="532" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A532" s="13"/>
       <c r="B532" s="14"/>
       <c r="C532" s="14"/>
@@ -21365,7 +21363,7 @@
       <c r="AB532" s="2"/>
       <c r="AC532" s="2"/>
     </row>
-    <row r="533" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="533" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A533" s="13"/>
       <c r="B533" s="14"/>
       <c r="C533" s="14"/>
@@ -21396,7 +21394,7 @@
       <c r="AB533" s="2"/>
       <c r="AC533" s="2"/>
     </row>
-    <row r="534" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="534" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A534" s="13"/>
       <c r="B534" s="14"/>
       <c r="C534" s="14"/>
@@ -21427,7 +21425,7 @@
       <c r="AB534" s="2"/>
       <c r="AC534" s="2"/>
     </row>
-    <row r="535" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="535" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A535" s="13"/>
       <c r="B535" s="14"/>
       <c r="C535" s="14"/>
@@ -21458,7 +21456,7 @@
       <c r="AB535" s="2"/>
       <c r="AC535" s="2"/>
     </row>
-    <row r="536" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="536" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A536" s="13"/>
       <c r="B536" s="14"/>
       <c r="C536" s="14"/>
@@ -21489,7 +21487,7 @@
       <c r="AB536" s="2"/>
       <c r="AC536" s="2"/>
     </row>
-    <row r="537" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="537" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A537" s="13"/>
       <c r="B537" s="14"/>
       <c r="C537" s="14"/>
@@ -21520,7 +21518,7 @@
       <c r="AB537" s="2"/>
       <c r="AC537" s="2"/>
     </row>
-    <row r="538" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="538" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A538" s="13"/>
       <c r="B538" s="14"/>
       <c r="C538" s="14"/>
@@ -21551,7 +21549,7 @@
       <c r="AB538" s="2"/>
       <c r="AC538" s="2"/>
     </row>
-    <row r="539" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A539" s="13"/>
       <c r="B539" s="14"/>
       <c r="C539" s="14"/>
@@ -21582,7 +21580,7 @@
       <c r="AB539" s="2"/>
       <c r="AC539" s="2"/>
     </row>
-    <row r="540" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="540" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A540" s="13"/>
       <c r="B540" s="14"/>
       <c r="C540" s="14"/>
@@ -21613,7 +21611,7 @@
       <c r="AB540" s="2"/>
       <c r="AC540" s="2"/>
     </row>
-    <row r="541" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="541" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A541" s="13"/>
       <c r="B541" s="14"/>
       <c r="C541" s="14"/>
@@ -21644,7 +21642,7 @@
       <c r="AB541" s="2"/>
       <c r="AC541" s="2"/>
     </row>
-    <row r="542" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="542" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A542" s="13"/>
       <c r="B542" s="14"/>
       <c r="C542" s="14"/>
@@ -21675,7 +21673,7 @@
       <c r="AB542" s="2"/>
       <c r="AC542" s="2"/>
     </row>
-    <row r="543" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="543" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A543" s="13"/>
       <c r="B543" s="14"/>
       <c r="C543" s="14"/>
@@ -21706,7 +21704,7 @@
       <c r="AB543" s="2"/>
       <c r="AC543" s="2"/>
     </row>
-    <row r="544" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A544" s="13"/>
       <c r="B544" s="14"/>
       <c r="C544" s="14"/>
@@ -21737,7 +21735,7 @@
       <c r="AB544" s="2"/>
       <c r="AC544" s="2"/>
     </row>
-    <row r="545" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="545" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A545" s="13"/>
       <c r="B545" s="14"/>
       <c r="C545" s="14"/>
@@ -21768,7 +21766,7 @@
       <c r="AB545" s="2"/>
       <c r="AC545" s="2"/>
     </row>
-    <row r="546" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="546" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A546" s="13"/>
       <c r="B546" s="14"/>
       <c r="C546" s="14"/>
@@ -21799,7 +21797,7 @@
       <c r="AB546" s="2"/>
       <c r="AC546" s="2"/>
     </row>
-    <row r="547" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="547" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A547" s="13"/>
       <c r="B547" s="14"/>
       <c r="C547" s="14"/>
@@ -21830,7 +21828,7 @@
       <c r="AB547" s="2"/>
       <c r="AC547" s="2"/>
     </row>
-    <row r="548" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="548" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A548" s="13"/>
       <c r="B548" s="14"/>
       <c r="C548" s="14"/>
@@ -21861,7 +21859,7 @@
       <c r="AB548" s="2"/>
       <c r="AC548" s="2"/>
     </row>
-    <row r="549" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="549" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A549" s="13"/>
       <c r="B549" s="14"/>
       <c r="C549" s="14"/>
@@ -21892,7 +21890,7 @@
       <c r="AB549" s="2"/>
       <c r="AC549" s="2"/>
     </row>
-    <row r="550" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A550" s="13"/>
       <c r="B550" s="14"/>
       <c r="C550" s="14"/>
@@ -21923,7 +21921,7 @@
       <c r="AB550" s="2"/>
       <c r="AC550" s="2"/>
     </row>
-    <row r="551" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="551" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A551" s="13"/>
       <c r="B551" s="14"/>
       <c r="C551" s="14"/>
@@ -21954,7 +21952,7 @@
       <c r="AB551" s="2"/>
       <c r="AC551" s="2"/>
     </row>
-    <row r="552" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="552" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A552" s="13"/>
       <c r="B552" s="14"/>
       <c r="C552" s="14"/>
@@ -21985,7 +21983,7 @@
       <c r="AB552" s="2"/>
       <c r="AC552" s="2"/>
     </row>
-    <row r="553" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="553" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A553" s="13"/>
       <c r="B553" s="14"/>
       <c r="C553" s="14"/>
@@ -22016,7 +22014,7 @@
       <c r="AB553" s="2"/>
       <c r="AC553" s="2"/>
     </row>
-    <row r="554" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="554" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A554" s="13"/>
       <c r="B554" s="14"/>
       <c r="C554" s="14"/>
@@ -22047,7 +22045,7 @@
       <c r="AB554" s="2"/>
       <c r="AC554" s="2"/>
     </row>
-    <row r="555" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="555" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A555" s="13"/>
       <c r="B555" s="14"/>
       <c r="C555" s="14"/>
@@ -22078,7 +22076,7 @@
       <c r="AB555" s="2"/>
       <c r="AC555" s="2"/>
     </row>
-    <row r="556" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="556" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A556" s="13"/>
       <c r="B556" s="14"/>
       <c r="C556" s="14"/>
@@ -22109,7 +22107,7 @@
       <c r="AB556" s="2"/>
       <c r="AC556" s="2"/>
     </row>
-    <row r="557" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="557" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A557" s="13"/>
       <c r="B557" s="14"/>
       <c r="C557" s="14"/>
@@ -22140,7 +22138,7 @@
       <c r="AB557" s="2"/>
       <c r="AC557" s="2"/>
     </row>
-    <row r="558" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="558" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A558" s="13"/>
       <c r="B558" s="14"/>
       <c r="C558" s="14"/>
@@ -22171,7 +22169,7 @@
       <c r="AB558" s="2"/>
       <c r="AC558" s="2"/>
     </row>
-    <row r="559" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="559" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A559" s="13"/>
       <c r="B559" s="14"/>
       <c r="C559" s="14"/>
@@ -22202,7 +22200,7 @@
       <c r="AB559" s="2"/>
       <c r="AC559" s="2"/>
     </row>
-    <row r="560" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="560" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A560" s="13"/>
       <c r="B560" s="14"/>
       <c r="C560" s="14"/>
@@ -22233,7 +22231,7 @@
       <c r="AB560" s="2"/>
       <c r="AC560" s="2"/>
     </row>
-    <row r="561" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A561" s="13"/>
       <c r="B561" s="14"/>
       <c r="C561" s="14"/>
@@ -22264,7 +22262,7 @@
       <c r="AB561" s="2"/>
       <c r="AC561" s="2"/>
     </row>
-    <row r="562" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="562" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A562" s="13"/>
       <c r="B562" s="14"/>
       <c r="C562" s="14"/>
@@ -22295,7 +22293,7 @@
       <c r="AB562" s="2"/>
       <c r="AC562" s="2"/>
     </row>
-    <row r="563" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="563" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A563" s="13"/>
       <c r="B563" s="14"/>
       <c r="C563" s="14"/>
@@ -22326,7 +22324,7 @@
       <c r="AB563" s="2"/>
       <c r="AC563" s="2"/>
     </row>
-    <row r="564" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="564" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A564" s="13"/>
       <c r="B564" s="14"/>
       <c r="C564" s="14"/>
@@ -22357,7 +22355,7 @@
       <c r="AB564" s="2"/>
       <c r="AC564" s="2"/>
     </row>
-    <row r="565" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="565" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A565" s="13"/>
       <c r="B565" s="14"/>
       <c r="C565" s="14"/>
@@ -22388,7 +22386,7 @@
       <c r="AB565" s="2"/>
       <c r="AC565" s="2"/>
     </row>
-    <row r="566" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="566" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A566" s="13"/>
       <c r="B566" s="14"/>
       <c r="C566" s="14"/>
@@ -22419,7 +22417,7 @@
       <c r="AB566" s="2"/>
       <c r="AC566" s="2"/>
     </row>
-    <row r="567" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="567" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A567" s="13"/>
       <c r="B567" s="14"/>
       <c r="C567" s="14"/>
@@ -22450,7 +22448,7 @@
       <c r="AB567" s="2"/>
       <c r="AC567" s="2"/>
     </row>
-    <row r="568" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="568" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A568" s="13"/>
       <c r="B568" s="14"/>
       <c r="C568" s="14"/>
@@ -22481,7 +22479,7 @@
       <c r="AB568" s="2"/>
       <c r="AC568" s="2"/>
     </row>
-    <row r="569" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="569" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A569" s="13"/>
       <c r="B569" s="14"/>
       <c r="C569" s="14"/>
@@ -22512,7 +22510,7 @@
       <c r="AB569" s="2"/>
       <c r="AC569" s="2"/>
     </row>
-    <row r="570" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="570" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A570" s="13"/>
       <c r="B570" s="14"/>
       <c r="C570" s="14"/>
@@ -22543,7 +22541,7 @@
       <c r="AB570" s="2"/>
       <c r="AC570" s="2"/>
     </row>
-    <row r="571" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="571" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A571" s="13"/>
       <c r="B571" s="14"/>
       <c r="C571" s="14"/>
@@ -22574,7 +22572,7 @@
       <c r="AB571" s="2"/>
       <c r="AC571" s="2"/>
     </row>
-    <row r="572" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="572" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A572" s="13"/>
       <c r="B572" s="14"/>
       <c r="C572" s="14"/>
@@ -22605,7 +22603,7 @@
       <c r="AB572" s="2"/>
       <c r="AC572" s="2"/>
     </row>
-    <row r="573" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="573" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A573" s="13"/>
       <c r="B573" s="14"/>
       <c r="C573" s="14"/>
@@ -22636,7 +22634,7 @@
       <c r="AB573" s="2"/>
       <c r="AC573" s="2"/>
     </row>
-    <row r="574" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="574" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A574" s="13"/>
       <c r="B574" s="14"/>
       <c r="C574" s="14"/>
@@ -22667,7 +22665,7 @@
       <c r="AB574" s="2"/>
       <c r="AC574" s="2"/>
     </row>
-    <row r="575" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="575" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A575" s="13"/>
       <c r="B575" s="14"/>
       <c r="C575" s="14"/>
@@ -22698,7 +22696,7 @@
       <c r="AB575" s="2"/>
       <c r="AC575" s="2"/>
     </row>
-    <row r="576" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="576" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A576" s="13"/>
       <c r="B576" s="14"/>
       <c r="C576" s="14"/>
@@ -22729,7 +22727,7 @@
       <c r="AB576" s="2"/>
       <c r="AC576" s="2"/>
     </row>
-    <row r="577" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="577" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A577" s="13"/>
       <c r="B577" s="14"/>
       <c r="C577" s="14"/>
@@ -22760,7 +22758,7 @@
       <c r="AB577" s="2"/>
       <c r="AC577" s="2"/>
     </row>
-    <row r="578" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="578" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A578" s="13"/>
       <c r="B578" s="14"/>
       <c r="C578" s="14"/>
@@ -22791,7 +22789,7 @@
       <c r="AB578" s="2"/>
       <c r="AC578" s="2"/>
     </row>
-    <row r="579" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="579" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A579" s="13"/>
       <c r="B579" s="14"/>
       <c r="C579" s="14"/>
@@ -22822,7 +22820,7 @@
       <c r="AB579" s="2"/>
       <c r="AC579" s="2"/>
     </row>
-    <row r="580" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="580" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A580" s="13"/>
       <c r="B580" s="14"/>
       <c r="C580" s="14"/>
@@ -22853,7 +22851,7 @@
       <c r="AB580" s="2"/>
       <c r="AC580" s="2"/>
     </row>
-    <row r="581" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="581" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A581" s="13"/>
       <c r="B581" s="14"/>
       <c r="C581" s="14"/>
@@ -22884,7 +22882,7 @@
       <c r="AB581" s="2"/>
       <c r="AC581" s="2"/>
     </row>
-    <row r="582" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="582" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A582" s="13"/>
       <c r="B582" s="14"/>
       <c r="C582" s="14"/>
@@ -22915,7 +22913,7 @@
       <c r="AB582" s="2"/>
       <c r="AC582" s="2"/>
     </row>
-    <row r="583" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="583" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A583" s="13"/>
       <c r="B583" s="14"/>
       <c r="C583" s="14"/>
@@ -22946,7 +22944,7 @@
       <c r="AB583" s="2"/>
       <c r="AC583" s="2"/>
     </row>
-    <row r="584" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="584" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A584" s="13"/>
       <c r="B584" s="14"/>
       <c r="C584" s="14"/>
@@ -22977,7 +22975,7 @@
       <c r="AB584" s="2"/>
       <c r="AC584" s="2"/>
     </row>
-    <row r="585" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="585" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A585" s="13"/>
       <c r="B585" s="14"/>
       <c r="C585" s="14"/>
@@ -23008,7 +23006,7 @@
       <c r="AB585" s="2"/>
       <c r="AC585" s="2"/>
     </row>
-    <row r="586" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="586" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A586" s="13"/>
       <c r="B586" s="14"/>
       <c r="C586" s="14"/>
@@ -23039,7 +23037,7 @@
       <c r="AB586" s="2"/>
       <c r="AC586" s="2"/>
     </row>
-    <row r="587" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="587" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A587" s="13"/>
       <c r="B587" s="14"/>
       <c r="C587" s="14"/>
@@ -23070,7 +23068,7 @@
       <c r="AB587" s="2"/>
       <c r="AC587" s="2"/>
     </row>
-    <row r="588" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="588" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A588" s="13"/>
       <c r="B588" s="14"/>
       <c r="C588" s="14"/>
@@ -23101,7 +23099,7 @@
       <c r="AB588" s="2"/>
       <c r="AC588" s="2"/>
     </row>
-    <row r="589" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="589" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A589" s="13"/>
       <c r="B589" s="14"/>
       <c r="C589" s="14"/>
@@ -23132,7 +23130,7 @@
       <c r="AB589" s="2"/>
       <c r="AC589" s="2"/>
     </row>
-    <row r="590" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="590" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A590" s="13"/>
       <c r="B590" s="14"/>
       <c r="C590" s="14"/>
@@ -23163,7 +23161,7 @@
       <c r="AB590" s="2"/>
       <c r="AC590" s="2"/>
     </row>
-    <row r="591" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="591" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A591" s="13"/>
       <c r="B591" s="14"/>
       <c r="C591" s="14"/>
@@ -23194,7 +23192,7 @@
       <c r="AB591" s="2"/>
       <c r="AC591" s="2"/>
     </row>
-    <row r="592" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="592" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A592" s="13"/>
       <c r="B592" s="14"/>
       <c r="C592" s="14"/>
@@ -23225,7 +23223,7 @@
       <c r="AB592" s="2"/>
       <c r="AC592" s="2"/>
     </row>
-    <row r="593" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="593" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A593" s="13"/>
       <c r="B593" s="14"/>
       <c r="C593" s="14"/>
@@ -23256,7 +23254,7 @@
       <c r="AB593" s="2"/>
       <c r="AC593" s="2"/>
     </row>
-    <row r="594" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="594" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A594" s="13"/>
       <c r="B594" s="14"/>
       <c r="C594" s="14"/>
@@ -23287,7 +23285,7 @@
       <c r="AB594" s="2"/>
       <c r="AC594" s="2"/>
     </row>
-    <row r="595" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="595" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A595" s="13"/>
       <c r="B595" s="14"/>
       <c r="C595" s="14"/>
@@ -23318,7 +23316,7 @@
       <c r="AB595" s="2"/>
       <c r="AC595" s="2"/>
     </row>
-    <row r="596" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="596" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A596" s="13"/>
       <c r="B596" s="14"/>
       <c r="C596" s="14"/>
@@ -23349,7 +23347,7 @@
       <c r="AB596" s="2"/>
       <c r="AC596" s="2"/>
     </row>
-    <row r="597" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="597" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A597" s="13"/>
       <c r="B597" s="14"/>
       <c r="C597" s="14"/>
@@ -23380,7 +23378,7 @@
       <c r="AB597" s="2"/>
       <c r="AC597" s="2"/>
     </row>
-    <row r="598" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="598" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A598" s="13"/>
       <c r="B598" s="14"/>
       <c r="C598" s="14"/>
@@ -23411,7 +23409,7 @@
       <c r="AB598" s="2"/>
       <c r="AC598" s="2"/>
     </row>
-    <row r="599" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="599" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A599" s="13"/>
       <c r="B599" s="14"/>
       <c r="C599" s="14"/>
@@ -23442,7 +23440,7 @@
       <c r="AB599" s="2"/>
       <c r="AC599" s="2"/>
     </row>
-    <row r="600" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="600" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A600" s="13"/>
       <c r="B600" s="14"/>
       <c r="C600" s="14"/>
@@ -23473,7 +23471,7 @@
       <c r="AB600" s="2"/>
       <c r="AC600" s="2"/>
     </row>
-    <row r="601" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="601" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A601" s="13"/>
       <c r="B601" s="14"/>
       <c r="C601" s="14"/>
@@ -23504,7 +23502,7 @@
       <c r="AB601" s="2"/>
       <c r="AC601" s="2"/>
     </row>
-    <row r="602" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="602" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A602" s="13"/>
       <c r="B602" s="14"/>
       <c r="C602" s="14"/>
@@ -23535,7 +23533,7 @@
       <c r="AB602" s="2"/>
       <c r="AC602" s="2"/>
     </row>
-    <row r="603" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="603" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A603" s="13"/>
       <c r="B603" s="14"/>
       <c r="C603" s="14"/>
@@ -23566,7 +23564,7 @@
       <c r="AB603" s="2"/>
       <c r="AC603" s="2"/>
     </row>
-    <row r="604" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="604" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A604" s="13"/>
       <c r="B604" s="14"/>
       <c r="C604" s="14"/>
@@ -23597,7 +23595,7 @@
       <c r="AB604" s="2"/>
       <c r="AC604" s="2"/>
     </row>
-    <row r="605" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="605" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A605" s="13"/>
       <c r="B605" s="14"/>
       <c r="C605" s="14"/>
@@ -23628,7 +23626,7 @@
       <c r="AB605" s="2"/>
       <c r="AC605" s="2"/>
     </row>
-    <row r="606" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="606" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A606" s="13"/>
       <c r="B606" s="14"/>
       <c r="C606" s="14"/>
@@ -23659,7 +23657,7 @@
       <c r="AB606" s="2"/>
       <c r="AC606" s="2"/>
     </row>
-    <row r="607" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="607" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A607" s="13"/>
       <c r="B607" s="14"/>
       <c r="C607" s="14"/>
@@ -23690,7 +23688,7 @@
       <c r="AB607" s="2"/>
       <c r="AC607" s="2"/>
     </row>
-    <row r="608" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="608" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A608" s="13"/>
       <c r="B608" s="14"/>
       <c r="C608" s="14"/>
@@ -23721,7 +23719,7 @@
       <c r="AB608" s="2"/>
       <c r="AC608" s="2"/>
     </row>
-    <row r="609" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="609" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A609" s="13"/>
       <c r="B609" s="14"/>
       <c r="C609" s="14"/>
@@ -23752,7 +23750,7 @@
       <c r="AB609" s="2"/>
       <c r="AC609" s="2"/>
     </row>
-    <row r="610" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="610" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A610" s="13"/>
       <c r="B610" s="14"/>
       <c r="C610" s="14"/>
@@ -23783,7 +23781,7 @@
       <c r="AB610" s="2"/>
       <c r="AC610" s="2"/>
     </row>
-    <row r="611" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="611" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A611" s="13"/>
       <c r="B611" s="14"/>
       <c r="C611" s="14"/>
@@ -23814,7 +23812,7 @@
       <c r="AB611" s="2"/>
       <c r="AC611" s="2"/>
     </row>
-    <row r="612" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="612" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A612" s="13"/>
       <c r="B612" s="14"/>
       <c r="C612" s="14"/>
@@ -23845,7 +23843,7 @@
       <c r="AB612" s="2"/>
       <c r="AC612" s="2"/>
     </row>
-    <row r="613" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="613" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A613" s="13"/>
       <c r="B613" s="14"/>
       <c r="C613" s="14"/>
@@ -23876,7 +23874,7 @@
       <c r="AB613" s="2"/>
       <c r="AC613" s="2"/>
     </row>
-    <row r="614" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="614" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A614" s="13"/>
       <c r="B614" s="14"/>
       <c r="C614" s="14"/>
@@ -23907,7 +23905,7 @@
       <c r="AB614" s="2"/>
       <c r="AC614" s="2"/>
     </row>
-    <row r="615" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="615" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A615" s="13"/>
       <c r="B615" s="14"/>
       <c r="C615" s="14"/>
@@ -23938,7 +23936,7 @@
       <c r="AB615" s="2"/>
       <c r="AC615" s="2"/>
     </row>
-    <row r="616" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="616" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A616" s="13"/>
       <c r="B616" s="14"/>
       <c r="C616" s="14"/>
@@ -23969,7 +23967,7 @@
       <c r="AB616" s="2"/>
       <c r="AC616" s="2"/>
     </row>
-    <row r="617" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="617" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A617" s="13"/>
       <c r="B617" s="14"/>
       <c r="C617" s="14"/>
@@ -24000,7 +23998,7 @@
       <c r="AB617" s="2"/>
       <c r="AC617" s="2"/>
     </row>
-    <row r="618" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="618" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A618" s="13"/>
       <c r="B618" s="14"/>
       <c r="C618" s="14"/>
@@ -24031,7 +24029,7 @@
       <c r="AB618" s="2"/>
       <c r="AC618" s="2"/>
     </row>
-    <row r="619" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="619" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A619" s="13"/>
       <c r="B619" s="14"/>
       <c r="C619" s="14"/>
@@ -24062,7 +24060,7 @@
       <c r="AB619" s="2"/>
       <c r="AC619" s="2"/>
     </row>
-    <row r="620" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="620" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A620" s="13"/>
       <c r="B620" s="14"/>
       <c r="C620" s="14"/>
@@ -24093,7 +24091,7 @@
       <c r="AB620" s="2"/>
       <c r="AC620" s="2"/>
     </row>
-    <row r="621" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="621" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A621" s="13"/>
       <c r="B621" s="14"/>
       <c r="C621" s="14"/>
@@ -24124,7 +24122,7 @@
       <c r="AB621" s="2"/>
       <c r="AC621" s="2"/>
     </row>
-    <row r="622" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="622" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A622" s="13"/>
       <c r="B622" s="14"/>
       <c r="C622" s="14"/>
@@ -24155,7 +24153,7 @@
       <c r="AB622" s="2"/>
       <c r="AC622" s="2"/>
     </row>
-    <row r="623" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="623" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A623" s="13"/>
       <c r="B623" s="14"/>
       <c r="C623" s="14"/>
@@ -24186,7 +24184,7 @@
       <c r="AB623" s="2"/>
       <c r="AC623" s="2"/>
     </row>
-    <row r="624" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="624" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A624" s="13"/>
       <c r="B624" s="14"/>
       <c r="C624" s="14"/>
@@ -24217,7 +24215,7 @@
       <c r="AB624" s="2"/>
       <c r="AC624" s="2"/>
     </row>
-    <row r="625" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="625" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A625" s="13"/>
       <c r="B625" s="14"/>
       <c r="C625" s="14"/>
@@ -24248,7 +24246,7 @@
       <c r="AB625" s="2"/>
       <c r="AC625" s="2"/>
     </row>
-    <row r="626" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="626" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A626" s="13"/>
       <c r="B626" s="14"/>
       <c r="C626" s="14"/>
@@ -24279,7 +24277,7 @@
       <c r="AB626" s="2"/>
       <c r="AC626" s="2"/>
     </row>
-    <row r="627" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="627" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A627" s="13"/>
       <c r="B627" s="14"/>
       <c r="C627" s="14"/>
@@ -24310,7 +24308,7 @@
       <c r="AB627" s="2"/>
       <c r="AC627" s="2"/>
     </row>
-    <row r="628" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="628" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A628" s="13"/>
       <c r="B628" s="14"/>
       <c r="C628" s="14"/>
@@ -24341,7 +24339,7 @@
       <c r="AB628" s="2"/>
       <c r="AC628" s="2"/>
     </row>
-    <row r="629" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="629" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A629" s="13"/>
       <c r="B629" s="14"/>
       <c r="C629" s="14"/>
@@ -24372,7 +24370,7 @@
       <c r="AB629" s="2"/>
       <c r="AC629" s="2"/>
     </row>
-    <row r="630" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="630" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A630" s="13"/>
       <c r="B630" s="14"/>
       <c r="C630" s="14"/>
@@ -24403,7 +24401,7 @@
       <c r="AB630" s="2"/>
       <c r="AC630" s="2"/>
     </row>
-    <row r="631" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="631" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A631" s="13"/>
       <c r="B631" s="14"/>
       <c r="C631" s="14"/>
@@ -24434,7 +24432,7 @@
       <c r="AB631" s="2"/>
       <c r="AC631" s="2"/>
     </row>
-    <row r="632" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="632" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A632" s="13"/>
       <c r="B632" s="14"/>
       <c r="C632" s="14"/>
@@ -24465,7 +24463,7 @@
       <c r="AB632" s="2"/>
       <c r="AC632" s="2"/>
     </row>
-    <row r="633" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="633" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A633" s="13"/>
       <c r="B633" s="14"/>
       <c r="C633" s="14"/>
@@ -24496,7 +24494,7 @@
       <c r="AB633" s="2"/>
       <c r="AC633" s="2"/>
     </row>
-    <row r="634" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="634" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A634" s="13"/>
       <c r="B634" s="14"/>
       <c r="C634" s="14"/>
@@ -24527,7 +24525,7 @@
       <c r="AB634" s="2"/>
       <c r="AC634" s="2"/>
     </row>
-    <row r="635" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="635" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A635" s="13"/>
       <c r="B635" s="14"/>
       <c r="C635" s="14"/>
@@ -24558,7 +24556,7 @@
       <c r="AB635" s="2"/>
       <c r="AC635" s="2"/>
     </row>
-    <row r="636" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="636" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A636" s="13"/>
       <c r="B636" s="14"/>
       <c r="C636" s="14"/>
@@ -24589,7 +24587,7 @@
       <c r="AB636" s="2"/>
       <c r="AC636" s="2"/>
     </row>
-    <row r="637" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="637" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A637" s="13"/>
       <c r="B637" s="14"/>
       <c r="C637" s="14"/>
@@ -24620,7 +24618,7 @@
       <c r="AB637" s="2"/>
       <c r="AC637" s="2"/>
     </row>
-    <row r="638" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="638" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A638" s="13"/>
       <c r="B638" s="14"/>
       <c r="C638" s="14"/>
@@ -24651,7 +24649,7 @@
       <c r="AB638" s="2"/>
       <c r="AC638" s="2"/>
     </row>
-    <row r="639" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="639" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A639" s="13"/>
       <c r="B639" s="14"/>
       <c r="C639" s="14"/>
@@ -24682,7 +24680,7 @@
       <c r="AB639" s="2"/>
       <c r="AC639" s="2"/>
     </row>
-    <row r="640" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="640" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A640" s="13"/>
       <c r="B640" s="14"/>
       <c r="C640" s="14"/>
@@ -24713,7 +24711,7 @@
       <c r="AB640" s="2"/>
       <c r="AC640" s="2"/>
     </row>
-    <row r="641" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="641" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A641" s="13"/>
       <c r="B641" s="14"/>
       <c r="C641" s="14"/>
@@ -24744,7 +24742,7 @@
       <c r="AB641" s="2"/>
       <c r="AC641" s="2"/>
     </row>
-    <row r="642" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="642" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A642" s="13"/>
       <c r="B642" s="14"/>
       <c r="C642" s="14"/>
@@ -24775,7 +24773,7 @@
       <c r="AB642" s="2"/>
       <c r="AC642" s="2"/>
     </row>
-    <row r="643" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="643" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A643" s="13"/>
       <c r="B643" s="14"/>
       <c r="C643" s="14"/>
@@ -24806,7 +24804,7 @@
       <c r="AB643" s="2"/>
       <c r="AC643" s="2"/>
     </row>
-    <row r="644" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="644" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A644" s="13"/>
       <c r="B644" s="14"/>
       <c r="C644" s="14"/>
@@ -24837,7 +24835,7 @@
       <c r="AB644" s="2"/>
       <c r="AC644" s="2"/>
     </row>
-    <row r="645" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="645" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A645" s="13"/>
       <c r="B645" s="14"/>
       <c r="C645" s="14"/>
@@ -24868,7 +24866,7 @@
       <c r="AB645" s="2"/>
       <c r="AC645" s="2"/>
     </row>
-    <row r="646" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="646" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A646" s="13"/>
       <c r="B646" s="14"/>
       <c r="C646" s="14"/>
@@ -24899,7 +24897,7 @@
       <c r="AB646" s="2"/>
       <c r="AC646" s="2"/>
     </row>
-    <row r="647" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="647" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A647" s="13"/>
       <c r="B647" s="14"/>
       <c r="C647" s="14"/>
@@ -24930,7 +24928,7 @@
       <c r="AB647" s="2"/>
       <c r="AC647" s="2"/>
     </row>
-    <row r="648" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="648" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A648" s="13"/>
       <c r="B648" s="14"/>
       <c r="C648" s="14"/>
@@ -24961,7 +24959,7 @@
       <c r="AB648" s="2"/>
       <c r="AC648" s="2"/>
     </row>
-    <row r="649" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="649" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A649" s="13"/>
       <c r="B649" s="14"/>
       <c r="C649" s="14"/>
@@ -24992,7 +24990,7 @@
       <c r="AB649" s="2"/>
       <c r="AC649" s="2"/>
     </row>
-    <row r="650" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="650" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A650" s="13"/>
       <c r="B650" s="14"/>
       <c r="C650" s="14"/>
@@ -25023,7 +25021,7 @@
       <c r="AB650" s="2"/>
       <c r="AC650" s="2"/>
     </row>
-    <row r="651" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="651" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A651" s="13"/>
       <c r="B651" s="14"/>
       <c r="C651" s="14"/>
@@ -25054,7 +25052,7 @@
       <c r="AB651" s="2"/>
       <c r="AC651" s="2"/>
     </row>
-    <row r="652" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="652" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A652" s="13"/>
       <c r="B652" s="14"/>
       <c r="C652" s="14"/>
@@ -25085,7 +25083,7 @@
       <c r="AB652" s="2"/>
       <c r="AC652" s="2"/>
     </row>
-    <row r="653" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="653" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A653" s="13"/>
       <c r="B653" s="14"/>
       <c r="C653" s="14"/>
@@ -25116,7 +25114,7 @@
       <c r="AB653" s="2"/>
       <c r="AC653" s="2"/>
     </row>
-    <row r="654" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="654" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A654" s="13"/>
       <c r="B654" s="14"/>
       <c r="C654" s="14"/>
@@ -25147,7 +25145,7 @@
       <c r="AB654" s="2"/>
       <c r="AC654" s="2"/>
     </row>
-    <row r="655" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="655" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A655" s="13"/>
       <c r="B655" s="14"/>
       <c r="C655" s="14"/>
@@ -25178,7 +25176,7 @@
       <c r="AB655" s="2"/>
       <c r="AC655" s="2"/>
     </row>
-    <row r="656" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="656" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A656" s="13"/>
       <c r="B656" s="14"/>
       <c r="C656" s="14"/>
@@ -25209,7 +25207,7 @@
       <c r="AB656" s="2"/>
       <c r="AC656" s="2"/>
     </row>
-    <row r="657" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="657" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A657" s="13"/>
       <c r="B657" s="14"/>
       <c r="C657" s="14"/>
@@ -25240,7 +25238,7 @@
       <c r="AB657" s="2"/>
       <c r="AC657" s="2"/>
     </row>
-    <row r="658" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="658" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A658" s="13"/>
       <c r="B658" s="14"/>
       <c r="C658" s="14"/>
@@ -25271,7 +25269,7 @@
       <c r="AB658" s="2"/>
       <c r="AC658" s="2"/>
     </row>
-    <row r="659" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="659" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A659" s="13"/>
       <c r="B659" s="14"/>
       <c r="C659" s="14"/>
@@ -25302,7 +25300,7 @@
       <c r="AB659" s="2"/>
       <c r="AC659" s="2"/>
     </row>
-    <row r="660" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="660" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A660" s="13"/>
       <c r="B660" s="14"/>
       <c r="C660" s="14"/>
@@ -25333,7 +25331,7 @@
       <c r="AB660" s="2"/>
       <c r="AC660" s="2"/>
     </row>
-    <row r="661" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="661" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A661" s="13"/>
       <c r="B661" s="14"/>
       <c r="C661" s="14"/>
@@ -25364,7 +25362,7 @@
       <c r="AB661" s="2"/>
       <c r="AC661" s="2"/>
     </row>
-    <row r="662" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="662" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A662" s="13"/>
       <c r="B662" s="14"/>
       <c r="C662" s="14"/>
@@ -25395,7 +25393,7 @@
       <c r="AB662" s="2"/>
       <c r="AC662" s="2"/>
     </row>
-    <row r="663" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="663" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A663" s="13"/>
       <c r="B663" s="14"/>
       <c r="C663" s="14"/>
@@ -25426,7 +25424,7 @@
       <c r="AB663" s="2"/>
       <c r="AC663" s="2"/>
     </row>
-    <row r="664" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="664" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A664" s="13"/>
       <c r="B664" s="14"/>
       <c r="C664" s="14"/>
@@ -25457,7 +25455,7 @@
       <c r="AB664" s="2"/>
       <c r="AC664" s="2"/>
     </row>
-    <row r="665" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="665" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A665" s="13"/>
       <c r="B665" s="14"/>
       <c r="C665" s="14"/>
@@ -25488,7 +25486,7 @@
       <c r="AB665" s="2"/>
       <c r="AC665" s="2"/>
     </row>
-    <row r="666" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="666" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A666" s="13"/>
       <c r="B666" s="14"/>
       <c r="C666" s="14"/>
@@ -25519,7 +25517,7 @@
       <c r="AB666" s="2"/>
       <c r="AC666" s="2"/>
     </row>
-    <row r="667" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="667" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A667" s="13"/>
       <c r="B667" s="14"/>
       <c r="C667" s="14"/>
@@ -25550,7 +25548,7 @@
       <c r="AB667" s="2"/>
       <c r="AC667" s="2"/>
     </row>
-    <row r="668" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="668" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A668" s="13"/>
       <c r="B668" s="14"/>
       <c r="C668" s="14"/>
@@ -25581,7 +25579,7 @@
       <c r="AB668" s="2"/>
       <c r="AC668" s="2"/>
     </row>
-    <row r="669" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="669" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A669" s="13"/>
       <c r="B669" s="14"/>
       <c r="C669" s="14"/>
@@ -25612,7 +25610,7 @@
       <c r="AB669" s="2"/>
       <c r="AC669" s="2"/>
     </row>
-    <row r="670" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="670" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A670" s="13"/>
       <c r="B670" s="14"/>
       <c r="C670" s="14"/>
@@ -25643,7 +25641,7 @@
       <c r="AB670" s="2"/>
       <c r="AC670" s="2"/>
     </row>
-    <row r="671" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="671" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A671" s="13"/>
       <c r="B671" s="14"/>
       <c r="C671" s="14"/>
@@ -25674,7 +25672,7 @@
       <c r="AB671" s="2"/>
       <c r="AC671" s="2"/>
     </row>
-    <row r="672" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="672" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A672" s="13"/>
       <c r="B672" s="14"/>
       <c r="C672" s="14"/>
@@ -25705,7 +25703,7 @@
       <c r="AB672" s="2"/>
       <c r="AC672" s="2"/>
     </row>
-    <row r="673" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="673" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A673" s="13"/>
       <c r="B673" s="14"/>
       <c r="C673" s="14"/>
@@ -25736,7 +25734,7 @@
       <c r="AB673" s="2"/>
       <c r="AC673" s="2"/>
     </row>
-    <row r="674" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="674" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A674" s="13"/>
       <c r="B674" s="14"/>
       <c r="C674" s="14"/>
@@ -25767,7 +25765,7 @@
       <c r="AB674" s="2"/>
       <c r="AC674" s="2"/>
     </row>
-    <row r="675" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="675" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A675" s="13"/>
       <c r="B675" s="14"/>
       <c r="C675" s="14"/>
@@ -25798,7 +25796,7 @@
       <c r="AB675" s="2"/>
       <c r="AC675" s="2"/>
     </row>
-    <row r="676" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="676" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A676" s="13"/>
       <c r="B676" s="14"/>
       <c r="C676" s="14"/>
@@ -25829,7 +25827,7 @@
       <c r="AB676" s="2"/>
       <c r="AC676" s="2"/>
     </row>
-    <row r="677" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="677" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A677" s="13"/>
       <c r="B677" s="14"/>
       <c r="C677" s="14"/>
@@ -25860,7 +25858,7 @@
       <c r="AB677" s="2"/>
       <c r="AC677" s="2"/>
     </row>
-    <row r="678" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="678" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A678" s="13"/>
       <c r="B678" s="14"/>
       <c r="C678" s="14"/>
@@ -25891,7 +25889,7 @@
       <c r="AB678" s="2"/>
       <c r="AC678" s="2"/>
     </row>
-    <row r="679" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="679" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A679" s="13"/>
       <c r="B679" s="14"/>
       <c r="C679" s="14"/>
@@ -25922,7 +25920,7 @@
       <c r="AB679" s="2"/>
       <c r="AC679" s="2"/>
     </row>
-    <row r="680" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="680" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A680" s="13"/>
       <c r="B680" s="14"/>
       <c r="C680" s="14"/>
@@ -25953,7 +25951,7 @@
       <c r="AB680" s="2"/>
       <c r="AC680" s="2"/>
     </row>
-    <row r="681" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="681" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A681" s="13"/>
       <c r="B681" s="14"/>
       <c r="C681" s="14"/>
@@ -25984,7 +25982,7 @@
       <c r="AB681" s="2"/>
       <c r="AC681" s="2"/>
     </row>
-    <row r="682" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="682" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A682" s="13"/>
       <c r="B682" s="14"/>
       <c r="C682" s="14"/>
@@ -26015,7 +26013,7 @@
       <c r="AB682" s="2"/>
       <c r="AC682" s="2"/>
     </row>
-    <row r="683" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="683" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A683" s="13"/>
       <c r="B683" s="14"/>
       <c r="C683" s="14"/>
@@ -26046,7 +26044,7 @@
       <c r="AB683" s="2"/>
       <c r="AC683" s="2"/>
     </row>
-    <row r="684" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="684" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A684" s="13"/>
       <c r="B684" s="14"/>
       <c r="C684" s="14"/>
@@ -26077,7 +26075,7 @@
       <c r="AB684" s="2"/>
       <c r="AC684" s="2"/>
     </row>
-    <row r="685" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="685" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A685" s="13"/>
       <c r="B685" s="14"/>
       <c r="C685" s="14"/>
@@ -26108,7 +26106,7 @@
       <c r="AB685" s="2"/>
       <c r="AC685" s="2"/>
     </row>
-    <row r="686" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="686" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A686" s="13"/>
       <c r="B686" s="14"/>
       <c r="C686" s="14"/>
@@ -26139,7 +26137,7 @@
       <c r="AB686" s="2"/>
       <c r="AC686" s="2"/>
     </row>
-    <row r="687" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="687" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A687" s="13"/>
       <c r="B687" s="14"/>
       <c r="C687" s="14"/>
@@ -26170,7 +26168,7 @@
       <c r="AB687" s="2"/>
       <c r="AC687" s="2"/>
     </row>
-    <row r="688" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="688" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A688" s="13"/>
       <c r="B688" s="14"/>
       <c r="C688" s="14"/>
@@ -26201,7 +26199,7 @@
       <c r="AB688" s="2"/>
       <c r="AC688" s="2"/>
     </row>
-    <row r="689" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="689" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A689" s="13"/>
       <c r="B689" s="14"/>
       <c r="C689" s="14"/>
@@ -26232,7 +26230,7 @@
       <c r="AB689" s="2"/>
       <c r="AC689" s="2"/>
     </row>
-    <row r="690" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="690" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A690" s="13"/>
       <c r="B690" s="14"/>
       <c r="C690" s="14"/>
@@ -26263,7 +26261,7 @@
       <c r="AB690" s="2"/>
       <c r="AC690" s="2"/>
     </row>
-    <row r="691" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="691" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A691" s="13"/>
       <c r="B691" s="14"/>
       <c r="C691" s="14"/>
@@ -26294,7 +26292,7 @@
       <c r="AB691" s="2"/>
       <c r="AC691" s="2"/>
     </row>
-    <row r="692" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="692" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A692" s="13"/>
       <c r="B692" s="14"/>
       <c r="C692" s="14"/>
@@ -26325,7 +26323,7 @@
       <c r="AB692" s="2"/>
       <c r="AC692" s="2"/>
     </row>
-    <row r="693" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="693" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A693" s="13"/>
       <c r="B693" s="14"/>
       <c r="C693" s="14"/>
@@ -26356,7 +26354,7 @@
       <c r="AB693" s="2"/>
       <c r="AC693" s="2"/>
     </row>
-    <row r="694" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="694" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A694" s="13"/>
       <c r="B694" s="14"/>
       <c r="C694" s="14"/>
@@ -26387,7 +26385,7 @@
       <c r="AB694" s="2"/>
       <c r="AC694" s="2"/>
     </row>
-    <row r="695" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="695" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A695" s="13"/>
       <c r="B695" s="14"/>
       <c r="C695" s="14"/>
@@ -26418,7 +26416,7 @@
       <c r="AB695" s="2"/>
       <c r="AC695" s="2"/>
     </row>
-    <row r="696" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="696" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A696" s="13"/>
       <c r="B696" s="14"/>
       <c r="C696" s="14"/>
@@ -26449,7 +26447,7 @@
       <c r="AB696" s="2"/>
       <c r="AC696" s="2"/>
     </row>
-    <row r="697" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="697" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A697" s="13"/>
       <c r="B697" s="14"/>
       <c r="C697" s="14"/>
@@ -26480,7 +26478,7 @@
       <c r="AB697" s="2"/>
       <c r="AC697" s="2"/>
     </row>
-    <row r="698" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="698" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A698" s="13"/>
       <c r="B698" s="14"/>
       <c r="C698" s="14"/>
@@ -26511,7 +26509,7 @@
       <c r="AB698" s="2"/>
       <c r="AC698" s="2"/>
     </row>
-    <row r="699" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="699" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A699" s="13"/>
       <c r="B699" s="14"/>
       <c r="C699" s="14"/>
@@ -26542,7 +26540,7 @@
       <c r="AB699" s="2"/>
       <c r="AC699" s="2"/>
     </row>
-    <row r="700" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="700" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A700" s="13"/>
       <c r="B700" s="14"/>
       <c r="C700" s="14"/>
@@ -26573,7 +26571,7 @@
       <c r="AB700" s="2"/>
       <c r="AC700" s="2"/>
     </row>
-    <row r="701" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="701" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A701" s="13"/>
       <c r="B701" s="14"/>
       <c r="C701" s="14"/>
@@ -26604,7 +26602,7 @@
       <c r="AB701" s="2"/>
       <c r="AC701" s="2"/>
     </row>
-    <row r="702" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="702" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A702" s="13"/>
       <c r="B702" s="14"/>
       <c r="C702" s="14"/>
@@ -26635,7 +26633,7 @@
       <c r="AB702" s="2"/>
       <c r="AC702" s="2"/>
     </row>
-    <row r="703" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="703" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A703" s="13"/>
       <c r="B703" s="14"/>
       <c r="C703" s="14"/>
@@ -26666,7 +26664,7 @@
       <c r="AB703" s="2"/>
       <c r="AC703" s="2"/>
     </row>
-    <row r="704" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="704" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A704" s="13"/>
       <c r="B704" s="14"/>
       <c r="C704" s="14"/>
@@ -26697,7 +26695,7 @@
       <c r="AB704" s="2"/>
       <c r="AC704" s="2"/>
     </row>
-    <row r="705" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="705" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A705" s="13"/>
       <c r="B705" s="14"/>
       <c r="C705" s="14"/>
@@ -26728,7 +26726,7 @@
       <c r="AB705" s="2"/>
       <c r="AC705" s="2"/>
     </row>
-    <row r="706" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="706" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A706" s="13"/>
       <c r="B706" s="14"/>
       <c r="C706" s="14"/>
@@ -26759,7 +26757,7 @@
       <c r="AB706" s="2"/>
       <c r="AC706" s="2"/>
     </row>
-    <row r="707" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="707" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A707" s="13"/>
       <c r="B707" s="14"/>
       <c r="C707" s="14"/>
@@ -26790,7 +26788,7 @@
       <c r="AB707" s="2"/>
       <c r="AC707" s="2"/>
     </row>
-    <row r="708" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="708" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A708" s="13"/>
       <c r="B708" s="14"/>
       <c r="C708" s="14"/>
@@ -26821,7 +26819,7 @@
       <c r="AB708" s="2"/>
       <c r="AC708" s="2"/>
     </row>
-    <row r="709" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="709" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A709" s="13"/>
       <c r="B709" s="14"/>
       <c r="C709" s="14"/>
@@ -26852,7 +26850,7 @@
       <c r="AB709" s="2"/>
       <c r="AC709" s="2"/>
     </row>
-    <row r="710" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="710" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A710" s="13"/>
       <c r="B710" s="14"/>
       <c r="C710" s="14"/>
@@ -26883,7 +26881,7 @@
       <c r="AB710" s="2"/>
       <c r="AC710" s="2"/>
     </row>
-    <row r="711" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="711" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A711" s="13"/>
       <c r="B711" s="14"/>
       <c r="C711" s="14"/>
@@ -26914,7 +26912,7 @@
       <c r="AB711" s="2"/>
       <c r="AC711" s="2"/>
     </row>
-    <row r="712" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="712" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A712" s="13"/>
       <c r="B712" s="14"/>
       <c r="C712" s="14"/>
@@ -26945,7 +26943,7 @@
       <c r="AB712" s="2"/>
       <c r="AC712" s="2"/>
     </row>
-    <row r="713" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="713" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A713" s="13"/>
       <c r="B713" s="14"/>
       <c r="C713" s="14"/>
@@ -26976,7 +26974,7 @@
       <c r="AB713" s="2"/>
       <c r="AC713" s="2"/>
     </row>
-    <row r="714" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="714" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A714" s="13"/>
       <c r="B714" s="14"/>
       <c r="C714" s="14"/>
@@ -27007,7 +27005,7 @@
       <c r="AB714" s="2"/>
       <c r="AC714" s="2"/>
     </row>
-    <row r="715" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="715" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A715" s="13"/>
       <c r="B715" s="14"/>
       <c r="C715" s="14"/>
@@ -27038,7 +27036,7 @@
       <c r="AB715" s="2"/>
       <c r="AC715" s="2"/>
     </row>
-    <row r="716" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="716" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A716" s="13"/>
       <c r="B716" s="14"/>
       <c r="C716" s="14"/>
@@ -27069,7 +27067,7 @@
       <c r="AB716" s="2"/>
       <c r="AC716" s="2"/>
     </row>
-    <row r="717" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="717" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A717" s="13"/>
       <c r="B717" s="14"/>
       <c r="C717" s="14"/>
@@ -27100,7 +27098,7 @@
       <c r="AB717" s="2"/>
       <c r="AC717" s="2"/>
     </row>
-    <row r="718" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="718" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A718" s="13"/>
       <c r="B718" s="14"/>
       <c r="C718" s="14"/>
@@ -27131,7 +27129,7 @@
       <c r="AB718" s="2"/>
       <c r="AC718" s="2"/>
     </row>
-    <row r="719" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="719" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A719" s="13"/>
       <c r="B719" s="14"/>
       <c r="C719" s="14"/>
@@ -27162,7 +27160,7 @@
       <c r="AB719" s="2"/>
       <c r="AC719" s="2"/>
     </row>
-    <row r="720" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="720" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A720" s="13"/>
       <c r="B720" s="14"/>
       <c r="C720" s="14"/>
@@ -27193,7 +27191,7 @@
       <c r="AB720" s="2"/>
       <c r="AC720" s="2"/>
     </row>
-    <row r="721" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="721" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A721" s="13"/>
       <c r="B721" s="14"/>
       <c r="C721" s="14"/>
@@ -27224,7 +27222,7 @@
       <c r="AB721" s="2"/>
       <c r="AC721" s="2"/>
     </row>
-    <row r="722" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="722" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A722" s="13"/>
       <c r="B722" s="14"/>
       <c r="C722" s="14"/>
@@ -27255,7 +27253,7 @@
       <c r="AB722" s="2"/>
       <c r="AC722" s="2"/>
     </row>
-    <row r="723" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="723" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A723" s="13"/>
       <c r="B723" s="14"/>
       <c r="C723" s="14"/>
@@ -27286,7 +27284,7 @@
       <c r="AB723" s="2"/>
       <c r="AC723" s="2"/>
     </row>
-    <row r="724" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="724" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A724" s="13"/>
       <c r="B724" s="14"/>
       <c r="C724" s="14"/>
@@ -27317,7 +27315,7 @@
       <c r="AB724" s="2"/>
       <c r="AC724" s="2"/>
     </row>
-    <row r="725" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="725" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A725" s="13"/>
       <c r="B725" s="14"/>
       <c r="C725" s="14"/>
@@ -27348,7 +27346,7 @@
       <c r="AB725" s="2"/>
       <c r="AC725" s="2"/>
     </row>
-    <row r="726" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="726" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A726" s="13"/>
       <c r="B726" s="14"/>
       <c r="C726" s="14"/>
@@ -27379,7 +27377,7 @@
       <c r="AB726" s="2"/>
       <c r="AC726" s="2"/>
     </row>
-    <row r="727" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="727" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A727" s="13"/>
       <c r="B727" s="14"/>
       <c r="C727" s="14"/>
@@ -27410,7 +27408,7 @@
       <c r="AB727" s="2"/>
       <c r="AC727" s="2"/>
     </row>
-    <row r="728" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="728" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A728" s="13"/>
       <c r="B728" s="14"/>
       <c r="C728" s="14"/>
@@ -27441,7 +27439,7 @@
       <c r="AB728" s="2"/>
       <c r="AC728" s="2"/>
     </row>
-    <row r="729" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="729" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A729" s="13"/>
       <c r="B729" s="14"/>
       <c r="C729" s="14"/>
@@ -27472,7 +27470,7 @@
       <c r="AB729" s="2"/>
       <c r="AC729" s="2"/>
     </row>
-    <row r="730" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="730" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A730" s="13"/>
       <c r="B730" s="14"/>
       <c r="C730" s="14"/>
@@ -27503,7 +27501,7 @@
       <c r="AB730" s="2"/>
       <c r="AC730" s="2"/>
     </row>
-    <row r="731" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="731" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A731" s="13"/>
       <c r="B731" s="14"/>
       <c r="C731" s="14"/>
@@ -27534,7 +27532,7 @@
       <c r="AB731" s="2"/>
       <c r="AC731" s="2"/>
     </row>
-    <row r="732" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="732" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A732" s="13"/>
       <c r="B732" s="14"/>
       <c r="C732" s="14"/>
@@ -27565,7 +27563,7 @@
       <c r="AB732" s="2"/>
       <c r="AC732" s="2"/>
     </row>
-    <row r="733" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="733" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A733" s="13"/>
       <c r="B733" s="14"/>
       <c r="C733" s="14"/>
@@ -27596,7 +27594,7 @@
       <c r="AB733" s="2"/>
       <c r="AC733" s="2"/>
     </row>
-    <row r="734" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="734" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A734" s="13"/>
       <c r="B734" s="14"/>
       <c r="C734" s="14"/>
@@ -27627,7 +27625,7 @@
       <c r="AB734" s="2"/>
       <c r="AC734" s="2"/>
     </row>
-    <row r="735" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="735" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A735" s="13"/>
       <c r="B735" s="14"/>
       <c r="C735" s="14"/>
@@ -27658,7 +27656,7 @@
       <c r="AB735" s="2"/>
       <c r="AC735" s="2"/>
     </row>
-    <row r="736" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="736" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A736" s="13"/>
       <c r="B736" s="14"/>
       <c r="C736" s="14"/>
@@ -27689,7 +27687,7 @@
       <c r="AB736" s="2"/>
       <c r="AC736" s="2"/>
     </row>
-    <row r="737" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="737" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A737" s="13"/>
       <c r="B737" s="14"/>
       <c r="C737" s="14"/>
@@ -27720,7 +27718,7 @@
       <c r="AB737" s="2"/>
       <c r="AC737" s="2"/>
     </row>
-    <row r="738" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="738" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A738" s="13"/>
       <c r="B738" s="14"/>
       <c r="C738" s="14"/>
@@ -27751,7 +27749,7 @@
       <c r="AB738" s="2"/>
       <c r="AC738" s="2"/>
     </row>
-    <row r="739" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="739" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A739" s="13"/>
       <c r="B739" s="14"/>
       <c r="C739" s="14"/>
@@ -27782,7 +27780,7 @@
       <c r="AB739" s="2"/>
       <c r="AC739" s="2"/>
     </row>
-    <row r="740" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="740" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A740" s="13"/>
       <c r="B740" s="14"/>
       <c r="C740" s="14"/>
@@ -27813,7 +27811,7 @@
       <c r="AB740" s="2"/>
       <c r="AC740" s="2"/>
     </row>
-    <row r="741" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="741" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A741" s="13"/>
       <c r="B741" s="14"/>
       <c r="C741" s="14"/>
@@ -27844,7 +27842,7 @@
       <c r="AB741" s="2"/>
       <c r="AC741" s="2"/>
     </row>
-    <row r="742" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="742" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A742" s="13"/>
       <c r="B742" s="14"/>
       <c r="C742" s="14"/>
@@ -27875,7 +27873,7 @@
       <c r="AB742" s="2"/>
       <c r="AC742" s="2"/>
     </row>
-    <row r="743" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="743" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A743" s="13"/>
       <c r="B743" s="14"/>
       <c r="C743" s="14"/>
@@ -27906,7 +27904,7 @@
       <c r="AB743" s="2"/>
       <c r="AC743" s="2"/>
     </row>
-    <row r="744" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="744" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A744" s="13"/>
       <c r="B744" s="14"/>
       <c r="C744" s="14"/>
@@ -27937,7 +27935,7 @@
       <c r="AB744" s="2"/>
       <c r="AC744" s="2"/>
     </row>
-    <row r="745" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="745" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A745" s="13"/>
       <c r="B745" s="14"/>
       <c r="C745" s="14"/>
@@ -27968,7 +27966,7 @@
       <c r="AB745" s="2"/>
       <c r="AC745" s="2"/>
     </row>
-    <row r="746" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="746" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A746" s="13"/>
       <c r="B746" s="14"/>
       <c r="C746" s="14"/>
@@ -27999,7 +27997,7 @@
       <c r="AB746" s="2"/>
       <c r="AC746" s="2"/>
     </row>
-    <row r="747" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="747" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A747" s="13"/>
       <c r="B747" s="14"/>
       <c r="C747" s="14"/>
@@ -28030,7 +28028,7 @@
       <c r="AB747" s="2"/>
       <c r="AC747" s="2"/>
     </row>
-    <row r="748" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="748" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A748" s="13"/>
       <c r="B748" s="14"/>
       <c r="C748" s="14"/>
@@ -28061,7 +28059,7 @@
       <c r="AB748" s="2"/>
       <c r="AC748" s="2"/>
     </row>
-    <row r="749" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="749" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A749" s="13"/>
       <c r="B749" s="14"/>
       <c r="C749" s="14"/>
@@ -28092,7 +28090,7 @@
       <c r="AB749" s="2"/>
       <c r="AC749" s="2"/>
     </row>
-    <row r="750" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="750" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A750" s="13"/>
       <c r="B750" s="14"/>
       <c r="C750" s="14"/>
@@ -28123,7 +28121,7 @@
       <c r="AB750" s="2"/>
       <c r="AC750" s="2"/>
     </row>
-    <row r="751" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="751" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A751" s="13"/>
       <c r="B751" s="14"/>
       <c r="C751" s="14"/>
@@ -28154,7 +28152,7 @@
       <c r="AB751" s="2"/>
       <c r="AC751" s="2"/>
     </row>
-    <row r="752" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="752" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A752" s="13"/>
       <c r="B752" s="14"/>
       <c r="C752" s="14"/>
@@ -28185,7 +28183,7 @@
       <c r="AB752" s="2"/>
       <c r="AC752" s="2"/>
     </row>
-    <row r="753" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="753" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A753" s="13"/>
       <c r="B753" s="14"/>
       <c r="C753" s="14"/>
@@ -28216,7 +28214,7 @@
       <c r="AB753" s="2"/>
       <c r="AC753" s="2"/>
     </row>
-    <row r="754" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="754" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A754" s="13"/>
       <c r="B754" s="14"/>
       <c r="C754" s="14"/>
@@ -28247,7 +28245,7 @@
       <c r="AB754" s="2"/>
       <c r="AC754" s="2"/>
     </row>
-    <row r="755" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="755" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A755" s="13"/>
       <c r="B755" s="14"/>
       <c r="C755" s="14"/>
@@ -28278,7 +28276,7 @@
       <c r="AB755" s="2"/>
       <c r="AC755" s="2"/>
     </row>
-    <row r="756" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="756" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A756" s="13"/>
       <c r="B756" s="14"/>
       <c r="C756" s="14"/>
@@ -28309,7 +28307,7 @@
       <c r="AB756" s="2"/>
       <c r="AC756" s="2"/>
     </row>
-    <row r="757" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="757" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A757" s="13"/>
       <c r="B757" s="14"/>
       <c r="C757" s="14"/>
@@ -28340,7 +28338,7 @@
       <c r="AB757" s="2"/>
       <c r="AC757" s="2"/>
     </row>
-    <row r="758" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="758" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A758" s="13"/>
       <c r="B758" s="14"/>
       <c r="C758" s="14"/>
@@ -28371,7 +28369,7 @@
       <c r="AB758" s="2"/>
       <c r="AC758" s="2"/>
     </row>
-    <row r="759" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="759" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A759" s="13"/>
       <c r="B759" s="14"/>
       <c r="C759" s="14"/>
@@ -28402,7 +28400,7 @@
       <c r="AB759" s="2"/>
       <c r="AC759" s="2"/>
     </row>
-    <row r="760" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="760" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A760" s="13"/>
       <c r="B760" s="14"/>
       <c r="C760" s="14"/>
@@ -28433,7 +28431,7 @@
       <c r="AB760" s="2"/>
       <c r="AC760" s="2"/>
     </row>
-    <row r="761" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="761" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A761" s="13"/>
       <c r="B761" s="14"/>
       <c r="C761" s="14"/>
@@ -28464,7 +28462,7 @@
       <c r="AB761" s="2"/>
       <c r="AC761" s="2"/>
     </row>
-    <row r="762" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="762" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A762" s="13"/>
       <c r="B762" s="14"/>
       <c r="C762" s="14"/>
@@ -28495,7 +28493,7 @@
       <c r="AB762" s="2"/>
       <c r="AC762" s="2"/>
     </row>
-    <row r="763" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="763" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A763" s="13"/>
       <c r="B763" s="14"/>
       <c r="C763" s="14"/>
@@ -28526,7 +28524,7 @@
       <c r="AB763" s="2"/>
       <c r="AC763" s="2"/>
     </row>
-    <row r="764" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="764" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A764" s="13"/>
       <c r="B764" s="14"/>
       <c r="C764" s="14"/>
@@ -28557,7 +28555,7 @@
       <c r="AB764" s="2"/>
       <c r="AC764" s="2"/>
     </row>
-    <row r="765" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="765" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A765" s="13"/>
       <c r="B765" s="14"/>
       <c r="C765" s="14"/>
@@ -28588,7 +28586,7 @@
       <c r="AB765" s="2"/>
       <c r="AC765" s="2"/>
     </row>
-    <row r="766" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="766" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A766" s="13"/>
       <c r="B766" s="14"/>
       <c r="C766" s="14"/>
@@ -28619,7 +28617,7 @@
       <c r="AB766" s="2"/>
       <c r="AC766" s="2"/>
     </row>
-    <row r="767" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="767" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A767" s="13"/>
       <c r="B767" s="14"/>
       <c r="C767" s="14"/>
@@ -28650,7 +28648,7 @@
       <c r="AB767" s="2"/>
       <c r="AC767" s="2"/>
     </row>
-    <row r="768" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="768" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A768" s="13"/>
       <c r="B768" s="14"/>
       <c r="C768" s="14"/>
@@ -28681,7 +28679,7 @@
       <c r="AB768" s="2"/>
       <c r="AC768" s="2"/>
     </row>
-    <row r="769" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="769" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A769" s="13"/>
       <c r="B769" s="14"/>
       <c r="C769" s="14"/>
@@ -28712,7 +28710,7 @@
       <c r="AB769" s="2"/>
       <c r="AC769" s="2"/>
     </row>
-    <row r="770" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="770" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A770" s="13"/>
       <c r="B770" s="14"/>
       <c r="C770" s="14"/>
@@ -28743,7 +28741,7 @@
       <c r="AB770" s="2"/>
       <c r="AC770" s="2"/>
     </row>
-    <row r="771" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="771" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A771" s="13"/>
       <c r="B771" s="14"/>
       <c r="C771" s="14"/>
@@ -28774,7 +28772,7 @@
       <c r="AB771" s="2"/>
       <c r="AC771" s="2"/>
     </row>
-    <row r="772" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="772" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A772" s="13"/>
       <c r="B772" s="14"/>
       <c r="C772" s="14"/>
@@ -28805,7 +28803,7 @@
       <c r="AB772" s="2"/>
       <c r="AC772" s="2"/>
     </row>
-    <row r="773" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="773" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A773" s="13"/>
       <c r="B773" s="14"/>
       <c r="C773" s="14"/>
@@ -28836,7 +28834,7 @@
       <c r="AB773" s="2"/>
       <c r="AC773" s="2"/>
     </row>
-    <row r="774" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="774" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A774" s="13"/>
       <c r="B774" s="14"/>
       <c r="C774" s="14"/>
@@ -28867,7 +28865,7 @@
       <c r="AB774" s="2"/>
       <c r="AC774" s="2"/>
     </row>
-    <row r="775" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="775" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A775" s="13"/>
       <c r="B775" s="14"/>
       <c r="C775" s="14"/>
@@ -28898,7 +28896,7 @@
       <c r="AB775" s="2"/>
       <c r="AC775" s="2"/>
     </row>
-    <row r="776" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="776" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A776" s="13"/>
       <c r="B776" s="14"/>
       <c r="C776" s="14"/>
@@ -28929,7 +28927,7 @@
       <c r="AB776" s="2"/>
       <c r="AC776" s="2"/>
     </row>
-    <row r="777" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="777" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A777" s="13"/>
       <c r="B777" s="14"/>
       <c r="C777" s="14"/>
@@ -28960,7 +28958,7 @@
       <c r="AB777" s="2"/>
       <c r="AC777" s="2"/>
     </row>
-    <row r="778" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="778" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A778" s="13"/>
       <c r="B778" s="14"/>
       <c r="C778" s="14"/>
@@ -28991,7 +28989,7 @@
       <c r="AB778" s="2"/>
       <c r="AC778" s="2"/>
     </row>
-    <row r="779" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="779" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A779" s="13"/>
       <c r="B779" s="14"/>
       <c r="C779" s="14"/>
@@ -29022,7 +29020,7 @@
       <c r="AB779" s="2"/>
       <c r="AC779" s="2"/>
     </row>
-    <row r="780" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="780" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A780" s="13"/>
       <c r="B780" s="14"/>
       <c r="C780" s="14"/>
@@ -29053,7 +29051,7 @@
       <c r="AB780" s="2"/>
       <c r="AC780" s="2"/>
     </row>
-    <row r="781" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="781" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A781" s="13"/>
       <c r="B781" s="14"/>
       <c r="C781" s="14"/>
@@ -29084,7 +29082,7 @@
       <c r="AB781" s="2"/>
       <c r="AC781" s="2"/>
     </row>
-    <row r="782" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="782" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A782" s="13"/>
       <c r="B782" s="14"/>
       <c r="C782" s="14"/>
@@ -29115,7 +29113,7 @@
       <c r="AB782" s="2"/>
       <c r="AC782" s="2"/>
     </row>
-    <row r="783" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="783" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A783" s="13"/>
       <c r="B783" s="14"/>
       <c r="C783" s="14"/>
@@ -29146,7 +29144,7 @@
       <c r="AB783" s="2"/>
       <c r="AC783" s="2"/>
     </row>
-    <row r="784" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="784" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A784" s="13"/>
       <c r="B784" s="14"/>
       <c r="C784" s="14"/>
@@ -29177,7 +29175,7 @@
       <c r="AB784" s="2"/>
       <c r="AC784" s="2"/>
     </row>
-    <row r="785" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="785" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A785" s="13"/>
       <c r="B785" s="14"/>
       <c r="C785" s="14"/>
@@ -29208,7 +29206,7 @@
       <c r="AB785" s="2"/>
       <c r="AC785" s="2"/>
     </row>
-    <row r="786" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="786" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A786" s="13"/>
       <c r="B786" s="14"/>
       <c r="C786" s="14"/>
@@ -29239,7 +29237,7 @@
       <c r="AB786" s="2"/>
       <c r="AC786" s="2"/>
     </row>
-    <row r="787" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="787" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A787" s="13"/>
       <c r="B787" s="14"/>
       <c r="C787" s="14"/>
@@ -29270,7 +29268,7 @@
       <c r="AB787" s="2"/>
       <c r="AC787" s="2"/>
     </row>
-    <row r="788" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="788" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A788" s="13"/>
       <c r="B788" s="14"/>
       <c r="C788" s="14"/>
@@ -29301,7 +29299,7 @@
       <c r="AB788" s="2"/>
       <c r="AC788" s="2"/>
     </row>
-    <row r="789" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="789" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A789" s="13"/>
       <c r="B789" s="14"/>
       <c r="C789" s="14"/>
@@ -29332,7 +29330,7 @@
       <c r="AB789" s="2"/>
       <c r="AC789" s="2"/>
     </row>
-    <row r="790" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="790" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A790" s="13"/>
       <c r="B790" s="14"/>
       <c r="C790" s="14"/>
@@ -29363,7 +29361,7 @@
       <c r="AB790" s="2"/>
       <c r="AC790" s="2"/>
     </row>
-    <row r="791" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="791" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A791" s="13"/>
       <c r="B791" s="14"/>
       <c r="C791" s="14"/>
@@ -29394,7 +29392,7 @@
       <c r="AB791" s="2"/>
       <c r="AC791" s="2"/>
     </row>
-    <row r="792" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="792" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A792" s="13"/>
       <c r="B792" s="14"/>
       <c r="C792" s="14"/>
@@ -29425,7 +29423,7 @@
       <c r="AB792" s="2"/>
       <c r="AC792" s="2"/>
     </row>
-    <row r="793" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="793" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A793" s="13"/>
       <c r="B793" s="14"/>
       <c r="C793" s="14"/>
@@ -29456,7 +29454,7 @@
       <c r="AB793" s="2"/>
       <c r="AC793" s="2"/>
     </row>
-    <row r="794" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="794" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A794" s="13"/>
       <c r="B794" s="14"/>
       <c r="C794" s="14"/>
@@ -29487,7 +29485,7 @@
       <c r="AB794" s="2"/>
       <c r="AC794" s="2"/>
     </row>
-    <row r="795" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="795" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A795" s="13"/>
       <c r="B795" s="14"/>
       <c r="C795" s="14"/>
@@ -29518,7 +29516,7 @@
       <c r="AB795" s="2"/>
       <c r="AC795" s="2"/>
     </row>
-    <row r="796" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="796" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A796" s="13"/>
       <c r="B796" s="14"/>
       <c r="C796" s="14"/>
@@ -29549,7 +29547,7 @@
       <c r="AB796" s="2"/>
       <c r="AC796" s="2"/>
     </row>
-    <row r="797" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="797" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A797" s="13"/>
       <c r="B797" s="14"/>
       <c r="C797" s="14"/>
@@ -29580,7 +29578,7 @@
       <c r="AB797" s="2"/>
       <c r="AC797" s="2"/>
     </row>
-    <row r="798" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="798" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A798" s="13"/>
       <c r="B798" s="14"/>
       <c r="C798" s="14"/>
@@ -29611,7 +29609,7 @@
       <c r="AB798" s="2"/>
       <c r="AC798" s="2"/>
     </row>
-    <row r="799" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="799" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A799" s="13"/>
       <c r="B799" s="14"/>
       <c r="C799" s="14"/>
@@ -29642,7 +29640,7 @@
       <c r="AB799" s="2"/>
       <c r="AC799" s="2"/>
     </row>
-    <row r="800" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="800" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A800" s="13"/>
       <c r="B800" s="14"/>
       <c r="C800" s="14"/>
@@ -29673,7 +29671,7 @@
       <c r="AB800" s="2"/>
       <c r="AC800" s="2"/>
     </row>
-    <row r="801" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="801" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A801" s="13"/>
       <c r="B801" s="14"/>
       <c r="C801" s="14"/>
@@ -29704,7 +29702,7 @@
       <c r="AB801" s="2"/>
       <c r="AC801" s="2"/>
     </row>
-    <row r="802" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="802" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A802" s="13"/>
       <c r="B802" s="14"/>
       <c r="C802" s="14"/>
@@ -29735,7 +29733,7 @@
       <c r="AB802" s="2"/>
       <c r="AC802" s="2"/>
     </row>
-    <row r="803" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="803" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A803" s="13"/>
       <c r="B803" s="14"/>
       <c r="C803" s="14"/>
@@ -29766,7 +29764,7 @@
       <c r="AB803" s="2"/>
       <c r="AC803" s="2"/>
     </row>
-    <row r="804" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="804" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A804" s="13"/>
       <c r="B804" s="14"/>
       <c r="C804" s="14"/>
@@ -29797,7 +29795,7 @@
       <c r="AB804" s="2"/>
       <c r="AC804" s="2"/>
     </row>
-    <row r="805" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="805" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A805" s="13"/>
       <c r="B805" s="14"/>
       <c r="C805" s="14"/>
@@ -29828,7 +29826,7 @@
       <c r="AB805" s="2"/>
       <c r="AC805" s="2"/>
     </row>
-    <row r="806" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="806" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A806" s="13"/>
       <c r="B806" s="14"/>
       <c r="C806" s="14"/>
@@ -29859,7 +29857,7 @@
       <c r="AB806" s="2"/>
       <c r="AC806" s="2"/>
     </row>
-    <row r="807" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="807" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A807" s="13"/>
       <c r="B807" s="14"/>
       <c r="C807" s="14"/>
@@ -29890,7 +29888,7 @@
       <c r="AB807" s="2"/>
       <c r="AC807" s="2"/>
     </row>
-    <row r="808" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="808" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A808" s="13"/>
       <c r="B808" s="14"/>
       <c r="C808" s="14"/>
@@ -29921,7 +29919,7 @@
       <c r="AB808" s="2"/>
       <c r="AC808" s="2"/>
     </row>
-    <row r="809" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="809" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A809" s="13"/>
       <c r="B809" s="14"/>
       <c r="C809" s="14"/>
@@ -29952,7 +29950,7 @@
       <c r="AB809" s="2"/>
       <c r="AC809" s="2"/>
     </row>
-    <row r="810" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="810" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A810" s="13"/>
       <c r="B810" s="14"/>
       <c r="C810" s="14"/>
@@ -29983,7 +29981,7 @@
       <c r="AB810" s="2"/>
       <c r="AC810" s="2"/>
     </row>
-    <row r="811" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="811" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A811" s="13"/>
       <c r="B811" s="14"/>
       <c r="C811" s="14"/>
@@ -30014,7 +30012,7 @@
       <c r="AB811" s="2"/>
       <c r="AC811" s="2"/>
     </row>
-    <row r="812" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="812" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A812" s="13"/>
       <c r="B812" s="14"/>
       <c r="C812" s="14"/>
@@ -30045,7 +30043,7 @@
       <c r="AB812" s="2"/>
       <c r="AC812" s="2"/>
     </row>
-    <row r="813" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="813" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A813" s="13"/>
       <c r="B813" s="14"/>
       <c r="C813" s="14"/>
@@ -30076,7 +30074,7 @@
       <c r="AB813" s="2"/>
       <c r="AC813" s="2"/>
     </row>
-    <row r="814" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="814" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A814" s="13"/>
       <c r="B814" s="14"/>
       <c r="C814" s="14"/>
@@ -30107,7 +30105,7 @@
       <c r="AB814" s="2"/>
       <c r="AC814" s="2"/>
     </row>
-    <row r="815" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="815" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A815" s="13"/>
       <c r="B815" s="14"/>
       <c r="C815" s="14"/>
@@ -30138,7 +30136,7 @@
       <c r="AB815" s="2"/>
       <c r="AC815" s="2"/>
     </row>
-    <row r="816" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="816" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A816" s="13"/>
       <c r="B816" s="14"/>
       <c r="C816" s="14"/>
@@ -30169,7 +30167,7 @@
       <c r="AB816" s="2"/>
       <c r="AC816" s="2"/>
     </row>
-    <row r="817" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="817" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A817" s="13"/>
       <c r="B817" s="14"/>
       <c r="C817" s="14"/>
@@ -30200,7 +30198,7 @@
       <c r="AB817" s="2"/>
       <c r="AC817" s="2"/>
     </row>
-    <row r="818" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="818" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A818" s="13"/>
       <c r="B818" s="14"/>
       <c r="C818" s="14"/>
@@ -30231,7 +30229,7 @@
       <c r="AB818" s="2"/>
       <c r="AC818" s="2"/>
     </row>
-    <row r="819" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="819" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A819" s="13"/>
       <c r="B819" s="14"/>
       <c r="C819" s="14"/>
@@ -30262,7 +30260,7 @@
       <c r="AB819" s="2"/>
       <c r="AC819" s="2"/>
     </row>
-    <row r="820" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="820" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A820" s="13"/>
       <c r="B820" s="14"/>
       <c r="C820" s="14"/>
@@ -30293,7 +30291,7 @@
       <c r="AB820" s="2"/>
       <c r="AC820" s="2"/>
     </row>
-    <row r="821" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="821" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A821" s="13"/>
       <c r="B821" s="14"/>
       <c r="C821" s="14"/>
@@ -30324,7 +30322,7 @@
       <c r="AB821" s="2"/>
       <c r="AC821" s="2"/>
     </row>
-    <row r="822" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="822" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A822" s="13"/>
       <c r="B822" s="14"/>
       <c r="C822" s="14"/>
@@ -30355,7 +30353,7 @@
       <c r="AB822" s="2"/>
       <c r="AC822" s="2"/>
     </row>
-    <row r="823" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="823" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A823" s="13"/>
       <c r="B823" s="14"/>
       <c r="C823" s="14"/>
@@ -30386,7 +30384,7 @@
       <c r="AB823" s="2"/>
       <c r="AC823" s="2"/>
     </row>
-    <row r="824" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="824" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A824" s="13"/>
       <c r="B824" s="14"/>
       <c r="C824" s="14"/>
@@ -30417,7 +30415,7 @@
       <c r="AB824" s="2"/>
       <c r="AC824" s="2"/>
     </row>
-    <row r="825" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="825" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A825" s="13"/>
       <c r="B825" s="14"/>
       <c r="C825" s="14"/>
@@ -30448,7 +30446,7 @@
       <c r="AB825" s="2"/>
       <c r="AC825" s="2"/>
     </row>
-    <row r="826" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="826" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A826" s="13"/>
       <c r="B826" s="14"/>
       <c r="C826" s="14"/>
@@ -30479,7 +30477,7 @@
       <c r="AB826" s="2"/>
       <c r="AC826" s="2"/>
     </row>
-    <row r="827" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="827" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A827" s="13"/>
       <c r="B827" s="14"/>
       <c r="C827" s="14"/>
@@ -30510,7 +30508,7 @@
       <c r="AB827" s="2"/>
       <c r="AC827" s="2"/>
     </row>
-    <row r="828" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="828" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A828" s="13"/>
       <c r="B828" s="14"/>
       <c r="C828" s="14"/>
@@ -30541,7 +30539,7 @@
       <c r="AB828" s="2"/>
       <c r="AC828" s="2"/>
     </row>
-    <row r="829" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="829" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A829" s="13"/>
       <c r="B829" s="14"/>
       <c r="C829" s="14"/>
@@ -30572,7 +30570,7 @@
       <c r="AB829" s="2"/>
       <c r="AC829" s="2"/>
     </row>
-    <row r="830" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="830" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A830" s="13"/>
       <c r="B830" s="14"/>
       <c r="C830" s="14"/>
@@ -30603,7 +30601,7 @@
       <c r="AB830" s="2"/>
       <c r="AC830" s="2"/>
     </row>
-    <row r="831" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="831" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A831" s="13"/>
       <c r="B831" s="14"/>
       <c r="C831" s="14"/>
@@ -30634,7 +30632,7 @@
       <c r="AB831" s="2"/>
       <c r="AC831" s="2"/>
     </row>
-    <row r="832" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="832" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A832" s="13"/>
       <c r="B832" s="14"/>
       <c r="C832" s="14"/>
@@ -30665,7 +30663,7 @@
       <c r="AB832" s="2"/>
       <c r="AC832" s="2"/>
     </row>
-    <row r="833" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="833" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A833" s="13"/>
       <c r="B833" s="14"/>
       <c r="C833" s="14"/>
@@ -30696,7 +30694,7 @@
       <c r="AB833" s="2"/>
       <c r="AC833" s="2"/>
     </row>
-    <row r="834" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="834" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A834" s="13"/>
       <c r="B834" s="14"/>
       <c r="C834" s="14"/>
@@ -30727,7 +30725,7 @@
       <c r="AB834" s="2"/>
       <c r="AC834" s="2"/>
     </row>
-    <row r="835" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="835" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A835" s="13"/>
       <c r="B835" s="14"/>
       <c r="C835" s="14"/>
@@ -30758,7 +30756,7 @@
       <c r="AB835" s="2"/>
       <c r="AC835" s="2"/>
     </row>
-    <row r="836" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="836" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A836" s="13"/>
       <c r="B836" s="14"/>
       <c r="C836" s="14"/>
@@ -30789,7 +30787,7 @@
       <c r="AB836" s="2"/>
       <c r="AC836" s="2"/>
     </row>
-    <row r="837" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="837" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A837" s="13"/>
       <c r="B837" s="14"/>
       <c r="C837" s="14"/>
@@ -30820,7 +30818,7 @@
       <c r="AB837" s="2"/>
       <c r="AC837" s="2"/>
     </row>
-    <row r="838" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="838" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A838" s="13"/>
       <c r="B838" s="14"/>
       <c r="C838" s="14"/>
@@ -30851,7 +30849,7 @@
       <c r="AB838" s="2"/>
       <c r="AC838" s="2"/>
     </row>
-    <row r="839" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="839" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A839" s="13"/>
       <c r="B839" s="14"/>
       <c r="C839" s="14"/>
@@ -30882,7 +30880,7 @@
       <c r="AB839" s="2"/>
       <c r="AC839" s="2"/>
     </row>
-    <row r="840" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="840" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A840" s="13"/>
       <c r="B840" s="14"/>
       <c r="C840" s="14"/>
@@ -30913,7 +30911,7 @@
       <c r="AB840" s="2"/>
       <c r="AC840" s="2"/>
     </row>
-    <row r="841" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="841" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A841" s="13"/>
       <c r="B841" s="14"/>
       <c r="C841" s="14"/>
@@ -30944,7 +30942,7 @@
       <c r="AB841" s="2"/>
       <c r="AC841" s="2"/>
     </row>
-    <row r="842" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="842" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A842" s="13"/>
       <c r="B842" s="14"/>
       <c r="C842" s="14"/>
@@ -30975,7 +30973,7 @@
       <c r="AB842" s="2"/>
       <c r="AC842" s="2"/>
     </row>
-    <row r="843" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="843" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A843" s="13"/>
       <c r="B843" s="14"/>
       <c r="C843" s="14"/>
@@ -31006,7 +31004,7 @@
       <c r="AB843" s="2"/>
       <c r="AC843" s="2"/>
     </row>
-    <row r="844" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="844" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A844" s="13"/>
       <c r="B844" s="14"/>
       <c r="C844" s="14"/>
@@ -31037,7 +31035,7 @@
       <c r="AB844" s="2"/>
       <c r="AC844" s="2"/>
     </row>
-    <row r="845" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="845" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A845" s="13"/>
       <c r="B845" s="14"/>
       <c r="C845" s="14"/>
@@ -31068,7 +31066,7 @@
       <c r="AB845" s="2"/>
       <c r="AC845" s="2"/>
     </row>
-    <row r="846" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="846" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A846" s="13"/>
       <c r="B846" s="14"/>
       <c r="C846" s="14"/>
@@ -31099,7 +31097,7 @@
       <c r="AB846" s="2"/>
       <c r="AC846" s="2"/>
     </row>
-    <row r="847" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="847" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A847" s="13"/>
       <c r="B847" s="14"/>
       <c r="C847" s="14"/>
@@ -31130,7 +31128,7 @@
       <c r="AB847" s="2"/>
       <c r="AC847" s="2"/>
     </row>
-    <row r="848" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="848" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A848" s="13"/>
       <c r="B848" s="14"/>
       <c r="C848" s="14"/>
@@ -31161,7 +31159,7 @@
       <c r="AB848" s="2"/>
       <c r="AC848" s="2"/>
     </row>
-    <row r="849" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="849" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A849" s="13"/>
       <c r="B849" s="14"/>
       <c r="C849" s="14"/>
@@ -31192,7 +31190,7 @@
       <c r="AB849" s="2"/>
       <c r="AC849" s="2"/>
     </row>
-    <row r="850" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="850" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A850" s="13"/>
       <c r="B850" s="14"/>
       <c r="C850" s="14"/>
@@ -31223,7 +31221,7 @@
       <c r="AB850" s="2"/>
       <c r="AC850" s="2"/>
     </row>
-    <row r="851" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="851" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A851" s="13"/>
       <c r="B851" s="14"/>
       <c r="C851" s="14"/>
@@ -31254,7 +31252,7 @@
       <c r="AB851" s="2"/>
       <c r="AC851" s="2"/>
     </row>
-    <row r="852" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="852" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A852" s="13"/>
       <c r="B852" s="14"/>
       <c r="C852" s="14"/>
@@ -31285,7 +31283,7 @@
       <c r="AB852" s="2"/>
       <c r="AC852" s="2"/>
     </row>
-    <row r="853" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="853" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A853" s="13"/>
       <c r="B853" s="14"/>
       <c r="C853" s="14"/>
@@ -31316,7 +31314,7 @@
       <c r="AB853" s="2"/>
       <c r="AC853" s="2"/>
     </row>
-    <row r="854" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="854" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A854" s="13"/>
       <c r="B854" s="14"/>
       <c r="C854" s="14"/>
@@ -31347,7 +31345,7 @@
       <c r="AB854" s="2"/>
       <c r="AC854" s="2"/>
     </row>
-    <row r="855" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="855" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A855" s="13"/>
       <c r="B855" s="14"/>
       <c r="C855" s="14"/>
@@ -31378,7 +31376,7 @@
       <c r="AB855" s="2"/>
       <c r="AC855" s="2"/>
     </row>
-    <row r="856" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="856" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A856" s="13"/>
       <c r="B856" s="14"/>
       <c r="C856" s="14"/>
@@ -31409,7 +31407,7 @@
       <c r="AB856" s="2"/>
       <c r="AC856" s="2"/>
     </row>
-    <row r="857" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="857" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A857" s="13"/>
       <c r="B857" s="14"/>
       <c r="C857" s="14"/>
@@ -31440,7 +31438,7 @@
       <c r="AB857" s="2"/>
       <c r="AC857" s="2"/>
     </row>
-    <row r="858" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="858" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A858" s="13"/>
       <c r="B858" s="14"/>
       <c r="C858" s="14"/>
@@ -31471,7 +31469,7 @@
       <c r="AB858" s="2"/>
       <c r="AC858" s="2"/>
     </row>
-    <row r="859" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="859" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A859" s="13"/>
       <c r="B859" s="14"/>
       <c r="C859" s="14"/>
@@ -31502,7 +31500,7 @@
       <c r="AB859" s="2"/>
       <c r="AC859" s="2"/>
     </row>
-    <row r="860" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="860" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A860" s="13"/>
       <c r="B860" s="14"/>
       <c r="C860" s="14"/>
@@ -31533,7 +31531,7 @@
       <c r="AB860" s="2"/>
       <c r="AC860" s="2"/>
     </row>
-    <row r="861" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="861" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A861" s="13"/>
       <c r="B861" s="14"/>
       <c r="C861" s="14"/>
@@ -31564,7 +31562,7 @@
       <c r="AB861" s="2"/>
       <c r="AC861" s="2"/>
     </row>
-    <row r="862" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="862" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A862" s="13"/>
       <c r="B862" s="14"/>
       <c r="C862" s="14"/>
@@ -31595,7 +31593,7 @@
       <c r="AB862" s="2"/>
       <c r="AC862" s="2"/>
     </row>
-    <row r="863" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="863" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A863" s="13"/>
       <c r="B863" s="14"/>
       <c r="C863" s="14"/>
@@ -31626,7 +31624,7 @@
       <c r="AB863" s="2"/>
       <c r="AC863" s="2"/>
     </row>
-    <row r="864" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="864" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A864" s="13"/>
       <c r="B864" s="14"/>
       <c r="C864" s="14"/>
@@ -31657,7 +31655,7 @@
       <c r="AB864" s="2"/>
       <c r="AC864" s="2"/>
     </row>
-    <row r="865" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="865" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A865" s="13"/>
       <c r="B865" s="14"/>
       <c r="C865" s="14"/>
@@ -31688,7 +31686,7 @@
       <c r="AB865" s="2"/>
       <c r="AC865" s="2"/>
     </row>
-    <row r="866" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="866" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A866" s="13"/>
       <c r="B866" s="14"/>
       <c r="C866" s="14"/>
@@ -31719,7 +31717,7 @@
       <c r="AB866" s="2"/>
       <c r="AC866" s="2"/>
     </row>
-    <row r="867" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="867" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A867" s="13"/>
       <c r="B867" s="14"/>
       <c r="C867" s="14"/>
@@ -31750,7 +31748,7 @@
       <c r="AB867" s="2"/>
       <c r="AC867" s="2"/>
     </row>
-    <row r="868" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="868" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A868" s="13"/>
       <c r="B868" s="14"/>
       <c r="C868" s="14"/>
@@ -31781,7 +31779,7 @@
       <c r="AB868" s="2"/>
       <c r="AC868" s="2"/>
     </row>
-    <row r="869" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="869" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A869" s="13"/>
       <c r="B869" s="14"/>
       <c r="C869" s="14"/>
@@ -31812,7 +31810,7 @@
       <c r="AB869" s="2"/>
       <c r="AC869" s="2"/>
     </row>
-    <row r="870" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="870" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A870" s="13"/>
       <c r="B870" s="14"/>
       <c r="C870" s="14"/>
@@ -31843,7 +31841,7 @@
       <c r="AB870" s="2"/>
       <c r="AC870" s="2"/>
     </row>
-    <row r="871" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="871" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A871" s="13"/>
       <c r="B871" s="14"/>
       <c r="C871" s="14"/>
@@ -31874,7 +31872,7 @@
       <c r="AB871" s="2"/>
       <c r="AC871" s="2"/>
     </row>
-    <row r="872" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="872" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A872" s="13"/>
       <c r="B872" s="14"/>
       <c r="C872" s="14"/>
@@ -31905,7 +31903,7 @@
       <c r="AB872" s="2"/>
       <c r="AC872" s="2"/>
     </row>
-    <row r="873" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="873" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A873" s="13"/>
       <c r="B873" s="14"/>
       <c r="C873" s="14"/>
@@ -31936,7 +31934,7 @@
       <c r="AB873" s="2"/>
       <c r="AC873" s="2"/>
     </row>
-    <row r="874" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="874" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A874" s="13"/>
       <c r="B874" s="14"/>
       <c r="C874" s="14"/>
@@ -31967,7 +31965,7 @@
       <c r="AB874" s="2"/>
       <c r="AC874" s="2"/>
     </row>
-    <row r="875" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="875" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A875" s="13"/>
       <c r="B875" s="14"/>
       <c r="C875" s="14"/>
@@ -31998,7 +31996,7 @@
       <c r="AB875" s="2"/>
       <c r="AC875" s="2"/>
     </row>
-    <row r="876" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="876" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A876" s="13"/>
       <c r="B876" s="14"/>
       <c r="C876" s="14"/>
@@ -32029,7 +32027,7 @@
       <c r="AB876" s="2"/>
       <c r="AC876" s="2"/>
     </row>
-    <row r="877" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="877" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A877" s="13"/>
       <c r="B877" s="14"/>
       <c r="C877" s="14"/>
@@ -32060,7 +32058,7 @@
       <c r="AB877" s="2"/>
       <c r="AC877" s="2"/>
     </row>
-    <row r="878" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="878" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A878" s="13"/>
       <c r="B878" s="14"/>
       <c r="C878" s="14"/>
@@ -32091,7 +32089,7 @@
       <c r="AB878" s="2"/>
       <c r="AC878" s="2"/>
     </row>
-    <row r="879" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="879" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A879" s="13"/>
       <c r="B879" s="14"/>
       <c r="C879" s="14"/>
@@ -32122,7 +32120,7 @@
       <c r="AB879" s="2"/>
       <c r="AC879" s="2"/>
     </row>
-    <row r="880" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="880" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A880" s="13"/>
       <c r="B880" s="14"/>
       <c r="C880" s="14"/>
@@ -32153,7 +32151,7 @@
       <c r="AB880" s="2"/>
       <c r="AC880" s="2"/>
     </row>
-    <row r="881" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="881" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A881" s="13"/>
       <c r="B881" s="14"/>
       <c r="C881" s="14"/>
@@ -32184,7 +32182,7 @@
       <c r="AB881" s="2"/>
       <c r="AC881" s="2"/>
     </row>
-    <row r="882" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="882" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A882" s="13"/>
       <c r="B882" s="14"/>
       <c r="C882" s="14"/>
@@ -32215,7 +32213,7 @@
       <c r="AB882" s="2"/>
       <c r="AC882" s="2"/>
     </row>
-    <row r="883" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="883" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A883" s="13"/>
       <c r="B883" s="14"/>
       <c r="C883" s="14"/>
@@ -32246,7 +32244,7 @@
       <c r="AB883" s="2"/>
       <c r="AC883" s="2"/>
     </row>
-    <row r="884" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="884" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A884" s="13"/>
       <c r="B884" s="14"/>
       <c r="C884" s="14"/>
@@ -32277,7 +32275,7 @@
       <c r="AB884" s="2"/>
       <c r="AC884" s="2"/>
     </row>
-    <row r="885" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="885" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A885" s="13"/>
       <c r="B885" s="14"/>
       <c r="C885" s="14"/>
@@ -32308,7 +32306,7 @@
       <c r="AB885" s="2"/>
       <c r="AC885" s="2"/>
     </row>
-    <row r="886" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="886" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A886" s="13"/>
       <c r="B886" s="14"/>
       <c r="C886" s="14"/>
@@ -32339,7 +32337,7 @@
       <c r="AB886" s="2"/>
       <c r="AC886" s="2"/>
     </row>
-    <row r="887" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="887" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A887" s="13"/>
       <c r="B887" s="14"/>
       <c r="C887" s="14"/>
@@ -32370,7 +32368,7 @@
       <c r="AB887" s="2"/>
       <c r="AC887" s="2"/>
     </row>
-    <row r="888" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="888" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A888" s="13"/>
       <c r="B888" s="14"/>
       <c r="C888" s="14"/>
@@ -32401,7 +32399,7 @@
       <c r="AB888" s="2"/>
       <c r="AC888" s="2"/>
     </row>
-    <row r="889" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="889" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A889" s="13"/>
       <c r="B889" s="14"/>
       <c r="C889" s="14"/>
@@ -32432,7 +32430,7 @@
       <c r="AB889" s="2"/>
       <c r="AC889" s="2"/>
     </row>
-    <row r="890" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="890" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A890" s="13"/>
       <c r="B890" s="14"/>
       <c r="C890" s="14"/>
@@ -32463,7 +32461,7 @@
       <c r="AB890" s="2"/>
       <c r="AC890" s="2"/>
     </row>
-    <row r="891" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="891" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A891" s="13"/>
       <c r="B891" s="14"/>
       <c r="C891" s="14"/>
@@ -32494,7 +32492,7 @@
       <c r="AB891" s="2"/>
       <c r="AC891" s="2"/>
     </row>
-    <row r="892" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="892" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A892" s="13"/>
       <c r="B892" s="14"/>
       <c r="C892" s="14"/>
@@ -32525,7 +32523,7 @@
       <c r="AB892" s="2"/>
       <c r="AC892" s="2"/>
     </row>
-    <row r="893" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="893" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A893" s="13"/>
       <c r="B893" s="14"/>
       <c r="C893" s="14"/>
@@ -32556,7 +32554,7 @@
       <c r="AB893" s="2"/>
       <c r="AC893" s="2"/>
     </row>
-    <row r="894" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="894" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A894" s="13"/>
       <c r="B894" s="14"/>
       <c r="C894" s="14"/>
@@ -32587,7 +32585,7 @@
       <c r="AB894" s="2"/>
       <c r="AC894" s="2"/>
     </row>
-    <row r="895" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="895" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A895" s="13"/>
       <c r="B895" s="14"/>
       <c r="C895" s="14"/>
@@ -32618,7 +32616,7 @@
       <c r="AB895" s="2"/>
       <c r="AC895" s="2"/>
     </row>
-    <row r="896" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="896" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A896" s="13"/>
       <c r="B896" s="14"/>
       <c r="C896" s="14"/>
@@ -32649,7 +32647,7 @@
       <c r="AB896" s="2"/>
       <c r="AC896" s="2"/>
     </row>
-    <row r="897" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="897" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A897" s="13"/>
       <c r="B897" s="14"/>
       <c r="C897" s="14"/>
@@ -32680,7 +32678,7 @@
       <c r="AB897" s="2"/>
       <c r="AC897" s="2"/>
     </row>
-    <row r="898" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="898" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A898" s="13"/>
       <c r="B898" s="14"/>
       <c r="C898" s="14"/>
@@ -32711,7 +32709,7 @@
       <c r="AB898" s="2"/>
       <c r="AC898" s="2"/>
     </row>
-    <row r="899" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="899" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A899" s="13"/>
       <c r="B899" s="14"/>
       <c r="C899" s="14"/>
@@ -32742,7 +32740,7 @@
       <c r="AB899" s="2"/>
       <c r="AC899" s="2"/>
     </row>
-    <row r="900" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="900" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A900" s="13"/>
       <c r="B900" s="14"/>
       <c r="C900" s="14"/>
@@ -32773,7 +32771,7 @@
       <c r="AB900" s="2"/>
       <c r="AC900" s="2"/>
     </row>
-    <row r="901" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="901" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A901" s="13"/>
       <c r="B901" s="14"/>
       <c r="C901" s="14"/>
@@ -32804,7 +32802,7 @@
       <c r="AB901" s="2"/>
       <c r="AC901" s="2"/>
     </row>
-    <row r="902" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="902" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A902" s="13"/>
       <c r="B902" s="14"/>
       <c r="C902" s="14"/>
@@ -32835,7 +32833,7 @@
       <c r="AB902" s="2"/>
       <c r="AC902" s="2"/>
     </row>
-    <row r="903" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="903" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A903" s="13"/>
       <c r="B903" s="14"/>
       <c r="C903" s="14"/>
@@ -32866,7 +32864,7 @@
       <c r="AB903" s="2"/>
       <c r="AC903" s="2"/>
     </row>
-    <row r="904" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="904" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A904" s="13"/>
       <c r="B904" s="14"/>
       <c r="C904" s="14"/>
@@ -32897,7 +32895,7 @@
       <c r="AB904" s="2"/>
       <c r="AC904" s="2"/>
     </row>
-    <row r="905" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="905" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A905" s="13"/>
       <c r="B905" s="14"/>
       <c r="C905" s="14"/>
@@ -32928,7 +32926,7 @@
       <c r="AB905" s="2"/>
       <c r="AC905" s="2"/>
     </row>
-    <row r="906" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="906" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A906" s="13"/>
       <c r="B906" s="14"/>
       <c r="C906" s="14"/>
@@ -32959,7 +32957,7 @@
       <c r="AB906" s="2"/>
       <c r="AC906" s="2"/>
     </row>
-    <row r="907" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="907" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A907" s="13"/>
       <c r="B907" s="14"/>
       <c r="C907" s="14"/>
@@ -32990,7 +32988,7 @@
       <c r="AB907" s="2"/>
       <c r="AC907" s="2"/>
     </row>
-    <row r="908" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="908" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A908" s="13"/>
       <c r="B908" s="14"/>
       <c r="C908" s="14"/>
@@ -33021,7 +33019,7 @@
       <c r="AB908" s="2"/>
       <c r="AC908" s="2"/>
     </row>
-    <row r="909" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="909" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A909" s="13"/>
       <c r="B909" s="14"/>
       <c r="C909" s="14"/>
@@ -33052,7 +33050,7 @@
       <c r="AB909" s="2"/>
       <c r="AC909" s="2"/>
     </row>
-    <row r="910" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="910" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A910" s="13"/>
       <c r="B910" s="14"/>
       <c r="C910" s="14"/>
@@ -33083,7 +33081,7 @@
       <c r="AB910" s="2"/>
       <c r="AC910" s="2"/>
     </row>
-    <row r="911" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="911" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A911" s="13"/>
       <c r="B911" s="14"/>
       <c r="C911" s="14"/>
@@ -33114,7 +33112,7 @@
       <c r="AB911" s="2"/>
       <c r="AC911" s="2"/>
     </row>
-    <row r="912" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="912" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A912" s="13"/>
       <c r="B912" s="14"/>
       <c r="C912" s="14"/>
@@ -33145,7 +33143,7 @@
       <c r="AB912" s="2"/>
       <c r="AC912" s="2"/>
     </row>
-    <row r="913" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="913" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A913" s="13"/>
       <c r="B913" s="14"/>
       <c r="C913" s="14"/>
@@ -33176,7 +33174,7 @@
       <c r="AB913" s="2"/>
       <c r="AC913" s="2"/>
     </row>
-    <row r="914" spans="1:29" ht="18" x14ac:dyDescent="0.5">
+    <row r="914" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A914" s="13"/>
       <c r="B914" s="14"/>
       <c r="C914" s="14"/>
@@ -33209,21 +33207,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{B3F80A84-1911-4657-9764-20E00EF707E3}"/>
+      <autoFilter ref="A11:C37" xr:uid="{5F4E176D-2B93-46A0-950B-B26013ED7CB4}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{BC8C5B64-2EEE-45C8-9C1B-CC9C88804F96}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{EB86E71A-1F82-4E99-BB9C-DE23D7B1593A}"/>
+      <autoFilter ref="A11:D37" xr:uid="{D23E26D8-230C-405D-B29D-DE30340E0E86}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{8E7B8E09-DE0D-467D-A99F-53183D2743E8}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{D654521A-AA6B-4CEC-B2D7-EC5462C09FEF}"/>
+      <autoFilter ref="A293:C332" xr:uid="{CB1E0578-1BFA-4B6B-B9DC-741C10683B95}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -33621,21 +33619,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="63.453125" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="63.44140625" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
     </row>
-    <row r="2" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
@@ -33652,12 +33650,12 @@
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -33666,7 +33664,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -33675,7 +33673,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -33684,12 +33682,12 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>9</v>
       </c>
@@ -33700,7 +33698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>62</v>
       </c>
@@ -33711,7 +33709,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>127</v>
       </c>
@@ -33719,7 +33717,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>127</v>
       </c>
@@ -33727,7 +33725,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>127</v>
       </c>
@@ -33735,7 +33733,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>127</v>
       </c>
@@ -33743,7 +33741,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>127</v>
       </c>
@@ -33751,7 +33749,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>127</v>
       </c>
@@ -33759,7 +33757,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>127</v>
       </c>
@@ -33767,7 +33765,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>170</v>
       </c>
@@ -33775,7 +33773,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>170</v>
       </c>
@@ -33783,15 +33781,15 @@
         <v>668</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="28"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="28"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>204</v>
       </c>
@@ -33799,7 +33797,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>204</v>
       </c>
@@ -33807,7 +33805,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>204</v>
       </c>
@@ -33815,7 +33813,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>204</v>
       </c>
@@ -33823,7 +33821,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>204</v>
       </c>
@@ -33831,15 +33829,15 @@
         <v>673</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="28"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="28"/>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>254</v>
       </c>
@@ -33847,7 +33845,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>254</v>
       </c>
@@ -33855,7 +33853,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
         <v>254</v>
       </c>
@@ -33863,7 +33861,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
         <v>254</v>
       </c>
@@ -33871,7 +33869,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>302</v>
       </c>
@@ -33879,7 +33877,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>302</v>
       </c>
@@ -33887,11 +33885,11 @@
         <v>679</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A44" s="28"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>335</v>
       </c>
@@ -33899,7 +33897,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>335</v>
       </c>
@@ -33907,15 +33905,15 @@
         <v>681</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A47" s="28"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="28"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>395</v>
       </c>
@@ -33923,15 +33921,15 @@
         <v>682</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A50" s="28"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A51" s="28"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
         <v>430</v>
       </c>
@@ -33939,7 +33937,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
         <v>430</v>
       </c>
@@ -33947,7 +33945,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>430</v>
       </c>
@@ -33955,7 +33953,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>430</v>
       </c>
@@ -33963,7 +33961,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>430</v>
       </c>
@@ -33971,15 +33969,15 @@
         <v>687</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="28"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="28"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="8" t="s">
         <v>475</v>
       </c>
@@ -33987,7 +33985,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
         <v>475</v>
       </c>
@@ -33995,7 +33993,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="8" t="s">
         <v>475</v>
       </c>
@@ -34003,15 +34001,15 @@
         <v>332</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A62" s="28"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="28"/>
       <c r="B63" s="11"/>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
         <v>552</v>
       </c>
@@ -34019,7 +34017,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
         <v>552</v>
       </c>
@@ -34027,7 +34025,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
         <v>552</v>
       </c>
@@ -34035,7 +34033,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
         <v>552</v>
       </c>
@@ -34043,7 +34041,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
         <v>552</v>
       </c>
@@ -34051,7 +34049,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
         <v>552</v>
       </c>
@@ -34059,7 +34057,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
         <v>552</v>
       </c>
@@ -34067,7 +34065,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
         <v>552</v>
       </c>

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHROME_DOWNLOAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B9960B-FF0B-4B28-A6E0-1C92FB815080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2AE6BD-B289-4626-9C64-F641827AB21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2755,7 +2755,7 @@
     <col min="10" max="10" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2950,9 @@
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D7" s="40" t="s">
         <v>699</v>
       </c>
@@ -33207,21 +33209,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{5F4E176D-2B93-46A0-950B-B26013ED7CB4}"/>
+      <autoFilter ref="A293:C332" xr:uid="{03B760BD-3098-4200-A88B-7DD87E81F132}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{0334D6A3-DE11-4DD4-B6A9-A1816B2D57A8}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{BC8C5B64-2EEE-45C8-9C1B-CC9C88804F96}"/>
+      <autoFilter ref="A11:D37" xr:uid="{D1B03329-67BB-449A-9C63-03D046BFC734}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{D23E26D8-230C-405D-B29D-DE30340E0E86}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{CB1E0578-1BFA-4B6B-B9DC-741C10683B95}"/>
+      <autoFilter ref="A11:C37" xr:uid="{ACB31813-514A-451D-A887-2292A5F85160}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -33650,12 +33652,12 @@
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -33664,7 +33666,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -33673,7 +33675,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -33682,7 +33684,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2AE6BD-B289-4626-9C64-F641827AB21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB71823-746D-449D-9428-B02C87465089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2991,7 +2991,9 @@
       <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D8" s="40" t="s">
         <v>699</v>
       </c>
@@ -33209,21 +33211,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{03B760BD-3098-4200-A88B-7DD87E81F132}"/>
+      <autoFilter ref="A11:C37" xr:uid="{CA360B09-7411-49D5-82C6-2A11A88E5344}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{D577A838-B3DD-46B9-BD92-AB89898FD249}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{0334D6A3-DE11-4DD4-B6A9-A1816B2D57A8}"/>
+      <autoFilter ref="A11:D37" xr:uid="{FC92A80A-88A3-4C9B-8E43-19D75DEC3192}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{D1B03329-67BB-449A-9C63-03D046BFC734}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{ACB31813-514A-451D-A887-2292A5F85160}"/>
+      <autoFilter ref="A293:C332" xr:uid="{C74DBB6C-3F5F-4E52-A21D-13B9E0FE956B}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB71823-746D-449D-9428-B02C87465089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39105592-937B-4DBE-9A73-D1F7589489F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3032,9 @@
       <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D9" s="40" t="s">
         <v>699</v>
       </c>
@@ -33211,21 +33213,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{CA360B09-7411-49D5-82C6-2A11A88E5344}"/>
+      <autoFilter ref="A293:C332" xr:uid="{7B23CA31-AC84-4052-B169-88DED77661F1}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{3621295E-5ADE-44ED-BCE3-43539BD32F0E}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{D577A838-B3DD-46B9-BD92-AB89898FD249}"/>
+      <autoFilter ref="A11:D37" xr:uid="{F145B2CB-D6FA-4B4C-9229-D48E834E487A}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{FC92A80A-88A3-4C9B-8E43-19D75DEC3192}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{C74DBB6C-3F5F-4E52-A21D-13B9E0FE956B}"/>
+      <autoFilter ref="A11:C37" xr:uid="{2A57DAA1-DC11-4E86-84C0-39BA282340C1}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39105592-937B-4DBE-9A73-D1F7589489F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400EBE1B-6D24-4FCE-8420-429C10F1D5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3075,7 +3075,9 @@
       <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D10" s="40" t="s">
         <v>699</v>
       </c>
@@ -33213,21 +33215,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{7B23CA31-AC84-4052-B169-88DED77661F1}"/>
+      <autoFilter ref="A11:C37" xr:uid="{71C16F06-0CC9-47C5-B1BA-67B450363717}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{4FF1D1B8-F76D-4302-B74B-38277B55892E}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{3621295E-5ADE-44ED-BCE3-43539BD32F0E}"/>
+      <autoFilter ref="A11:D37" xr:uid="{94B0E5C7-16A1-41CC-A3B0-593620B26B60}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{F145B2CB-D6FA-4B4C-9229-D48E834E487A}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{2A57DAA1-DC11-4E86-84C0-39BA282340C1}"/>
+      <autoFilter ref="A293:C332" xr:uid="{8F45A950-5A37-447A-A3FB-AFA83CE32034}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400EBE1B-6D24-4FCE-8420-429C10F1D5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2841F8-EB6F-40F8-B151-FB0D1AD6A21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3233,7 +3233,9 @@
       <c r="B14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D14" s="40" t="s">
         <v>699</v>
       </c>
@@ -33215,21 +33217,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{71C16F06-0CC9-47C5-B1BA-67B450363717}"/>
+      <autoFilter ref="A293:C332" xr:uid="{9A2F6395-0EA6-4E31-B978-BE1D00437761}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{D8543D54-261E-426C-847B-814C8CD4A274}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{4FF1D1B8-F76D-4302-B74B-38277B55892E}"/>
+      <autoFilter ref="A11:D37" xr:uid="{3CFF4FB4-495E-4982-B059-C6B847B23D58}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{94B0E5C7-16A1-41CC-A3B0-593620B26B60}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{8F45A950-5A37-447A-A3FB-AFA83CE32034}"/>
+      <autoFilter ref="A11:C37" xr:uid="{96B3A945-FB99-402E-AFD9-475201AF1BD3}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2841F8-EB6F-40F8-B151-FB0D1AD6A21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA6185-F996-4646-B5C2-C979B874B5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3352,7 +3352,9 @@
       <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D17" s="40" t="s">
         <v>699</v>
       </c>
@@ -3432,7 +3434,9 @@
       <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D19" s="40" t="s">
         <v>699</v>
       </c>
@@ -33217,21 +33221,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{9A2F6395-0EA6-4E31-B978-BE1D00437761}"/>
+      <autoFilter ref="A11:C37" xr:uid="{AA339591-1250-46F1-A629-591C44240F05}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{9C473676-C4E1-4CBD-8AA3-2A3E76780763}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{D8543D54-261E-426C-847B-814C8CD4A274}"/>
+      <autoFilter ref="A11:D37" xr:uid="{13E6EA58-A3C6-438A-9C99-AA00D7C85D36}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{3CFF4FB4-495E-4982-B059-C6B847B23D58}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{96B3A945-FB99-402E-AFD9-475201AF1BD3}"/>
+      <autoFilter ref="A293:C332" xr:uid="{4A992B84-A4F5-4EF2-8862-DC0C68127786}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -33627,7 +33631,9 @@
   </sheetPr>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA6185-F996-4646-B5C2-C979B874B5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A8444-32D7-489E-9C67-94639E3E6F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3625,9 @@
       <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D24" s="41"/>
       <c r="E24" s="12" t="s">
         <v>48</v>
@@ -33221,21 +33223,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{AA339591-1250-46F1-A629-591C44240F05}"/>
+      <autoFilter ref="A293:C332" xr:uid="{91A09FDF-5229-4587-A9CD-57CE399E3B82}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{773E2A67-05A0-4258-B0D7-9B8C8F718B71}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{9C473676-C4E1-4CBD-8AA3-2A3E76780763}"/>
+      <autoFilter ref="A11:D37" xr:uid="{B71070BF-636E-474A-9F3E-71DC2631685F}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{13E6EA58-A3C6-438A-9C99-AA00D7C85D36}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{4A992B84-A4F5-4EF2-8862-DC0C68127786}"/>
+      <autoFilter ref="A11:C37" xr:uid="{33801689-0A08-4022-ADAE-D8794DFA4D15}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822A8444-32D7-489E-9C67-94639E3E6F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB17E74-77A7-4846-AD8C-2E4FD0C3692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3475,7 +3475,9 @@
       <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11"/>
+      <c r="C20" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D20" s="41"/>
       <c r="E20" s="12" t="s">
         <v>40</v>
@@ -3512,7 +3514,9 @@
       <c r="B21" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D21" s="42"/>
       <c r="E21" s="12" t="s">
         <v>42</v>
@@ -33223,21 +33227,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{91A09FDF-5229-4587-A9CD-57CE399E3B82}"/>
+      <autoFilter ref="A11:C37" xr:uid="{99DFEB12-0D60-4860-AF36-0A0EC56E2289}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{9D7F700A-9E7D-452F-85E7-C2C11B11E4FA}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{773E2A67-05A0-4258-B0D7-9B8C8F718B71}"/>
+      <autoFilter ref="A11:D37" xr:uid="{90845E34-C155-47C0-9F57-671DE3DD1D09}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{B71070BF-636E-474A-9F3E-71DC2631685F}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{33801689-0A08-4022-ADAE-D8794DFA4D15}"/>
+      <autoFilter ref="A293:C332" xr:uid="{808519ED-F074-4098-ACC2-F6F317244E7C}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB17E74-77A7-4846-AD8C-2E4FD0C3692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C5DFBC-9AB1-4323-9D4A-E6181C53EB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3155,7 +3155,9 @@
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D12" s="40" t="s">
         <v>699</v>
       </c>
@@ -33227,21 +33229,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{99DFEB12-0D60-4860-AF36-0A0EC56E2289}"/>
+      <autoFilter ref="A293:C332" xr:uid="{D2E4F818-0F29-4421-90BC-46435663EAFD}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{619F39E0-FEBB-4B9E-A07D-5528BD619E1B}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{9D7F700A-9E7D-452F-85E7-C2C11B11E4FA}"/>
+      <autoFilter ref="A11:D37" xr:uid="{8218DBB5-078B-42AB-9440-A8C40FD05A85}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{90845E34-C155-47C0-9F57-671DE3DD1D09}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{808519ED-F074-4098-ACC2-F6F317244E7C}"/>
+      <autoFilter ref="A11:C37" xr:uid="{86EC24C3-1435-420D-BD35-01B7EE3E83E3}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C5DFBC-9AB1-4323-9D4A-E6181C53EB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7280BB0-1C6A-45C9-8442-63C424A3C4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3592,7 +3592,9 @@
       <c r="B23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="11"/>
+      <c r="C23" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D23" s="41"/>
       <c r="E23" s="12" t="s">
         <v>45</v>
@@ -33229,21 +33231,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{D2E4F818-0F29-4421-90BC-46435663EAFD}"/>
+      <autoFilter ref="A11:C37" xr:uid="{985A7681-6F08-4A38-913A-BDCEB9D41AEA}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{57174448-1A95-4151-A5AC-7E43D57ABD72}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{619F39E0-FEBB-4B9E-A07D-5528BD619E1B}"/>
+      <autoFilter ref="A11:D37" xr:uid="{9E673C28-5E0A-425D-B5B8-70E37D17EC6E}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{8218DBB5-078B-42AB-9440-A8C40FD05A85}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{86EC24C3-1435-420D-BD35-01B7EE3E83E3}"/>
+      <autoFilter ref="A293:C332" xr:uid="{0FF253DE-B874-4810-B710-0A2F265C02B3}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7280BB0-1C6A-45C9-8442-63C424A3C4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB49A8C-456A-4D81-BE9D-7FD7954C0E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3397,7 +3397,9 @@
       <c r="B18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D18" s="40" t="s">
         <v>699</v>
       </c>
@@ -33231,21 +33233,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{985A7681-6F08-4A38-913A-BDCEB9D41AEA}"/>
+      <autoFilter ref="A293:C332" xr:uid="{761BB238-E391-481E-B8FD-CB0A433B1755}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{108EF115-845A-4A3B-8052-2A172855A7E8}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{57174448-1A95-4151-A5AC-7E43D57ABD72}"/>
+      <autoFilter ref="A11:D37" xr:uid="{C44F38EF-0C34-44B6-B362-B7899E4F5FAF}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{9E673C28-5E0A-425D-B5B8-70E37D17EC6E}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{0FF253DE-B874-4810-B710-0A2F265C02B3}"/>
+      <autoFilter ref="A11:C37" xr:uid="{E2E80559-C2F5-4CC9-91F6-8A15A823A0BE}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB49A8C-456A-4D81-BE9D-7FD7954C0E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A9499-9752-452A-B2D2-91A1243FBD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3276,7 +3276,9 @@
       <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D15" s="40" t="s">
         <v>699</v>
       </c>
@@ -33233,21 +33235,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{761BB238-E391-481E-B8FD-CB0A433B1755}"/>
+      <autoFilter ref="A11:C37" xr:uid="{18D21E8F-D68F-4802-A7E0-218B7EB2DBCF}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{88515606-CB09-4FD7-B4F9-1570D280E99B}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{108EF115-845A-4A3B-8052-2A172855A7E8}"/>
+      <autoFilter ref="A11:D37" xr:uid="{E430442E-27AD-4022-B1DB-883F559B6FDE}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{C44F38EF-0C34-44B6-B362-B7899E4F5FAF}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{E2E80559-C2F5-4CC9-91F6-8A15A823A0BE}"/>
+      <autoFilter ref="A293:C332" xr:uid="{13E5D171-0A15-43E5-8FFA-3D1605DE2F15}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3A9499-9752-452A-B2D2-91A1243FBD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FCE66-2EC3-42AC-8D22-38FE4D2897AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="105" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3116,7 +3116,9 @@
       <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D11" s="40" t="s">
         <v>699</v>
       </c>
@@ -33235,21 +33237,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{18D21E8F-D68F-4802-A7E0-218B7EB2DBCF}"/>
+      <autoFilter ref="A293:C332" xr:uid="{293C8795-6939-4E15-B490-FFC01FE455D6}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{598D237A-EC0D-497C-BE05-D9330E3E675A}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{88515606-CB09-4FD7-B4F9-1570D280E99B}"/>
+      <autoFilter ref="A11:D37" xr:uid="{A0CA90FA-2429-40BC-A251-DEB7926EB804}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{E430442E-27AD-4022-B1DB-883F559B6FDE}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{13E5D171-0A15-43E5-8FFA-3D1605DE2F15}"/>
+      <autoFilter ref="A11:C37" xr:uid="{F28D4393-0909-4E75-A127-38A37EBE53B8}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7FCE66-2EC3-42AC-8D22-38FE4D2897AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B646E741-CF78-40E2-8E7D-1D59EB763D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="105" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3678,7 +3678,9 @@
       <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="11"/>
+      <c r="C25" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D25" s="40" t="s">
         <v>699</v>
       </c>
@@ -33237,21 +33239,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{293C8795-6939-4E15-B490-FFC01FE455D6}"/>
+      <autoFilter ref="A11:C37" xr:uid="{7BD083F4-5F6C-4FEA-8E6B-74AAA946FDDF}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{A66C32C1-26F9-421A-B5CD-EA442378FB39}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{598D237A-EC0D-497C-BE05-D9330E3E675A}"/>
+      <autoFilter ref="A11:D37" xr:uid="{D9ACB83B-9FF9-4372-803A-BCCB2815BD1E}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{A0CA90FA-2429-40BC-A251-DEB7926EB804}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{F28D4393-0909-4E75-A127-38A37EBE53B8}"/>
+      <autoFilter ref="A293:C332" xr:uid="{D714103B-D760-42BD-823C-859E73C4085B}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B646E741-CF78-40E2-8E7D-1D59EB763D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816BCEF-D650-4852-9741-0644EB1F04C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3319,7 +3319,9 @@
       <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D16" s="40" t="s">
         <v>699</v>
       </c>
@@ -3792,7 +3794,9 @@
       <c r="B28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="E28" s="12" t="s">
         <v>55</v>
       </c>
@@ -33239,21 +33243,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{7BD083F4-5F6C-4FEA-8E6B-74AAA946FDDF}"/>
+      <autoFilter ref="A293:C332" xr:uid="{403AAA70-4867-44AE-A396-4C945D9324A0}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{76B72831-92A8-4EC8-A737-6531D6EC8004}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{A66C32C1-26F9-421A-B5CD-EA442378FB39}"/>
+      <autoFilter ref="A11:D37" xr:uid="{CF55B50C-2AF3-45C8-B14B-4FF2E2A1DE28}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{D9ACB83B-9FF9-4372-803A-BCCB2815BD1E}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{D714103B-D760-42BD-823C-859E73C4085B}"/>
+      <autoFilter ref="A11:C37" xr:uid="{58CBA2C6-A520-44EC-9737-FB8DF8ED064C}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816BCEF-D650-4852-9741-0644EB1F04C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F1385C-52CC-49AD-9E65-22670B431216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4042,7 +4042,9 @@
       <c r="B35" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D35" s="41"/>
       <c r="E35" s="12" t="s">
         <v>64</v>
@@ -33243,21 +33245,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{403AAA70-4867-44AE-A396-4C945D9324A0}"/>
+      <autoFilter ref="A11:C37" xr:uid="{EEBF0CA1-6036-49CF-90EE-0373E4709966}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{9EF791B0-AD2E-4845-B31E-AEA2A67290D6}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{76B72831-92A8-4EC8-A737-6531D6EC8004}"/>
+      <autoFilter ref="A11:D37" xr:uid="{031277D1-5ECE-438C-99F7-3BB1B3A040BB}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{CF55B50C-2AF3-45C8-B14B-4FF2E2A1DE28}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{58CBA2C6-A520-44EC-9737-FB8DF8ED064C}"/>
+      <autoFilter ref="A293:C332" xr:uid="{DE9BAEEA-2A15-4372-B460-660CE1531E74}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F1385C-52CC-49AD-9E65-22670B431216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F20639C-17BB-4043-8191-CEBF35A592A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4081,7 +4081,9 @@
       <c r="B36" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D36" s="41"/>
       <c r="E36" s="12" t="s">
         <v>66</v>
@@ -33245,21 +33247,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{EEBF0CA1-6036-49CF-90EE-0373E4709966}"/>
+      <autoFilter ref="A293:C332" xr:uid="{C8DC8BB4-0375-48AC-BAB1-EA47EEF5CCB7}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{18DEF6C5-1CD6-4D11-AB0D-9C9B5B97D257}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{9EF791B0-AD2E-4845-B31E-AEA2A67290D6}"/>
+      <autoFilter ref="A11:D37" xr:uid="{CBCCCB01-2F84-4738-A551-2E3B2004ACA7}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{031277D1-5ECE-438C-99F7-3BB1B3A040BB}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{DE9BAEEA-2A15-4372-B460-660CE1531E74}"/>
+      <autoFilter ref="A11:C37" xr:uid="{9AC74EAB-6038-43CF-98D8-5424892AD0A2}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F20639C-17BB-4043-8191-CEBF35A592A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A306E7-CAFA-4F71-908E-2ABDA7D43671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4120,7 +4120,9 @@
       <c r="B37" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D37" s="41"/>
       <c r="E37" s="12" t="s">
         <v>51</v>
@@ -33247,21 +33249,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{C8DC8BB4-0375-48AC-BAB1-EA47EEF5CCB7}"/>
+      <autoFilter ref="A11:C37" xr:uid="{74CC02F8-A59E-4927-A235-9126A4DCBAA0}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{F1CE6741-F220-498B-B1C8-32AE9F9042B4}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{18DEF6C5-1CD6-4D11-AB0D-9C9B5B97D257}"/>
+      <autoFilter ref="A11:D37" xr:uid="{B65F90A1-4B11-4FFF-B7B5-4AA8FDB9E984}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{CBCCCB01-2F84-4738-A551-2E3B2004ACA7}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{9AC74EAB-6038-43CF-98D8-5424892AD0A2}"/>
+      <autoFilter ref="A293:C332" xr:uid="{88FDFF61-5445-4143-B8D1-04C6AAFD3B9E}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A306E7-CAFA-4F71-908E-2ABDA7D43671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3010BBE9-985C-4B74-9BC6-983F79FE22A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5362,7 +5362,9 @@
       <c r="B71" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="31"/>
+      <c r="C71" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D71" s="41"/>
       <c r="E71" s="12" t="s">
         <v>129</v>
@@ -33249,21 +33251,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{74CC02F8-A59E-4927-A235-9126A4DCBAA0}"/>
+      <autoFilter ref="A293:C332" xr:uid="{55FA2094-C16B-4512-AB14-7198D61D6896}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{9D24A30D-46F4-45F5-BCF2-7F097528CF16}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{F1CE6741-F220-498B-B1C8-32AE9F9042B4}"/>
+      <autoFilter ref="A11:D37" xr:uid="{7F36A106-C3E6-4B2B-9EDD-343A51537E36}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{B65F90A1-4B11-4FFF-B7B5-4AA8FDB9E984}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{88FDFF61-5445-4143-B8D1-04C6AAFD3B9E}"/>
+      <autoFilter ref="A11:C37" xr:uid="{25E286C5-5B55-411E-8DE1-5C6A849E3BED}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3010BBE9-985C-4B74-9BC6-983F79FE22A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F66E20-D00A-489E-A534-9A3BCC97FEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5438,7 +5438,9 @@
       <c r="B73" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="31"/>
+      <c r="C73" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D73" s="41"/>
       <c r="E73" s="12" t="s">
         <v>123</v>
@@ -33251,21 +33253,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{55FA2094-C16B-4512-AB14-7198D61D6896}"/>
+      <autoFilter ref="A11:C37" xr:uid="{7E6BA0A0-0988-400C-963E-D3C2589B70DB}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{75CA9750-6B30-4C01-8CF3-54A4835F1B0D}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{9D24A30D-46F4-45F5-BCF2-7F097528CF16}"/>
+      <autoFilter ref="A11:D37" xr:uid="{B7C70064-F9B3-4279-9290-543149F2240C}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{7F36A106-C3E6-4B2B-9EDD-343A51537E36}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{25E286C5-5B55-411E-8DE1-5C6A849E3BED}"/>
+      <autoFilter ref="A293:C332" xr:uid="{896812AA-3C53-4AD8-9FCB-3732DB2250F3}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F66E20-D00A-489E-A534-9A3BCC97FEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C45AAD7-971F-471A-B05B-3E9441F91C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5477,7 +5477,9 @@
       <c r="B74" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="31"/>
+      <c r="C74" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D74" s="41"/>
       <c r="E74" s="12" t="s">
         <v>134</v>
@@ -33253,21 +33255,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{7E6BA0A0-0988-400C-963E-D3C2589B70DB}"/>
+      <autoFilter ref="A293:C332" xr:uid="{BE0E08B5-3C4A-4FC2-9237-DC56F34A01FF}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{6FE80D4C-5A95-41CB-ADBB-4134DEA739DA}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{75CA9750-6B30-4C01-8CF3-54A4835F1B0D}"/>
+      <autoFilter ref="A11:D37" xr:uid="{F9640821-01DC-4292-B117-142DD7784A77}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{B7C70064-F9B3-4279-9290-543149F2240C}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{896812AA-3C53-4AD8-9FCB-3732DB2250F3}"/>
+      <autoFilter ref="A11:C37" xr:uid="{5895A0E9-0F89-49C4-A5D7-473972E545B5}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C45AAD7-971F-471A-B05B-3E9441F91C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430C8822-8288-4245-B8CD-D213485B6B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2739,8 +2739,8 @@
   </sheetPr>
   <dimension ref="A1:AC914"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5516,7 +5516,9 @@
       <c r="B75" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="31"/>
+      <c r="C75" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D75" s="41"/>
       <c r="E75" s="12" t="s">
         <v>136</v>
@@ -33255,21 +33257,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{BE0E08B5-3C4A-4FC2-9237-DC56F34A01FF}"/>
+      <autoFilter ref="A11:C37" xr:uid="{39E25E32-735D-4BC2-B7A2-4AE8213E59B5}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{D29DA7B5-C0D7-499C-ABFC-6830DB817164}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{6FE80D4C-5A95-41CB-ADBB-4134DEA739DA}"/>
+      <autoFilter ref="A11:D37" xr:uid="{5033F451-A53E-4F25-B235-A190386B32B1}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{F9640821-01DC-4292-B117-142DD7784A77}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{5895A0E9-0F89-49C4-A5D7-473972E545B5}"/>
+      <autoFilter ref="A293:C332" xr:uid="{676F2F63-55C9-485F-9799-77E211A2E901}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430C8822-8288-4245-B8CD-D213485B6B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473B12D8-DF8C-46DE-AA3E-0CA50DA6FB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5555,7 +5555,9 @@
       <c r="B76" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="31"/>
+      <c r="C76" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D76" s="41"/>
       <c r="E76" s="12" t="s">
         <v>138</v>
@@ -33257,21 +33259,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{39E25E32-735D-4BC2-B7A2-4AE8213E59B5}"/>
+      <autoFilter ref="A293:C332" xr:uid="{F063E7B7-67D0-4539-B8E0-2BB1A71A4426}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{C7442002-2D04-4764-BC41-E222901A0818}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{D29DA7B5-C0D7-499C-ABFC-6830DB817164}"/>
+      <autoFilter ref="A11:D37" xr:uid="{E39A8A70-66F6-45C3-8633-BD461886AE42}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{5033F451-A53E-4F25-B235-A190386B32B1}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{676F2F63-55C9-485F-9799-77E211A2E901}"/>
+      <autoFilter ref="A11:C37" xr:uid="{ABB95408-7DF5-4031-A0C3-20DC0DD97B78}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473B12D8-DF8C-46DE-AA3E-0CA50DA6FB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA3565-509C-4BC5-87F5-5C803168EFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5594,7 +5594,9 @@
       <c r="B77" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C77" s="32"/>
+      <c r="C77" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D77" s="44"/>
       <c r="E77" s="12" t="s">
         <v>140</v>
@@ -33259,21 +33261,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{F063E7B7-67D0-4539-B8E0-2BB1A71A4426}"/>
+      <autoFilter ref="A11:C37" xr:uid="{1FF6F711-3D34-4FFE-A7E5-D6AE4C4AD7A3}"/>
+    </customSheetView>
+    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{F7D1D9A8-58C5-4C73-9C4C-B1A99E4E0AA3}"/>
     </customSheetView>
     <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{C7442002-2D04-4764-BC41-E222901A0818}"/>
+      <autoFilter ref="A11:D37" xr:uid="{B954E505-2019-47BD-B11F-D3553A0C8112}"/>
     </customSheetView>
-    <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{E39A8A70-66F6-45C3-8633-BD461886AE42}"/>
-    </customSheetView>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{ABB95408-7DF5-4031-A0C3-20DC0DD97B78}"/>
+      <autoFilter ref="A293:C332" xr:uid="{27232AC9-74CE-4C2A-8FD5-EC36CF194FD9}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">

--- a/DSA_sheet.xlsx
+++ b/DSA_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aryan_Mule\OneDrive\Desktop\DSA\DSA-Practitioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA3565-509C-4BC5-87F5-5C803168EFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFE5729-A021-4A35-9E6B-27DB251B541A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{8391B649-8505-4799-A195-AB43CB26E425}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="701">
   <si>
     <t>DSA by Shradha Ma'am</t>
   </si>
@@ -2740,7 +2740,7 @@
   <dimension ref="A1:AC914"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5633,7 +5633,9 @@
       <c r="B78" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="32"/>
+      <c r="C78" s="40" t="s">
+        <v>699</v>
+      </c>
       <c r="D78" s="44"/>
       <c r="E78" s="12" t="s">
         <v>142</v>
@@ -33261,21 +33263,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{1FF6F711-3D34-4FFE-A7E5-D6AE4C4AD7A3}"/>
+      <autoFilter ref="A293:C332" xr:uid="{3FDCEEBD-81F6-467F-A74F-EACD27AD5F8C}"/>
+    </customSheetView>
+    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{D990F9CF-3DBA-4942-B865-6FC33D74E8CD}"/>
     </customSheetView>
     <customSheetView guid="{1791E41F-2FB6-4B7D-BE94-80DC48681D60}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{F7D1D9A8-58C5-4C73-9C4C-B1A99E4E0AA3}"/>
+      <autoFilter ref="A11:D37" xr:uid="{2FF2D49F-F7C9-4A64-B2D3-878750EC5A49}"/>
     </customSheetView>
-    <customSheetView guid="{8391B649-8505-4799-A195-AB43CB26E425}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{64D3A7AF-0206-4BAD-A427-FE23D03476D4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{B954E505-2019-47BD-B11F-D3553A0C8112}"/>
-    </customSheetView>
-    <customSheetView guid="{AAC291DF-A190-44CD-BE51-531E90BAF94B}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{27232AC9-74CE-4C2A-8FD5-EC36CF194FD9}"/>
+      <autoFilter ref="A11:C37" xr:uid="{A18603A0-0B7E-49A1-A2F3-2C79FA03B9B1}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
